--- a/4月/4月份客户发货需求(4.18).xlsx
+++ b/4月/4月份客户发货需求(4.18).xlsx
@@ -2766,8 +2766,8 @@
   <dimension ref="A1:AA1048576"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A126" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I171" sqref="I171"/>
+      <pane ySplit="1" topLeftCell="A138" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I179" sqref="I179"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>

--- a/4月/4月份客户发货需求(4.18).xlsx
+++ b/4月/4月份客户发货需求(4.18).xlsx
@@ -2767,7 +2767,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A138" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I179" sqref="I179"/>
+      <selection pane="bottomLeft" activeCell="G167" sqref="G167"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>

--- a/4月/4月份客户发货需求(4.18).xlsx
+++ b/4月/4月份客户发货需求(4.18).xlsx
@@ -10,7 +10,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$W$158</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$W$169</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
@@ -566,12 +566,100 @@
         </r>
       </text>
     </comment>
+    <comment ref="F165" authorId="4">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="12"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">发往泰国清迈府
+U10 灰色
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F167" authorId="4">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">U8 </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>粉色</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F169" authorId="4">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>3</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>个粉色</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> 1</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>个灰色</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="927" uniqueCount="494">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="957" uniqueCount="506">
   <si>
     <t>下单日期</t>
   </si>
@@ -2057,10 +2145,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>13804089031</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>辽宁省大连市瓦房店市铁东街道 西长春路二段路口，明轩网咖对面黄色二楼</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -2223,10 +2307,6 @@
     <t>刘娟</t>
   </si>
   <si>
-    <t>13613828031</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>河南省郑州市二七区庆丰街17号院鑫苑现代城4号楼</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -2235,6 +2315,59 @@
   </si>
   <si>
     <t>广东省清远市清新区星光大道领秀瑞城西门</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄珊</t>
+  </si>
+  <si>
+    <t>上海市上海市浦东新区祖冲之路899号82号楼喜马拉雅</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Walt</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">香港特别行政区香港岛其它区 "D’Vieng Santitham 66/2 Hussadhisawee Rd. Changpuak Mueng Chiangmai .Chiangmai" </t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>许佳一</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>熊静萍</t>
+  </si>
+  <si>
+    <t xml:space="preserve">江苏省徐州市铜山区国基城邦小区29号楼2单元1201 </t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.7m×1m×5cm -1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>江西省南昌市青山湖区北京东路1198号天泽园12-3-1101室</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>谷梦溪</t>
+  </si>
+  <si>
+    <t>河南省郑州市管城回族区郑州市管城区经北二路远大理想城66号楼一单元205号</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>冯博</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>90m×1.8m×5cm -1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>河南省郑州市二七区庆丰街17号院鑫苑现代城4号楼</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -2242,11 +2375,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="176" formatCode="000000"/>
     <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="178" formatCode="0_ "/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2340,6 +2474,13 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -2405,7 +2546,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2483,7 +2624,10 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="178" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2766,8 +2910,8 @@
   <dimension ref="A1:AA1048576"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A138" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G167" sqref="G167"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G200" sqref="G200"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2778,9 +2922,9 @@
     <col min="4" max="4" width="11.5" style="3"/>
     <col min="5" max="5" width="11.75" style="3" customWidth="1"/>
     <col min="6" max="6" width="15.625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="14.25" style="27" customWidth="1"/>
-    <col min="8" max="8" width="23.625" style="24" customWidth="1"/>
-    <col min="9" max="9" width="77" style="3" customWidth="1"/>
+    <col min="7" max="7" width="12.875" style="3" customWidth="1"/>
+    <col min="8" max="8" width="23.625" style="28" customWidth="1"/>
+    <col min="9" max="9" width="117.125" style="3" customWidth="1"/>
     <col min="10" max="19" width="9" style="4"/>
     <col min="20" max="20" width="9" style="3"/>
     <col min="21" max="21" width="19.25" style="3" customWidth="1"/>
@@ -2811,7 +2955,7 @@
       <c r="G1" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="23" t="s">
+      <c r="H1" s="27" t="s">
         <v>7</v>
       </c>
       <c r="I1" s="8" t="s">
@@ -2881,7 +3025,7 @@
       <c r="F2" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="G2" s="27">
+      <c r="G2" s="3">
         <v>15541661918</v>
       </c>
       <c r="H2" s="3"/>
@@ -2923,7 +3067,7 @@
       <c r="F3" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="G3" s="27">
+      <c r="G3" s="3">
         <v>13529880946</v>
       </c>
       <c r="H3" s="3"/>
@@ -2968,7 +3112,7 @@
       <c r="F4" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="G4" s="27">
+      <c r="G4" s="3">
         <v>15188060330</v>
       </c>
       <c r="H4" s="3"/>
@@ -3010,7 +3154,7 @@
       <c r="F5" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="G5" s="27">
+      <c r="G5" s="3">
         <v>13529880946</v>
       </c>
       <c r="H5" s="3"/>
@@ -3052,7 +3196,7 @@
       <c r="F6" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="G6" s="27">
+      <c r="G6" s="3">
         <v>13529880946</v>
       </c>
       <c r="H6" s="3"/>
@@ -3093,7 +3237,7 @@
       <c r="F7" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="G7" s="27">
+      <c r="G7" s="3">
         <v>15188060330</v>
       </c>
       <c r="H7" s="3"/>
@@ -3135,7 +3279,7 @@
       <c r="F8" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="G8" s="27">
+      <c r="G8" s="3">
         <v>18621809870</v>
       </c>
       <c r="H8" s="3"/>
@@ -3177,7 +3321,7 @@
       <c r="F9" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="G9" s="27">
+      <c r="G9" s="3">
         <v>15952956431</v>
       </c>
       <c r="H9" s="3"/>
@@ -3222,7 +3366,7 @@
       <c r="F10" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="G10" s="27">
+      <c r="G10" s="3">
         <v>13926721468</v>
       </c>
       <c r="H10" s="21" t="s">
@@ -3269,7 +3413,7 @@
       <c r="F11" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="G11" s="27">
+      <c r="G11" s="3">
         <v>18674390819</v>
       </c>
       <c r="H11" s="21" t="s">
@@ -3316,7 +3460,7 @@
       <c r="F12" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="G12" s="27">
+      <c r="G12" s="3">
         <v>18632655996</v>
       </c>
       <c r="H12" s="3"/>
@@ -3361,7 +3505,7 @@
       <c r="F13" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="G13" s="27">
+      <c r="G13" s="3">
         <v>13600705788</v>
       </c>
       <c r="H13" s="3"/>
@@ -3406,7 +3550,7 @@
       <c r="F14" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="G14" s="27">
+      <c r="G14" s="3">
         <v>15807873218</v>
       </c>
       <c r="H14" s="3"/>
@@ -3448,7 +3592,7 @@
       <c r="F15" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="G15" s="27">
+      <c r="G15" s="3">
         <v>13878747196</v>
       </c>
       <c r="H15" s="3"/>
@@ -3490,7 +3634,7 @@
       <c r="F16" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="G16" s="27">
+      <c r="G16" s="3">
         <v>15810794842</v>
       </c>
       <c r="H16" s="3"/>
@@ -3532,7 +3676,7 @@
       <c r="F17" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="G17" s="27">
+      <c r="G17" s="3">
         <v>13873285987</v>
       </c>
       <c r="H17" s="3"/>
@@ -3573,7 +3717,7 @@
       <c r="F18" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="G18" s="27">
+      <c r="G18" s="3">
         <v>13823684603</v>
       </c>
       <c r="H18" s="3"/>
@@ -3617,7 +3761,7 @@
       <c r="F19" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="G19" s="27">
+      <c r="G19" s="3">
         <v>18777512110</v>
       </c>
       <c r="H19" s="3"/>
@@ -3658,7 +3802,7 @@
       <c r="F20" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="G20" s="27">
+      <c r="G20" s="3">
         <v>15303437137</v>
       </c>
       <c r="H20" s="3"/>
@@ -3702,7 +3846,7 @@
       <c r="F21" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="G21" s="27">
+      <c r="G21" s="3">
         <v>13911011596</v>
       </c>
       <c r="H21" s="21" t="s">
@@ -3757,7 +3901,7 @@
       <c r="F22" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="G22" s="27">
+      <c r="G22" s="3">
         <v>13833511795</v>
       </c>
       <c r="H22" s="3"/>
@@ -3798,7 +3942,7 @@
       <c r="F23" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="G23" s="27">
+      <c r="G23" s="3">
         <v>13838610060</v>
       </c>
       <c r="H23" s="3"/>
@@ -3839,7 +3983,7 @@
       <c r="F24" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="G24" s="27">
+      <c r="G24" s="3">
         <v>13393860728</v>
       </c>
       <c r="H24" s="3"/>
@@ -3880,7 +4024,7 @@
       <c r="F25" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="G25" s="27">
+      <c r="G25" s="3">
         <v>13703906190</v>
       </c>
       <c r="H25" s="3"/>
@@ -3921,7 +4065,7 @@
       <c r="F26" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="G26" s="27">
+      <c r="G26" s="3">
         <v>13978694522</v>
       </c>
       <c r="H26" s="3"/>
@@ -3962,7 +4106,7 @@
       <c r="F27" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="G27" s="27">
+      <c r="G27" s="3">
         <v>13978694522</v>
       </c>
       <c r="H27" s="3"/>
@@ -4003,7 +4147,7 @@
       <c r="F28" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="G28" s="27">
+      <c r="G28" s="3">
         <v>13769414941</v>
       </c>
       <c r="H28" s="21" t="s">
@@ -4046,7 +4190,7 @@
       <c r="F29" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="G29" s="27">
+      <c r="G29" s="3">
         <v>13720826093</v>
       </c>
       <c r="H29" s="3"/>
@@ -4090,7 +4234,7 @@
       <c r="F30" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="G30" s="27">
+      <c r="G30" s="3">
         <v>15958580422</v>
       </c>
       <c r="H30" s="3"/>
@@ -4131,7 +4275,7 @@
       <c r="F31" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="G31" s="27">
+      <c r="G31" s="3">
         <v>18952299872</v>
       </c>
       <c r="H31" s="3"/>
@@ -4181,7 +4325,7 @@
       <c r="F32" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="G32" s="27">
+      <c r="G32" s="3">
         <v>13834375859</v>
       </c>
       <c r="H32" s="21" t="s">
@@ -4227,7 +4371,7 @@
       <c r="F33" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="G33" s="27">
+      <c r="G33" s="3">
         <v>13580870138</v>
       </c>
       <c r="H33" s="3"/>
@@ -4268,7 +4412,7 @@
       <c r="F34" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="G34" s="27">
+      <c r="G34" s="3">
         <v>15043062624</v>
       </c>
       <c r="H34" s="3"/>
@@ -4312,7 +4456,7 @@
       <c r="F35" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="G35" s="27">
+      <c r="G35" s="3">
         <v>13959199793</v>
       </c>
       <c r="H35" s="3"/>
@@ -4353,7 +4497,7 @@
       <c r="F36" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="G36" s="27">
+      <c r="G36" s="3">
         <v>13590276969</v>
       </c>
       <c r="H36" s="3"/>
@@ -4394,7 +4538,7 @@
       <c r="F37" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="G37" s="27">
+      <c r="G37" s="3">
         <v>15610265228</v>
       </c>
       <c r="H37" s="3"/>
@@ -4441,7 +4585,7 @@
       <c r="F38" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="G38" s="27">
+      <c r="G38" s="3">
         <v>18507099282</v>
       </c>
       <c r="H38" s="3"/>
@@ -4482,7 +4626,7 @@
       <c r="F39" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="G39" s="27">
+      <c r="G39" s="3">
         <v>13177777058</v>
       </c>
       <c r="H39" s="3"/>
@@ -4529,7 +4673,7 @@
       <c r="F40" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="G40" s="27">
+      <c r="G40" s="3">
         <v>18231557792</v>
       </c>
       <c r="H40" s="3"/>
@@ -4573,7 +4717,7 @@
       <c r="F41" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="G41" s="27">
+      <c r="G41" s="3">
         <v>13873823487</v>
       </c>
       <c r="H41" s="3"/>
@@ -4614,7 +4758,7 @@
       <c r="F42" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="G42" s="27">
+      <c r="G42" s="3">
         <v>13613016376</v>
       </c>
       <c r="H42" s="3"/>
@@ -4658,7 +4802,7 @@
       <c r="F43" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="G43" s="27">
+      <c r="G43" s="3">
         <v>13862508527</v>
       </c>
       <c r="H43" s="3"/>
@@ -4702,7 +4846,7 @@
       <c r="F44" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="G44" s="27">
+      <c r="G44" s="3">
         <v>18076558205</v>
       </c>
       <c r="H44" s="3"/>
@@ -4746,7 +4890,7 @@
       <c r="F45" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="G45" s="27">
+      <c r="G45" s="3">
         <v>13599991255</v>
       </c>
       <c r="H45" s="3"/>
@@ -4790,7 +4934,7 @@
       <c r="F46" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="G46" s="27">
+      <c r="G46" s="3">
         <v>13973706089</v>
       </c>
       <c r="H46" s="3"/>
@@ -4834,7 +4978,7 @@
       <c r="F47" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="G47" s="27">
+      <c r="G47" s="3">
         <v>13368591500</v>
       </c>
       <c r="H47" s="3"/>
@@ -4875,7 +5019,7 @@
       <c r="F48" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="G48" s="27">
+      <c r="G48" s="3">
         <v>13536432304</v>
       </c>
       <c r="H48" s="3"/>
@@ -4916,7 +5060,7 @@
       <c r="F49" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="G49" s="27">
+      <c r="G49" s="3">
         <v>15976076909</v>
       </c>
       <c r="H49" s="3"/>
@@ -4957,7 +5101,7 @@
       <c r="F50" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="G50" s="27">
+      <c r="G50" s="3">
         <v>13922021124</v>
       </c>
       <c r="H50" s="3"/>
@@ -4998,7 +5142,7 @@
       <c r="F51" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="G51" s="27">
+      <c r="G51" s="3">
         <v>13851387566</v>
       </c>
       <c r="H51" s="3"/>
@@ -5039,7 +5183,7 @@
       <c r="F52" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="G52" s="27">
+      <c r="G52" s="3">
         <v>15705171013</v>
       </c>
       <c r="H52" s="3"/>
@@ -5080,7 +5224,7 @@
       <c r="F53" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="G53" s="27">
+      <c r="G53" s="3">
         <v>18511805689</v>
       </c>
       <c r="H53" s="3"/>
@@ -5121,7 +5265,7 @@
       <c r="F54" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="G54" s="27">
+      <c r="G54" s="3">
         <v>13680968118</v>
       </c>
       <c r="H54" s="3"/>
@@ -5177,7 +5321,7 @@
       <c r="F55" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="G55" s="27">
+      <c r="G55" s="3">
         <v>13204210284</v>
       </c>
       <c r="H55" s="3"/>
@@ -5218,7 +5362,7 @@
       <c r="F56" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="G56" s="27">
+      <c r="G56" s="3">
         <v>15071537575</v>
       </c>
       <c r="H56" s="3"/>
@@ -5260,7 +5404,7 @@
       <c r="F57" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="G57" s="27">
+      <c r="G57" s="3">
         <v>15989866517</v>
       </c>
       <c r="H57" s="3"/>
@@ -5304,7 +5448,7 @@
       <c r="F58" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="G58" s="27">
+      <c r="G58" s="3">
         <v>13599991255</v>
       </c>
       <c r="H58" s="3"/>
@@ -5345,7 +5489,7 @@
       <c r="F59" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="G59" s="27">
+      <c r="G59" s="3">
         <v>15942125342</v>
       </c>
       <c r="H59" s="3"/>
@@ -5386,7 +5530,7 @@
       <c r="F60" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="G60" s="27">
+      <c r="G60" s="3">
         <v>13393860728</v>
       </c>
       <c r="H60" s="3"/>
@@ -5428,7 +5572,7 @@
       <c r="F61" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="G61" s="27">
+      <c r="G61" s="3">
         <v>15296959900</v>
       </c>
       <c r="H61" s="3"/>
@@ -5481,7 +5625,7 @@
       <c r="F62" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="G62" s="27">
+      <c r="G62" s="3">
         <v>18992301566</v>
       </c>
       <c r="H62" s="3"/>
@@ -5522,7 +5666,7 @@
       <c r="F63" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="G63" s="27">
+      <c r="G63" s="3">
         <v>18601239906</v>
       </c>
       <c r="H63" s="3"/>
@@ -5563,7 +5707,7 @@
       <c r="F64" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="G64" s="27">
+      <c r="G64" s="3">
         <v>15207704642</v>
       </c>
       <c r="H64" s="3"/>
@@ -5604,7 +5748,7 @@
       <c r="F65" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="G65" s="27">
+      <c r="G65" s="3">
         <v>15347107729</v>
       </c>
       <c r="H65" s="3"/>
@@ -5648,7 +5792,7 @@
       <c r="F66" t="s">
         <v>222</v>
       </c>
-      <c r="G66" s="27">
+      <c r="G66" s="3">
         <v>13960949789</v>
       </c>
       <c r="H66" s="18"/>
@@ -5693,7 +5837,7 @@
       <c r="F67" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="G67" s="27">
+      <c r="G67" s="3">
         <v>13978419895</v>
       </c>
       <c r="H67" s="18"/>
@@ -5734,7 +5878,7 @@
       <c r="F68" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="G68" s="27">
+      <c r="G68" s="3">
         <v>13910560859</v>
       </c>
       <c r="H68" s="18"/>
@@ -5775,7 +5919,7 @@
       <c r="F69" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="G69" s="27">
+      <c r="G69" s="3">
         <v>13926802555</v>
       </c>
       <c r="H69" s="18"/>
@@ -5819,7 +5963,7 @@
       <c r="F70" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="G70" s="27">
+      <c r="G70" s="3">
         <v>15931530860</v>
       </c>
       <c r="H70" s="18"/>
@@ -5863,7 +6007,7 @@
       <c r="F71" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="G71" s="27">
+      <c r="G71" s="3">
         <v>18650818018</v>
       </c>
       <c r="H71" s="18"/>
@@ -5910,7 +6054,7 @@
       <c r="F72" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="G72" s="27">
+      <c r="G72" s="3">
         <v>18125357690</v>
       </c>
       <c r="H72" s="18"/>
@@ -5957,7 +6101,7 @@
       <c r="F73" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="G73" s="27">
+      <c r="G73" s="3">
         <v>13680968118</v>
       </c>
       <c r="H73" s="18"/>
@@ -6004,7 +6148,7 @@
       <c r="F74" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="G74" s="27">
+      <c r="G74" s="3">
         <v>15510105483</v>
       </c>
       <c r="H74" s="18"/>
@@ -6048,7 +6192,7 @@
       <c r="F75" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="G75" s="27">
+      <c r="G75" s="3">
         <v>18757645542</v>
       </c>
       <c r="H75" s="18"/>
@@ -6095,7 +6239,7 @@
       <c r="F76" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="G76" s="27">
+      <c r="G76" s="3">
         <v>17686252660</v>
       </c>
       <c r="H76" s="18">
@@ -6139,7 +6283,7 @@
       <c r="F77" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="G77" s="27">
+      <c r="G77" s="3">
         <v>13680968118</v>
       </c>
       <c r="H77" s="18"/>
@@ -6191,7 +6335,7 @@
       <c r="F78" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="G78" s="27">
+      <c r="G78" s="3">
         <v>13862099690</v>
       </c>
       <c r="H78" s="18"/>
@@ -6244,7 +6388,7 @@
       <c r="F79" s="3" t="s">
         <v>249</v>
       </c>
-      <c r="G79" s="27">
+      <c r="G79" s="3">
         <v>13102855886</v>
       </c>
       <c r="H79" s="18"/>
@@ -6294,7 +6438,7 @@
       <c r="F80" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="G80" s="27">
+      <c r="G80" s="3">
         <v>13973706089</v>
       </c>
       <c r="H80" s="18"/>
@@ -6338,7 +6482,7 @@
       <c r="F81" s="3" t="s">
         <v>252</v>
       </c>
-      <c r="G81" s="27">
+      <c r="G81" s="3">
         <v>15084031999</v>
       </c>
       <c r="H81" s="18"/>
@@ -6379,7 +6523,7 @@
       <c r="F82" s="3" t="s">
         <v>255</v>
       </c>
-      <c r="G82" s="27">
+      <c r="G82" s="3">
         <v>18580436883</v>
       </c>
       <c r="H82" s="18">
@@ -6423,7 +6567,7 @@
       <c r="F83" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="G83" s="27">
+      <c r="G83" s="3">
         <v>15705171013</v>
       </c>
       <c r="H83" s="3"/>
@@ -6464,7 +6608,7 @@
       <c r="F84" s="3" t="s">
         <v>259</v>
       </c>
-      <c r="G84" s="27">
+      <c r="G84" s="3">
         <v>13781518882</v>
       </c>
       <c r="H84" s="3"/>
@@ -6505,7 +6649,7 @@
       <c r="F85" s="3" t="s">
         <v>261</v>
       </c>
-      <c r="G85" s="27">
+      <c r="G85" s="3">
         <v>13873823487</v>
       </c>
       <c r="H85" s="3"/>
@@ -6543,7 +6687,7 @@
       <c r="F86" s="3" t="s">
         <v>267</v>
       </c>
-      <c r="G86" s="27">
+      <c r="G86" s="3">
         <v>13996115237</v>
       </c>
       <c r="H86" s="3"/>
@@ -6584,7 +6728,7 @@
       <c r="F87" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="G87" s="27">
+      <c r="G87" s="3">
         <v>13680968118</v>
       </c>
       <c r="H87" s="3"/>
@@ -6634,7 +6778,7 @@
       <c r="F88" s="3" t="s">
         <v>265</v>
       </c>
-      <c r="G88" s="27">
+      <c r="G88" s="3">
         <v>13719197650</v>
       </c>
       <c r="H88" s="3"/>
@@ -6672,7 +6816,7 @@
       <c r="F89" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="G89" s="27">
+      <c r="G89" s="3">
         <v>13580870138</v>
       </c>
       <c r="H89" s="3"/>
@@ -6710,7 +6854,7 @@
       <c r="F90" s="3" t="s">
         <v>293</v>
       </c>
-      <c r="G90" s="27">
+      <c r="G90" s="3">
         <v>13605839643</v>
       </c>
       <c r="H90" s="3"/>
@@ -6748,7 +6892,7 @@
       <c r="F91" s="3" t="s">
         <v>297</v>
       </c>
-      <c r="G91" s="27">
+      <c r="G91" s="3">
         <v>15959079077</v>
       </c>
       <c r="H91" s="3"/>
@@ -6795,7 +6939,7 @@
       <c r="F92" s="3" t="s">
         <v>302</v>
       </c>
-      <c r="G92" s="27">
+      <c r="G92" s="3">
         <v>13781518882</v>
       </c>
       <c r="H92" s="3"/>
@@ -6833,7 +6977,7 @@
       <c r="F93" s="3" t="s">
         <v>306</v>
       </c>
-      <c r="G93" s="27">
+      <c r="G93" s="3">
         <v>15800044511</v>
       </c>
       <c r="H93" s="2"/>
@@ -6871,7 +7015,7 @@
       <c r="F94" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="G94" s="27">
+      <c r="G94" s="3">
         <v>13838610060</v>
       </c>
       <c r="H94" s="2"/>
@@ -6909,7 +7053,7 @@
       <c r="F95" s="3" t="s">
         <v>309</v>
       </c>
-      <c r="G95" s="27">
+      <c r="G95" s="3">
         <v>13589264866</v>
       </c>
       <c r="H95" s="2"/>
@@ -6947,7 +7091,7 @@
       <c r="F96" s="3" t="s">
         <v>313</v>
       </c>
-      <c r="G96" s="27">
+      <c r="G96" s="3">
         <v>13934280555</v>
       </c>
       <c r="H96" s="2"/>
@@ -6986,7 +7130,7 @@
       <c r="F97" s="3" t="s">
         <v>316</v>
       </c>
-      <c r="G97" s="27">
+      <c r="G97" s="3">
         <v>13922021124</v>
       </c>
       <c r="H97" s="2"/>
@@ -7042,7 +7186,7 @@
       <c r="F98" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="G98" s="27">
+      <c r="G98" s="3">
         <v>13599991255</v>
       </c>
       <c r="H98" s="2"/>
@@ -7080,7 +7224,7 @@
       <c r="F99" s="3" t="s">
         <v>323</v>
       </c>
-      <c r="G99" s="27">
+      <c r="G99" s="3">
         <v>13599418013</v>
       </c>
       <c r="H99" s="2"/>
@@ -7121,9 +7265,10 @@
       <c r="F100" s="3" t="s">
         <v>326</v>
       </c>
-      <c r="G100" s="27">
+      <c r="G100" s="3">
         <v>18851459259</v>
       </c>
+      <c r="H100" s="24"/>
       <c r="I100" s="3" t="s">
         <v>327</v>
       </c>
@@ -7158,9 +7303,10 @@
       <c r="F101" s="3" t="s">
         <v>330</v>
       </c>
-      <c r="G101" s="27">
+      <c r="G101" s="3">
         <v>16643511516</v>
       </c>
+      <c r="H101" s="24"/>
       <c r="I101" s="3" t="s">
         <v>328</v>
       </c>
@@ -7195,9 +7341,10 @@
       <c r="F102" s="3" t="s">
         <v>333</v>
       </c>
-      <c r="G102" s="27">
+      <c r="G102" s="3">
         <v>15826540213</v>
       </c>
+      <c r="H102" s="24"/>
       <c r="I102" s="3" t="s">
         <v>331</v>
       </c>
@@ -7232,9 +7379,10 @@
       <c r="F103" s="3" t="s">
         <v>335</v>
       </c>
-      <c r="G103" s="27">
+      <c r="G103" s="3">
         <v>18576747520</v>
       </c>
+      <c r="H103" s="24"/>
       <c r="I103" s="3" t="s">
         <v>334</v>
       </c>
@@ -7269,9 +7417,10 @@
       <c r="F104" s="3" t="s">
         <v>337</v>
       </c>
-      <c r="G104" s="27">
+      <c r="G104" s="3">
         <v>13605356612</v>
       </c>
+      <c r="H104" s="24"/>
       <c r="I104" s="3" t="s">
         <v>339</v>
       </c>
@@ -7312,9 +7461,10 @@
       <c r="F105" s="3" t="s">
         <v>326</v>
       </c>
-      <c r="G105" s="27">
+      <c r="G105" s="3">
         <v>18851459259</v>
       </c>
+      <c r="H105" s="24"/>
       <c r="I105" s="3" t="s">
         <v>327</v>
       </c>
@@ -7349,9 +7499,10 @@
       <c r="F106" s="3" t="s">
         <v>343</v>
       </c>
-      <c r="G106" s="27">
+      <c r="G106" s="3">
         <v>15754056497</v>
       </c>
+      <c r="H106" s="24"/>
       <c r="I106" s="3" t="s">
         <v>344</v>
       </c>
@@ -7386,7 +7537,7 @@
       <c r="F107" s="3" t="s">
         <v>348</v>
       </c>
-      <c r="G107" s="27">
+      <c r="G107" s="3">
         <v>15560191916</v>
       </c>
       <c r="H107" s="25">
@@ -7426,7 +7577,7 @@
       <c r="F108" s="3" t="s">
         <v>350</v>
       </c>
-      <c r="G108" s="27">
+      <c r="G108" s="3">
         <v>13726619990</v>
       </c>
       <c r="H108" s="3"/>
@@ -7464,7 +7615,7 @@
       <c r="F109" s="3" t="s">
         <v>354</v>
       </c>
-      <c r="G109" s="27">
+      <c r="G109" s="3">
         <v>18504231761</v>
       </c>
       <c r="H109" s="3"/>
@@ -7502,7 +7653,7 @@
       <c r="F110" s="3" t="s">
         <v>357</v>
       </c>
-      <c r="G110" s="27">
+      <c r="G110" s="3">
         <v>13970767310</v>
       </c>
       <c r="H110" s="3"/>
@@ -7537,9 +7688,10 @@
       <c r="F111" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="G111" s="27">
+      <c r="G111" s="3">
         <v>15989866517</v>
       </c>
+      <c r="H111" s="24"/>
       <c r="I111" s="3" t="s">
         <v>358</v>
       </c>
@@ -7571,7 +7723,7 @@
       <c r="F112" s="3" t="s">
         <v>360</v>
       </c>
-      <c r="G112" s="27">
+      <c r="G112" s="3">
         <v>13863925900</v>
       </c>
       <c r="H112" s="3"/>
@@ -7618,7 +7770,7 @@
       <c r="F113" s="3" t="s">
         <v>364</v>
       </c>
-      <c r="G113" s="27">
+      <c r="G113" s="3">
         <v>13845075439</v>
       </c>
       <c r="H113" s="3"/>
@@ -7640,7 +7792,7 @@
         <v>U2-1;U3-1;</v>
       </c>
     </row>
-    <row r="114" spans="1:27">
+    <row r="114" spans="1:27" hidden="1">
       <c r="A114" s="9">
         <v>43567</v>
       </c>
@@ -7659,10 +7811,9 @@
       <c r="F114" s="3" t="s">
         <v>366</v>
       </c>
-      <c r="G114" s="27">
+      <c r="G114" s="3">
         <v>13707545003</v>
       </c>
-      <c r="H114" s="3"/>
       <c r="I114" s="3" t="s">
         <v>367</v>
       </c>
@@ -7684,7 +7835,7 @@
         <v>U1-3;U2-3;U9-6;</v>
       </c>
     </row>
-    <row r="115" spans="1:27">
+    <row r="115" spans="1:27" hidden="1">
       <c r="A115" s="9">
         <v>43567</v>
       </c>
@@ -7703,10 +7854,9 @@
       <c r="F115" s="3" t="s">
         <v>369</v>
       </c>
-      <c r="G115" s="27">
+      <c r="G115" s="3">
         <v>13632369030</v>
       </c>
-      <c r="H115" s="3"/>
       <c r="I115" s="3" t="s">
         <v>370</v>
       </c>
@@ -7722,7 +7872,7 @@
         <v>U1-10;</v>
       </c>
     </row>
-    <row r="116" spans="1:27">
+    <row r="116" spans="1:27" hidden="1">
       <c r="A116" s="9">
         <v>43567</v>
       </c>
@@ -7741,10 +7891,9 @@
       <c r="F116" s="3" t="s">
         <v>373</v>
       </c>
-      <c r="G116" s="27">
+      <c r="G116" s="3">
         <v>18857092661</v>
       </c>
-      <c r="H116" s="3"/>
       <c r="I116" s="3" t="s">
         <v>374</v>
       </c>
@@ -7760,7 +7909,7 @@
         <v>UK5-1</v>
       </c>
     </row>
-    <row r="117" spans="1:27">
+    <row r="117" spans="1:27" hidden="1">
       <c r="A117" s="9">
         <v>43567</v>
       </c>
@@ -7779,10 +7928,9 @@
       <c r="F117" s="3" t="s">
         <v>373</v>
       </c>
-      <c r="G117" s="27">
+      <c r="G117" s="3">
         <v>18857092661</v>
       </c>
-      <c r="H117" s="3"/>
       <c r="I117" s="3" t="s">
         <v>374</v>
       </c>
@@ -7801,7 +7949,7 @@
         <v>U1-1;U2-1;</v>
       </c>
     </row>
-    <row r="118" spans="1:27">
+    <row r="118" spans="1:27" hidden="1">
       <c r="A118" s="9">
         <v>43567</v>
       </c>
@@ -7820,10 +7968,9 @@
       <c r="F118" s="3" t="s">
         <v>378</v>
       </c>
-      <c r="G118" s="27">
+      <c r="G118" s="3">
         <v>15824472588</v>
       </c>
-      <c r="H118" s="3"/>
       <c r="I118" s="3" t="s">
         <v>376</v>
       </c>
@@ -7842,7 +7989,7 @@
         <v>U6-1;U9-1;</v>
       </c>
     </row>
-    <row r="119" spans="1:27">
+    <row r="119" spans="1:27" hidden="1">
       <c r="A119" s="9">
         <v>43567</v>
       </c>
@@ -7861,10 +8008,9 @@
       <c r="F119" s="3" t="s">
         <v>380</v>
       </c>
-      <c r="G119" s="27">
+      <c r="G119" s="3">
         <v>19919871250</v>
       </c>
-      <c r="H119" s="3"/>
       <c r="I119" s="3" t="s">
         <v>381</v>
       </c>
@@ -7880,7 +8026,7 @@
         <v>1.9m*0.95m*10cm -1</v>
       </c>
     </row>
-    <row r="120" spans="1:27">
+    <row r="120" spans="1:27" hidden="1">
       <c r="A120" s="9">
         <v>43567</v>
       </c>
@@ -7899,10 +8045,9 @@
       <c r="F120" s="3" t="s">
         <v>383</v>
       </c>
-      <c r="G120" s="27">
+      <c r="G120" s="3">
         <v>13599991255</v>
       </c>
-      <c r="H120" s="3"/>
       <c r="I120" s="3" t="s">
         <v>385</v>
       </c>
@@ -7924,7 +8069,7 @@
         <v>U1-2;U2-2;U9-2;</v>
       </c>
     </row>
-    <row r="121" spans="1:27">
+    <row r="121" spans="1:27" hidden="1">
       <c r="A121" s="9">
         <v>43567</v>
       </c>
@@ -7943,7 +8088,7 @@
       <c r="F121" s="26" t="s">
         <v>387</v>
       </c>
-      <c r="G121" s="27">
+      <c r="G121" s="3">
         <v>13861367431</v>
       </c>
       <c r="I121" s="26" t="s">
@@ -7961,7 +8106,7 @@
         <v>U2-1;</v>
       </c>
     </row>
-    <row r="122" spans="1:27">
+    <row r="122" spans="1:27" hidden="1">
       <c r="A122" s="9">
         <v>43567</v>
       </c>
@@ -7980,10 +8125,9 @@
       <c r="F122" s="3" t="s">
         <v>341</v>
       </c>
-      <c r="G122" s="27">
+      <c r="G122" s="3">
         <v>18601239906</v>
       </c>
-      <c r="H122" s="3"/>
       <c r="I122" s="3" t="s">
         <v>388</v>
       </c>
@@ -8020,7 +8164,7 @@
         <v>U1-2;U2-2;U3-1;U4-1;U7-1;U8-1;U9-1;U10-1;</v>
       </c>
     </row>
-    <row r="123" spans="1:27">
+    <row r="123" spans="1:27" hidden="1">
       <c r="A123" s="9">
         <v>43567</v>
       </c>
@@ -8039,10 +8183,9 @@
       <c r="F123" s="3" t="s">
         <v>389</v>
       </c>
-      <c r="G123" s="27">
+      <c r="G123" s="3">
         <v>15041139822</v>
       </c>
-      <c r="H123" s="3"/>
       <c r="I123" s="3" t="s">
         <v>390</v>
       </c>
@@ -8058,7 +8201,7 @@
         <v>U8-1;</v>
       </c>
     </row>
-    <row r="124" spans="1:27">
+    <row r="124" spans="1:27" hidden="1">
       <c r="A124" s="9">
         <v>43567</v>
       </c>
@@ -8077,10 +8220,9 @@
       <c r="F124" s="3" t="s">
         <v>393</v>
       </c>
-      <c r="G124" s="27">
+      <c r="G124" s="3">
         <v>13724989834</v>
       </c>
-      <c r="H124" s="3"/>
       <c r="I124" s="3" t="s">
         <v>394</v>
       </c>
@@ -8096,7 +8238,7 @@
         <v>us10-1</v>
       </c>
     </row>
-    <row r="125" spans="1:27">
+    <row r="125" spans="1:27" hidden="1">
       <c r="A125" s="9">
         <v>43567</v>
       </c>
@@ -8115,10 +8257,9 @@
       <c r="F125" s="3" t="s">
         <v>393</v>
       </c>
-      <c r="G125" s="27">
+      <c r="G125" s="3">
         <v>13724989834</v>
       </c>
-      <c r="H125" s="3"/>
       <c r="I125" s="3" t="s">
         <v>394</v>
       </c>
@@ -8137,7 +8278,7 @@
         <v>U2-1;U3-1;</v>
       </c>
     </row>
-    <row r="126" spans="1:27">
+    <row r="126" spans="1:27" hidden="1">
       <c r="A126" s="9">
         <v>43567</v>
       </c>
@@ -8156,10 +8297,9 @@
       <c r="F126" s="3" t="s">
         <v>396</v>
       </c>
-      <c r="G126" s="27">
+      <c r="G126" s="3">
         <v>13887509992</v>
       </c>
-      <c r="H126" s="3"/>
       <c r="I126" s="3" t="s">
         <v>397</v>
       </c>
@@ -8175,7 +8315,7 @@
         <v>UK10-1</v>
       </c>
     </row>
-    <row r="127" spans="1:27">
+    <row r="127" spans="1:27" hidden="1">
       <c r="A127" s="9">
         <v>43567</v>
       </c>
@@ -8194,10 +8334,9 @@
       <c r="F127" s="3" t="s">
         <v>398</v>
       </c>
-      <c r="G127" s="27">
+      <c r="G127" s="3">
         <v>13887509493</v>
       </c>
-      <c r="H127" s="3"/>
       <c r="I127" s="3" t="s">
         <v>399</v>
       </c>
@@ -8225,7 +8364,7 @@
         <v>U1-2;U2-2;U8-3;U9-3;U10-1;</v>
       </c>
     </row>
-    <row r="128" spans="1:27">
+    <row r="128" spans="1:27" hidden="1">
       <c r="A128" s="9">
         <v>43567</v>
       </c>
@@ -8244,10 +8383,9 @@
       <c r="F128" s="3" t="s">
         <v>401</v>
       </c>
-      <c r="G128" s="27">
+      <c r="G128" s="3">
         <v>13887509493</v>
       </c>
-      <c r="H128" s="3"/>
       <c r="I128" s="3" t="s">
         <v>399</v>
       </c>
@@ -8263,7 +8401,7 @@
         <v>U2-1;</v>
       </c>
     </row>
-    <row r="129" spans="1:27">
+    <row r="129" spans="1:27" hidden="1">
       <c r="A129" s="9">
         <v>43567</v>
       </c>
@@ -8282,10 +8420,9 @@
       <c r="F129" s="3" t="s">
         <v>395</v>
       </c>
-      <c r="G129" s="27">
+      <c r="G129" s="3">
         <v>15087725235</v>
       </c>
-      <c r="H129" s="3"/>
       <c r="I129" s="3" t="s">
         <v>402</v>
       </c>
@@ -8301,7 +8438,7 @@
         <v>U2-1;</v>
       </c>
     </row>
-    <row r="130" spans="1:27">
+    <row r="130" spans="1:27" hidden="1">
       <c r="A130" s="9">
         <v>43568</v>
       </c>
@@ -8320,10 +8457,9 @@
       <c r="F130" s="3" t="s">
         <v>405</v>
       </c>
-      <c r="G130" s="27">
+      <c r="G130" s="3">
         <v>15207962454</v>
       </c>
-      <c r="H130" s="3"/>
       <c r="I130" s="3" t="s">
         <v>406</v>
       </c>
@@ -8339,7 +8475,7 @@
         <v>U1-1;</v>
       </c>
     </row>
-    <row r="131" spans="1:27">
+    <row r="131" spans="1:27" hidden="1">
       <c r="A131" s="9">
         <v>43568</v>
       </c>
@@ -8358,10 +8494,9 @@
       <c r="F131" s="3" t="s">
         <v>408</v>
       </c>
-      <c r="G131" s="27">
+      <c r="G131" s="3">
         <v>13704112003</v>
       </c>
-      <c r="H131" s="3"/>
       <c r="I131" s="3" t="s">
         <v>409</v>
       </c>
@@ -8375,7 +8510,7 @@
         <v>2</v>
       </c>
       <c r="Z131" s="3">
-        <f t="shared" ref="Z131:Z163" si="8">SUM(J131:R131)</f>
+        <f t="shared" ref="Z131:Z169" si="8">SUM(J131:R131)</f>
         <v>10</v>
       </c>
       <c r="AA131" s="3" t="str">
@@ -8383,7 +8518,7 @@
         <v>U1-4;U8-4;U10-2;</v>
       </c>
     </row>
-    <row r="132" spans="1:27">
+    <row r="132" spans="1:27" hidden="1">
       <c r="A132" s="9">
         <v>43568</v>
       </c>
@@ -8402,7 +8537,7 @@
       <c r="F132" s="3" t="s">
         <v>411</v>
       </c>
-      <c r="G132" s="27">
+      <c r="G132" s="3">
         <v>13489063369</v>
       </c>
       <c r="I132" s="3" t="s">
@@ -8429,7 +8564,7 @@
         <v>U1-5;U6-2;U7-1;U9-2;</v>
       </c>
     </row>
-    <row r="133" spans="1:27">
+    <row r="133" spans="1:27" hidden="1">
       <c r="A133" s="9">
         <v>43568</v>
       </c>
@@ -8448,7 +8583,7 @@
       <c r="F133" s="3" t="s">
         <v>414</v>
       </c>
-      <c r="G133" s="27">
+      <c r="G133" s="3">
         <v>13177777058</v>
       </c>
       <c r="I133" s="3" t="s">
@@ -8469,7 +8604,7 @@
         <v>U1-3;U2-7;</v>
       </c>
     </row>
-    <row r="134" spans="1:27">
+    <row r="134" spans="1:27" hidden="1">
       <c r="A134" s="9">
         <v>43568</v>
       </c>
@@ -8488,7 +8623,7 @@
       <c r="F134" s="3" t="s">
         <v>419</v>
       </c>
-      <c r="G134" s="27">
+      <c r="G134" s="3">
         <v>13823297981</v>
       </c>
       <c r="I134" s="3" t="s">
@@ -8509,7 +8644,7 @@
         <v>U1-1;U2-1;</v>
       </c>
     </row>
-    <row r="135" spans="1:27">
+    <row r="135" spans="1:27" hidden="1">
       <c r="A135" s="9">
         <v>43568</v>
       </c>
@@ -8528,7 +8663,7 @@
       <c r="F135" s="3" t="s">
         <v>420</v>
       </c>
-      <c r="G135" s="27">
+      <c r="G135" s="3">
         <v>13833511795</v>
       </c>
       <c r="I135" s="3" t="s">
@@ -8546,7 +8681,7 @@
         <v>U1-1;</v>
       </c>
     </row>
-    <row r="136" spans="1:27">
+    <row r="136" spans="1:27" hidden="1">
       <c r="A136" s="9">
         <v>43570</v>
       </c>
@@ -8565,10 +8700,9 @@
       <c r="F136" s="3" t="s">
         <v>423</v>
       </c>
-      <c r="G136" s="27">
+      <c r="G136" s="3">
         <v>13853837300</v>
       </c>
-      <c r="H136" s="3"/>
       <c r="I136" s="3" t="s">
         <v>424</v>
       </c>
@@ -8584,7 +8718,7 @@
         <v>U6-1;</v>
       </c>
     </row>
-    <row r="137" spans="1:27">
+    <row r="137" spans="1:27" hidden="1">
       <c r="A137" s="9">
         <v>43570</v>
       </c>
@@ -8603,7 +8737,7 @@
       <c r="F137" s="3" t="s">
         <v>425</v>
       </c>
-      <c r="G137" s="27">
+      <c r="G137" s="3">
         <v>18935930373</v>
       </c>
       <c r="I137" s="3" t="s">
@@ -8621,7 +8755,7 @@
         <v>U2-2;</v>
       </c>
     </row>
-    <row r="138" spans="1:27">
+    <row r="138" spans="1:27" hidden="1">
       <c r="A138" s="9">
         <v>43570</v>
       </c>
@@ -8640,7 +8774,7 @@
       <c r="F138" s="3" t="s">
         <v>427</v>
       </c>
-      <c r="G138" s="27">
+      <c r="G138" s="3">
         <v>13720826093</v>
       </c>
       <c r="I138" s="3" t="s">
@@ -8670,7 +8804,7 @@
         <v>U2-2;U3-1;U4-1;U6-2;U9-4;</v>
       </c>
     </row>
-    <row r="139" spans="1:27">
+    <row r="139" spans="1:27" hidden="1">
       <c r="A139" s="9">
         <v>43570</v>
       </c>
@@ -8689,7 +8823,7 @@
       <c r="F139" s="3" t="s">
         <v>430</v>
       </c>
-      <c r="G139" s="27">
+      <c r="G139" s="3">
         <v>18785617866</v>
       </c>
       <c r="I139" s="3" t="s">
@@ -8713,7 +8847,7 @@
         <v>U1-1;U2-5;U3-1;</v>
       </c>
     </row>
-    <row r="140" spans="1:27">
+    <row r="140" spans="1:27" hidden="1">
       <c r="A140" s="9">
         <v>43570</v>
       </c>
@@ -8732,7 +8866,7 @@
       <c r="F140" s="3" t="s">
         <v>432</v>
       </c>
-      <c r="G140" s="27">
+      <c r="G140" s="3">
         <v>13489063369</v>
       </c>
       <c r="I140" s="3" t="s">
@@ -8750,7 +8884,7 @@
         <v>U9-2;</v>
       </c>
     </row>
-    <row r="141" spans="1:27">
+    <row r="141" spans="1:27" hidden="1">
       <c r="A141" s="9">
         <v>43570</v>
       </c>
@@ -8769,7 +8903,7 @@
       <c r="F141" s="3" t="s">
         <v>437</v>
       </c>
-      <c r="G141" s="27">
+      <c r="G141" s="3">
         <v>18059995758</v>
       </c>
       <c r="I141" s="3" t="s">
@@ -8787,7 +8921,7 @@
         <v>U2-1;</v>
       </c>
     </row>
-    <row r="142" spans="1:27">
+    <row r="142" spans="1:27" hidden="1">
       <c r="A142" s="9">
         <v>43570</v>
       </c>
@@ -8806,10 +8940,9 @@
       <c r="F142" s="3" t="s">
         <v>438</v>
       </c>
-      <c r="G142" s="27">
+      <c r="G142" s="3">
         <v>13952359816</v>
       </c>
-      <c r="H142" s="3"/>
       <c r="I142" s="3" t="s">
         <v>439</v>
       </c>
@@ -8825,7 +8958,7 @@
         <v>U2-7;</v>
       </c>
     </row>
-    <row r="143" spans="1:27">
+    <row r="143" spans="1:27" hidden="1">
       <c r="A143" s="9">
         <v>43571</v>
       </c>
@@ -8844,7 +8977,7 @@
       <c r="F143" s="3" t="s">
         <v>442</v>
       </c>
-      <c r="G143" s="27">
+      <c r="G143" s="3">
         <v>13801005328</v>
       </c>
       <c r="I143" s="3" t="s">
@@ -8862,7 +8995,7 @@
         <v>U2-2;</v>
       </c>
     </row>
-    <row r="144" spans="1:27">
+    <row r="144" spans="1:27" hidden="1">
       <c r="A144" s="9">
         <v>43571</v>
       </c>
@@ -8881,7 +9014,7 @@
       <c r="F144" s="3" t="s">
         <v>445</v>
       </c>
-      <c r="G144" s="27">
+      <c r="G144" s="3">
         <v>15394995062</v>
       </c>
       <c r="I144" s="3" t="s">
@@ -8899,7 +9032,7 @@
         <v>U9-1;</v>
       </c>
     </row>
-    <row r="145" spans="1:27">
+    <row r="145" spans="1:27" hidden="1">
       <c r="A145" s="9">
         <v>43571</v>
       </c>
@@ -8916,13 +9049,13 @@
         <v>263</v>
       </c>
       <c r="F145" s="3" t="s">
-        <v>448</v>
-      </c>
-      <c r="G145" s="27" t="s">
+        <v>447</v>
+      </c>
+      <c r="G145" s="3">
+        <v>13804089031</v>
+      </c>
+      <c r="I145" s="3" t="s">
         <v>446</v>
-      </c>
-      <c r="I145" s="3" t="s">
-        <v>447</v>
       </c>
       <c r="K145" s="4">
         <v>1</v>
@@ -8939,7 +9072,7 @@
         <v>U2-1;U10-1;</v>
       </c>
     </row>
-    <row r="146" spans="1:27">
+    <row r="146" spans="1:27" hidden="1">
       <c r="A146" s="9">
         <v>43571</v>
       </c>
@@ -8958,10 +9091,9 @@
       <c r="F146" s="3" t="s">
         <v>438</v>
       </c>
-      <c r="G146" s="27">
+      <c r="G146" s="3">
         <v>13952359816</v>
       </c>
-      <c r="H146" s="3"/>
       <c r="I146" s="3" t="s">
         <v>439</v>
       </c>
@@ -8977,7 +9109,7 @@
         <v>U9-3;</v>
       </c>
     </row>
-    <row r="147" spans="1:27">
+    <row r="147" spans="1:27" hidden="1">
       <c r="A147" s="9">
         <v>43571</v>
       </c>
@@ -8994,13 +9126,13 @@
         <v>263</v>
       </c>
       <c r="F147" s="3" t="s">
+        <v>448</v>
+      </c>
+      <c r="G147" s="3">
+        <v>15947209615</v>
+      </c>
+      <c r="I147" s="3" t="s">
         <v>449</v>
-      </c>
-      <c r="G147" s="27">
-        <v>15947209615</v>
-      </c>
-      <c r="I147" s="3" t="s">
-        <v>450</v>
       </c>
       <c r="J147" s="4">
         <v>1</v>
@@ -9014,7 +9146,7 @@
         <v>U1-1;</v>
       </c>
     </row>
-    <row r="148" spans="1:27">
+    <row r="148" spans="1:27" hidden="1">
       <c r="A148" s="9">
         <v>43571</v>
       </c>
@@ -9022,22 +9154,22 @@
         <v>4992766475</v>
       </c>
       <c r="C148" s="3" t="s">
+        <v>451</v>
+      </c>
+      <c r="D148" s="3" t="s">
         <v>452</v>
       </c>
-      <c r="D148" s="3" t="s">
+      <c r="E148" s="3" t="s">
         <v>453</v>
       </c>
-      <c r="E148" s="3" t="s">
+      <c r="F148" s="3" t="s">
         <v>454</v>
       </c>
-      <c r="F148" s="3" t="s">
-        <v>455</v>
-      </c>
-      <c r="G148" s="27">
+      <c r="G148" s="3">
         <v>13543660929</v>
       </c>
       <c r="I148" s="3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="J148" s="4">
         <v>1</v>
@@ -9057,7 +9189,7 @@
         <v>U1-1;U3-2;U9-1;</v>
       </c>
     </row>
-    <row r="149" spans="1:27">
+    <row r="149" spans="1:27" hidden="1">
       <c r="A149" s="9">
         <v>43571</v>
       </c>
@@ -9071,16 +9203,16 @@
         <v>57</v>
       </c>
       <c r="E149" s="3" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="F149" s="3" t="s">
+        <v>455</v>
+      </c>
+      <c r="G149" s="3">
+        <v>13977228265</v>
+      </c>
+      <c r="I149" s="3" t="s">
         <v>456</v>
-      </c>
-      <c r="G149" s="27">
-        <v>13977228265</v>
-      </c>
-      <c r="I149" s="3" t="s">
-        <v>457</v>
       </c>
       <c r="L149" s="4">
         <v>1</v>
@@ -9094,7 +9226,7 @@
         <v>U3-1;</v>
       </c>
     </row>
-    <row r="150" spans="1:27">
+    <row r="150" spans="1:27" hidden="1">
       <c r="A150" s="9">
         <v>43571</v>
       </c>
@@ -9111,13 +9243,13 @@
         <v>263</v>
       </c>
       <c r="F150" s="3" t="s">
+        <v>457</v>
+      </c>
+      <c r="G150" s="3">
+        <v>18903533066</v>
+      </c>
+      <c r="I150" s="3" t="s">
         <v>458</v>
-      </c>
-      <c r="G150" s="27">
-        <v>18903533066</v>
-      </c>
-      <c r="I150" s="3" t="s">
-        <v>459</v>
       </c>
       <c r="K150" s="4">
         <v>2</v>
@@ -9134,7 +9266,7 @@
         <v>U2-2;U8-1;</v>
       </c>
     </row>
-    <row r="151" spans="1:27">
+    <row r="151" spans="1:27" hidden="1">
       <c r="A151" s="9">
         <v>43571</v>
       </c>
@@ -9151,16 +9283,16 @@
         <v>263</v>
       </c>
       <c r="F151" s="3" t="s">
+        <v>457</v>
+      </c>
+      <c r="G151" s="3">
+        <v>18903533066</v>
+      </c>
+      <c r="I151" s="3" t="s">
         <v>458</v>
       </c>
-      <c r="G151" s="27">
-        <v>18903533066</v>
-      </c>
-      <c r="I151" s="3" t="s">
+      <c r="U151" s="3" t="s">
         <v>459</v>
-      </c>
-      <c r="U151" s="3" t="s">
-        <v>460</v>
       </c>
       <c r="Z151" s="3">
         <f t="shared" si="8"/>
@@ -9171,7 +9303,7 @@
         <v>UK10 -1</v>
       </c>
     </row>
-    <row r="152" spans="1:27">
+    <row r="152" spans="1:27" hidden="1">
       <c r="A152" s="9">
         <v>43572</v>
       </c>
@@ -9179,22 +9311,22 @@
         <v>2249881587</v>
       </c>
       <c r="C152" s="3" t="s">
+        <v>461</v>
+      </c>
+      <c r="D152" s="3" t="s">
         <v>462</v>
       </c>
-      <c r="D152" s="3" t="s">
+      <c r="E152" s="3" t="s">
         <v>463</v>
       </c>
-      <c r="E152" s="3" t="s">
+      <c r="F152" s="3" t="s">
         <v>464</v>
       </c>
-      <c r="F152" s="3" t="s">
-        <v>465</v>
-      </c>
-      <c r="G152" s="27">
+      <c r="G152" s="3">
         <v>19939480255</v>
       </c>
       <c r="I152" s="3" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="J152" s="4">
         <v>1</v>
@@ -9208,7 +9340,7 @@
         <v>U1-1;</v>
       </c>
     </row>
-    <row r="153" spans="1:27">
+    <row r="153" spans="1:27" hidden="1">
       <c r="A153" s="9">
         <v>43572</v>
       </c>
@@ -9222,19 +9354,19 @@
         <v>366</v>
       </c>
       <c r="E153" s="3" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="F153" s="3" t="s">
+        <v>465</v>
+      </c>
+      <c r="G153" s="3">
+        <v>13794400047</v>
+      </c>
+      <c r="I153" s="3" t="s">
         <v>466</v>
       </c>
-      <c r="G153" s="27">
-        <v>13794400047</v>
-      </c>
-      <c r="I153" s="3" t="s">
+      <c r="U153" s="3" t="s">
         <v>467</v>
-      </c>
-      <c r="U153" s="3" t="s">
-        <v>468</v>
       </c>
       <c r="Z153" s="3">
         <f t="shared" si="8"/>
@@ -9245,7 +9377,7 @@
         <v>UK10 -1</v>
       </c>
     </row>
-    <row r="154" spans="1:27">
+    <row r="154" spans="1:27" hidden="1">
       <c r="A154" s="9">
         <v>43572</v>
       </c>
@@ -9256,19 +9388,19 @@
         <v>60</v>
       </c>
       <c r="D154" s="3" t="s">
+        <v>468</v>
+      </c>
+      <c r="E154" s="3" t="s">
+        <v>463</v>
+      </c>
+      <c r="F154" s="3" t="s">
         <v>469</v>
       </c>
-      <c r="E154" s="3" t="s">
-        <v>464</v>
-      </c>
-      <c r="F154" s="3" t="s">
+      <c r="G154" s="3">
+        <v>13697960257</v>
+      </c>
+      <c r="I154" s="3" t="s">
         <v>470</v>
-      </c>
-      <c r="G154" s="27">
-        <v>13697960257</v>
-      </c>
-      <c r="I154" s="3" t="s">
-        <v>471</v>
       </c>
       <c r="J154" s="4">
         <v>10</v>
@@ -9306,7 +9438,7 @@
         <v>U1-10;U2-10;U3-6;U4-6;U6-3;U7-2;U8-2;U9-3;U10-2;</v>
       </c>
     </row>
-    <row r="155" spans="1:27">
+    <row r="155" spans="1:27" hidden="1">
       <c r="A155" s="9">
         <v>43572</v>
       </c>
@@ -9323,14 +9455,13 @@
         <v>263</v>
       </c>
       <c r="F155" s="3" t="s">
+        <v>471</v>
+      </c>
+      <c r="G155" s="3">
+        <v>13106256825</v>
+      </c>
+      <c r="I155" s="3" t="s">
         <v>472</v>
-      </c>
-      <c r="G155" s="27">
-        <v>13106256825</v>
-      </c>
-      <c r="H155" s="3"/>
-      <c r="I155" s="3" t="s">
-        <v>473</v>
       </c>
       <c r="P155" s="4">
         <v>2</v>
@@ -9344,7 +9475,7 @@
         <v>U9-1;</v>
       </c>
     </row>
-    <row r="156" spans="1:27">
+    <row r="156" spans="1:27" hidden="1">
       <c r="A156" s="9">
         <v>43572</v>
       </c>
@@ -9361,13 +9492,13 @@
         <v>263</v>
       </c>
       <c r="F156" s="3" t="s">
+        <v>473</v>
+      </c>
+      <c r="G156" s="3">
+        <v>13417655008</v>
+      </c>
+      <c r="I156" s="3" t="s">
         <v>474</v>
-      </c>
-      <c r="G156" s="27">
-        <v>13417655008</v>
-      </c>
-      <c r="I156" s="3" t="s">
-        <v>475</v>
       </c>
       <c r="Q156" s="4">
         <v>1</v>
@@ -9381,7 +9512,7 @@
         <v>U2-2;U9-4;</v>
       </c>
     </row>
-    <row r="157" spans="1:27">
+    <row r="157" spans="1:27" hidden="1">
       <c r="A157" s="9">
         <v>43572</v>
       </c>
@@ -9392,19 +9523,19 @@
         <v>60</v>
       </c>
       <c r="D157" s="3" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="E157" s="3" t="s">
         <v>263</v>
       </c>
       <c r="F157" s="3" t="s">
-        <v>478</v>
-      </c>
-      <c r="G157" s="27">
+        <v>477</v>
+      </c>
+      <c r="G157" s="3">
         <v>13605356612</v>
       </c>
       <c r="I157" s="3" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="K157" s="4">
         <v>2</v>
@@ -9440,12 +9571,11 @@
       <c r="F158" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="G158" s="27">
+      <c r="G158" s="3">
         <v>15816135065</v>
       </c>
-      <c r="H158" s="3"/>
       <c r="I158" s="3" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="J158" s="4">
         <v>5</v>
@@ -9476,22 +9606,22 @@
         <v>60</v>
       </c>
       <c r="D159" s="3" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="E159" s="3" t="s">
         <v>263</v>
       </c>
       <c r="F159" s="3" t="s">
+        <v>480</v>
+      </c>
+      <c r="G159" s="3">
+        <v>15618268200</v>
+      </c>
+      <c r="I159" s="3" t="s">
         <v>481</v>
       </c>
-      <c r="G159" s="27">
-        <v>15618268200</v>
-      </c>
-      <c r="I159" s="3" t="s">
+      <c r="U159" s="3" t="s">
         <v>482</v>
-      </c>
-      <c r="U159" s="3" t="s">
-        <v>483</v>
       </c>
       <c r="Z159" s="3">
         <f t="shared" si="8"/>
@@ -9519,13 +9649,13 @@
         <v>263</v>
       </c>
       <c r="F160" s="3" t="s">
+        <v>486</v>
+      </c>
+      <c r="G160" s="3">
+        <v>13632369030</v>
+      </c>
+      <c r="I160" s="3" t="s">
         <v>487</v>
-      </c>
-      <c r="G160" s="27">
-        <v>13632369030</v>
-      </c>
-      <c r="I160" s="3" t="s">
-        <v>488</v>
       </c>
       <c r="J160" s="4">
         <v>2</v>
@@ -9556,13 +9686,13 @@
         <v>263</v>
       </c>
       <c r="F161" s="3" t="s">
+        <v>486</v>
+      </c>
+      <c r="G161" s="3">
+        <v>13632369030</v>
+      </c>
+      <c r="I161" s="3" t="s">
         <v>487</v>
-      </c>
-      <c r="G161" s="27">
-        <v>13632369030</v>
-      </c>
-      <c r="I161" s="3" t="s">
-        <v>488</v>
       </c>
       <c r="J161" s="4">
         <v>3</v>
@@ -9584,22 +9714,22 @@
         <v>4409430556</v>
       </c>
       <c r="C162" s="3" t="s">
+        <v>483</v>
+      </c>
+      <c r="D162" s="3" t="s">
         <v>484</v>
-      </c>
-      <c r="D162" s="3" t="s">
-        <v>485</v>
       </c>
       <c r="E162" s="3" t="s">
         <v>263</v>
       </c>
       <c r="F162" s="3" t="s">
+        <v>488</v>
+      </c>
+      <c r="G162" s="3">
+        <v>13613828031</v>
+      </c>
+      <c r="I162" s="3" t="s">
         <v>489</v>
-      </c>
-      <c r="G162" s="27" t="s">
-        <v>490</v>
-      </c>
-      <c r="I162" s="3" t="s">
-        <v>491</v>
       </c>
       <c r="J162" s="4">
         <v>6</v>
@@ -9633,7 +9763,7 @@
         <v>2968734430</v>
       </c>
       <c r="C163" s="3" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="D163" s="3" t="s">
         <v>51</v>
@@ -9642,13 +9772,13 @@
         <v>263</v>
       </c>
       <c r="F163" s="3" t="s">
-        <v>492</v>
-      </c>
-      <c r="G163" s="27">
+        <v>490</v>
+      </c>
+      <c r="G163" s="3">
         <v>13826465284</v>
       </c>
       <c r="I163" s="3" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="J163" s="4">
         <v>1</v>
@@ -9666,39 +9796,240 @@
       </c>
     </row>
     <row r="164" spans="1:27">
+      <c r="A164" s="9">
+        <v>43573</v>
+      </c>
+      <c r="B164" s="3">
+        <v>9130258908</v>
+      </c>
+      <c r="C164" s="3" t="s">
+        <v>485</v>
+      </c>
+      <c r="D164" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E164" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="F164" s="3" t="s">
+        <v>492</v>
+      </c>
+      <c r="G164" s="3">
+        <v>18521300984</v>
+      </c>
+      <c r="I164" s="3" t="s">
+        <v>493</v>
+      </c>
+      <c r="K164" s="4">
+        <v>2</v>
+      </c>
+      <c r="Z164" s="3">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
       <c r="AA164" s="3" t="str">
         <f t="shared" si="9"/>
-        <v/>
+        <v>U2-2;</v>
       </c>
     </row>
     <row r="165" spans="1:27">
+      <c r="A165" s="9">
+        <v>43573</v>
+      </c>
+      <c r="B165" s="3">
+        <v>5535014046</v>
+      </c>
+      <c r="C165" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="D165" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="E165" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="F165" s="3" t="s">
+        <v>494</v>
+      </c>
+      <c r="G165" s="3">
+        <v>18033407517</v>
+      </c>
+      <c r="I165" s="3" t="s">
+        <v>495</v>
+      </c>
+      <c r="J165" s="4">
+        <v>4</v>
+      </c>
+      <c r="K165" s="4">
+        <v>5</v>
+      </c>
+      <c r="R165" s="4">
+        <v>1</v>
+      </c>
+      <c r="Z165" s="3">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
       <c r="AA165" s="3" t="str">
         <f t="shared" si="9"/>
-        <v/>
+        <v>U1-4;U2-5;U10-1;</v>
       </c>
     </row>
     <row r="166" spans="1:27">
+      <c r="A166" s="9">
+        <v>43573</v>
+      </c>
+      <c r="B166" s="3">
+        <v>5672071471</v>
+      </c>
+      <c r="C166" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D166" s="3" t="s">
+        <v>496</v>
+      </c>
+      <c r="E166" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="F166" s="3" t="s">
+        <v>497</v>
+      </c>
+      <c r="G166" s="3">
+        <v>13382451910</v>
+      </c>
+      <c r="H166" s="28">
+        <v>2.1040219520407002E+17</v>
+      </c>
+      <c r="I166" s="3" t="s">
+        <v>498</v>
+      </c>
+      <c r="U166" s="3" t="s">
+        <v>499</v>
+      </c>
+      <c r="Z166" s="3">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
       <c r="AA166" s="3" t="str">
         <f t="shared" si="9"/>
-        <v/>
+        <v>1.7m×1m×5cm -1</v>
       </c>
     </row>
     <row r="167" spans="1:27">
+      <c r="A167" s="9">
+        <v>43573</v>
+      </c>
+      <c r="B167" s="3">
+        <v>4975354191</v>
+      </c>
+      <c r="C167" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D167" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="E167" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="F167" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="G167" s="3">
+        <v>13177777058</v>
+      </c>
+      <c r="I167" s="3" t="s">
+        <v>500</v>
+      </c>
+      <c r="J167" s="4">
+        <v>5</v>
+      </c>
+      <c r="P167" s="4">
+        <v>1</v>
+      </c>
+      <c r="Z167" s="3">
+        <f t="shared" si="8"/>
+        <v>6</v>
+      </c>
       <c r="AA167" s="3" t="str">
         <f t="shared" si="9"/>
-        <v/>
+        <v>U1-5;U8-1;</v>
       </c>
     </row>
     <row r="168" spans="1:27">
+      <c r="A168" s="9">
+        <v>43573</v>
+      </c>
+      <c r="B168" s="3">
+        <v>9430297658</v>
+      </c>
+      <c r="C168" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="D168" s="3" t="s">
+        <v>501</v>
+      </c>
+      <c r="E168" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="F168" s="3" t="s">
+        <v>503</v>
+      </c>
+      <c r="G168" s="3">
+        <v>13781905678</v>
+      </c>
+      <c r="H168" s="28">
+        <v>4.1072719861206701E+17</v>
+      </c>
+      <c r="I168" s="3" t="s">
+        <v>502</v>
+      </c>
+      <c r="U168" s="3" t="s">
+        <v>504</v>
+      </c>
+      <c r="Z168" s="3">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
       <c r="AA168" s="3" t="str">
         <f t="shared" si="9"/>
-        <v/>
+        <v>90m×1.8m×5cm -1</v>
       </c>
     </row>
     <row r="169" spans="1:27">
+      <c r="A169" s="9">
+        <v>43573</v>
+      </c>
+      <c r="B169" s="3">
+        <v>8507705092</v>
+      </c>
+      <c r="C169" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D169" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="E169" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="F169" s="3" t="s">
+        <v>488</v>
+      </c>
+      <c r="G169" s="3">
+        <v>13613828031</v>
+      </c>
+      <c r="I169" s="3" t="s">
+        <v>505</v>
+      </c>
+      <c r="P169" s="4">
+        <v>4</v>
+      </c>
+      <c r="Z169" s="3">
+        <f t="shared" si="8"/>
+        <v>4</v>
+      </c>
       <c r="AA169" s="3" t="str">
         <f t="shared" si="9"/>
-        <v/>
+        <v>U8-4;</v>
       </c>
     </row>
     <row r="170" spans="1:27">
@@ -10231,12 +10562,12 @@
     </row>
     <row r="1048576" spans="10:18">
       <c r="J1048576" s="4">
-        <f>SUM(J2:J1048575)</f>
-        <v>194</v>
+        <f t="shared" ref="J1048576:R1048576" si="12">SUM(J2:J1048575)</f>
+        <v>203</v>
       </c>
       <c r="K1048576" s="4">
-        <f t="shared" ref="K1048576:R1048576" si="12">SUM(K2:K1048575)</f>
-        <v>218</v>
+        <f t="shared" si="12"/>
+        <v>225</v>
       </c>
       <c r="L1048576" s="4">
         <f t="shared" si="12"/>
@@ -10256,7 +10587,7 @@
       </c>
       <c r="P1048576" s="4">
         <f t="shared" si="12"/>
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="Q1048576" s="4">
         <f t="shared" si="12"/>
@@ -10264,18 +10595,13 @@
       </c>
       <c r="R1048576" s="4">
         <f t="shared" si="12"/>
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:W158">
+  <autoFilter ref="A1:W169">
     <filterColumn colId="0">
       <filters>
-        <dateGroupItem year="2019" month="4" day="12" dateTimeGrouping="day"/>
-        <dateGroupItem year="2019" month="4" day="13" dateTimeGrouping="day"/>
-        <dateGroupItem year="2019" month="4" day="15" dateTimeGrouping="day"/>
-        <dateGroupItem year="2019" month="4" day="16" dateTimeGrouping="day"/>
-        <dateGroupItem year="2019" month="4" day="17" dateTimeGrouping="day"/>
         <dateGroupItem year="2019" month="4" day="18" dateTimeGrouping="day"/>
       </filters>
     </filterColumn>

--- a/4月/4月份客户发货需求(4.18).xlsx
+++ b/4月/4月份客户发货需求(4.18).xlsx
@@ -1,18 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\Uoolatex\4月\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7935"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="4月份客户发货需求" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$W$169</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'4月份客户发货需求'!$A$1:$W$169</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -26,7 +31,7 @@
     <author>xz</author>
   </authors>
   <commentList>
-    <comment ref="F31" authorId="0">
+    <comment ref="F31" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -39,7 +44,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F33" authorId="0">
+    <comment ref="F33" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -52,7 +57,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F38" authorId="0">
+    <comment ref="F38" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -65,7 +70,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F39" authorId="0">
+    <comment ref="F39" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -78,7 +83,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F40" authorId="0">
+    <comment ref="F40" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -92,7 +97,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F43" authorId="0">
+    <comment ref="F43" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -105,7 +110,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F47" authorId="0">
+    <comment ref="F47" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -118,7 +123,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F51" authorId="0">
+    <comment ref="F51" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -131,7 +136,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F52" authorId="0">
+    <comment ref="F52" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -144,7 +149,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F54" authorId="0">
+    <comment ref="F54" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -158,7 +163,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F57" authorId="0">
+    <comment ref="F57" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -171,7 +176,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F79" authorId="1">
+    <comment ref="F79" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -184,7 +189,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F81" authorId="1">
+    <comment ref="F81" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -198,7 +203,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F83" authorId="1">
+    <comment ref="F83" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -211,7 +216,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D86" authorId="0">
+    <comment ref="D86" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -227,7 +232,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F86" authorId="0">
+    <comment ref="F86" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -244,7 +249,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F89" authorId="2">
+    <comment ref="F89" authorId="2" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -259,7 +264,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F92" authorId="2">
+    <comment ref="F92" authorId="2" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -274,7 +279,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F100" authorId="2">
+    <comment ref="F100" authorId="2" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -289,7 +294,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F101" authorId="2">
+    <comment ref="F101" authorId="2" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -304,7 +309,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F105" authorId="2">
+    <comment ref="F105" authorId="2" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -319,7 +324,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F111" authorId="2">
+    <comment ref="F111" authorId="2" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -334,7 +339,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F112" authorId="2">
+    <comment ref="F112" authorId="2" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -360,7 +365,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F116" authorId="2">
+    <comment ref="F116" authorId="2" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -375,7 +380,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F117" authorId="2">
+    <comment ref="F117" authorId="2" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -390,7 +395,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F123" authorId="2">
+    <comment ref="F123" authorId="2" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -405,7 +410,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F129" authorId="2">
+    <comment ref="F129" authorId="2" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -420,7 +425,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F131" authorId="2">
+    <comment ref="F131" authorId="2" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -435,7 +440,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F135" authorId="2">
+    <comment ref="F135" authorId="2" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -461,7 +466,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D147" authorId="2">
+    <comment ref="D147" authorId="2" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -488,7 +493,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D148" authorId="2">
+    <comment ref="D148" authorId="2" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -504,7 +509,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F154" authorId="3">
+    <comment ref="F154" authorId="3" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -519,7 +524,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F155" authorId="3">
+    <comment ref="F155" authorId="3" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -534,7 +539,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F156" authorId="0">
+    <comment ref="F156" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -550,7 +555,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F159" authorId="4">
+    <comment ref="F159" authorId="4" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -566,7 +571,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F165" authorId="4">
+    <comment ref="F165" authorId="4" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -583,7 +588,33 @@
         </r>
       </text>
     </comment>
-    <comment ref="F167" authorId="4">
+    <comment ref="F166" authorId="4" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="12"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>拆下来的那个边料，然后一起邮寄给客户，他都要。</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F167" authorId="4" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -608,7 +639,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F169" authorId="4">
+    <comment ref="F169" authorId="4" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -659,7 +690,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="957" uniqueCount="506">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="962" uniqueCount="509">
   <si>
     <t>下单日期</t>
   </si>
@@ -2370,17 +2401,28 @@
     <t>河南省郑州市二七区庆丰街17号院鑫苑现代城4号楼</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
+  <si>
+    <t>吴芳</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>唐芳</t>
+  </si>
+  <si>
+    <t>广东省清远市清新区107国道城西苑</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
     <numFmt numFmtId="176" formatCode="000000"/>
     <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
     <numFmt numFmtId="178" formatCode="0_ "/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2480,6 +2522,13 @@
       <color indexed="81"/>
       <name val="Tahoma"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="6">
@@ -2905,16 +2954,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
   <dimension ref="A1:AA1048576"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G200" sqref="G200"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A158" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I175" sqref="I175"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9.25" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.25" style="3" customWidth="1"/>
@@ -2933,7 +2982,7 @@
     <col min="24" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -3006,7 +3055,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="2" spans="1:27" hidden="1">
+    <row r="2" spans="1:27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A2" s="9">
         <v>43556</v>
       </c>
@@ -3048,7 +3097,7 @@
         <v>U2-2;</v>
       </c>
     </row>
-    <row r="3" spans="1:27" hidden="1">
+    <row r="3" spans="1:27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A3" s="9">
         <v>43556</v>
       </c>
@@ -3093,7 +3142,7 @@
         <v>U1-14;U3-3;</v>
       </c>
     </row>
-    <row r="4" spans="1:27" hidden="1">
+    <row r="4" spans="1:27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A4" s="9">
         <v>43556</v>
       </c>
@@ -3135,7 +3184,7 @@
         <v>U8-2;</v>
       </c>
     </row>
-    <row r="5" spans="1:27" hidden="1">
+    <row r="5" spans="1:27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A5" s="9">
         <v>43556</v>
       </c>
@@ -3177,7 +3226,7 @@
         <v>UQ7.5-4;UK7.5-3</v>
       </c>
     </row>
-    <row r="6" spans="1:27" hidden="1">
+    <row r="6" spans="1:27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A6" s="9">
         <v>43556</v>
       </c>
@@ -3218,7 +3267,7 @@
         <v>US7.5-4</v>
       </c>
     </row>
-    <row r="7" spans="1:27" hidden="1">
+    <row r="7" spans="1:27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A7" s="9">
         <v>43556</v>
       </c>
@@ -3260,7 +3309,7 @@
         <v>UQ7.5-1</v>
       </c>
     </row>
-    <row r="8" spans="1:27" hidden="1">
+    <row r="8" spans="1:27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A8" s="9">
         <v>43556</v>
       </c>
@@ -3302,7 +3351,7 @@
         <v>U2-1;</v>
       </c>
     </row>
-    <row r="9" spans="1:27" hidden="1">
+    <row r="9" spans="1:27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A9" s="9">
         <v>43556</v>
       </c>
@@ -3347,7 +3396,7 @@
         <v>U1-3;U2-3;</v>
       </c>
     </row>
-    <row r="10" spans="1:27" hidden="1">
+    <row r="10" spans="1:27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A10" s="9">
         <v>43556</v>
       </c>
@@ -3394,7 +3443,7 @@
         <v>U1-1;U2-1;7700116778119</v>
       </c>
     </row>
-    <row r="11" spans="1:27" hidden="1">
+    <row r="11" spans="1:27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A11" s="9">
         <v>43556</v>
       </c>
@@ -3441,7 +3490,7 @@
         <v>U1-1;U2-1;7700116778118</v>
       </c>
     </row>
-    <row r="12" spans="1:27" hidden="1">
+    <row r="12" spans="1:27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A12" s="9">
         <v>43556</v>
       </c>
@@ -3486,7 +3535,7 @@
         <v>U1-2;U2-2;7700116778114</v>
       </c>
     </row>
-    <row r="13" spans="1:27" hidden="1">
+    <row r="13" spans="1:27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A13" s="9">
         <v>43556</v>
       </c>
@@ -3531,7 +3580,7 @@
         <v>U1-1;U2-1;7700116778112</v>
       </c>
     </row>
-    <row r="14" spans="1:27" hidden="1">
+    <row r="14" spans="1:27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A14" s="9">
         <v>43556</v>
       </c>
@@ -3573,7 +3622,7 @@
         <v>U4-1;7700116778111</v>
       </c>
     </row>
-    <row r="15" spans="1:27" hidden="1">
+    <row r="15" spans="1:27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A15" s="9">
         <v>43556</v>
       </c>
@@ -3615,7 +3664,7 @@
         <v>U2-1;7700116778109</v>
       </c>
     </row>
-    <row r="16" spans="1:27" hidden="1">
+    <row r="16" spans="1:27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A16" s="9">
         <v>43556</v>
       </c>
@@ -3657,7 +3706,7 @@
         <v>U3-1;7700116778108</v>
       </c>
     </row>
-    <row r="17" spans="1:27" hidden="1">
+    <row r="17" spans="1:27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A17" s="9">
         <v>43557</v>
       </c>
@@ -3698,7 +3747,7 @@
         <v>U2-2;</v>
       </c>
     </row>
-    <row r="18" spans="1:27" hidden="1">
+    <row r="18" spans="1:27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A18" s="9">
         <v>43557</v>
       </c>
@@ -3742,7 +3791,7 @@
         <v>U1-1;U2-1;</v>
       </c>
     </row>
-    <row r="19" spans="1:27" hidden="1">
+    <row r="19" spans="1:27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A19" s="9">
         <v>43557</v>
       </c>
@@ -3783,7 +3832,7 @@
         <v>U4-1;</v>
       </c>
     </row>
-    <row r="20" spans="1:27" hidden="1">
+    <row r="20" spans="1:27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A20" s="9">
         <v>43557</v>
       </c>
@@ -3827,7 +3876,7 @@
         <v>U2-2;U8-1;</v>
       </c>
     </row>
-    <row r="21" spans="1:27" ht="28.5" hidden="1">
+    <row r="21" spans="1:27" ht="28.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A21" s="9">
         <v>43557</v>
       </c>
@@ -3882,7 +3931,7 @@
         <v>U1-1;U2-1;U3-1;U4-1;U9-1;</v>
       </c>
     </row>
-    <row r="22" spans="1:27" hidden="1">
+    <row r="22" spans="1:27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A22" s="9">
         <v>43557</v>
       </c>
@@ -3923,7 +3972,7 @@
         <v>U1-1;</v>
       </c>
     </row>
-    <row r="23" spans="1:27" hidden="1">
+    <row r="23" spans="1:27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A23" s="9">
         <v>43557</v>
       </c>
@@ -3964,7 +4013,7 @@
         <v>U2-1;</v>
       </c>
     </row>
-    <row r="24" spans="1:27" hidden="1">
+    <row r="24" spans="1:27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A24" s="9">
         <v>43557</v>
       </c>
@@ -4005,7 +4054,7 @@
         <v>U9-2;</v>
       </c>
     </row>
-    <row r="25" spans="1:27" hidden="1">
+    <row r="25" spans="1:27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A25" s="9">
         <v>43557</v>
       </c>
@@ -4046,7 +4095,7 @@
         <v>U2-1;</v>
       </c>
     </row>
-    <row r="26" spans="1:27" hidden="1">
+    <row r="26" spans="1:27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A26" s="9">
         <v>43557</v>
       </c>
@@ -4087,7 +4136,7 @@
         <v>U9-1;</v>
       </c>
     </row>
-    <row r="27" spans="1:27" hidden="1">
+    <row r="27" spans="1:27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A27" s="9">
         <v>43557</v>
       </c>
@@ -4128,7 +4177,7 @@
         <v>U2-1;</v>
       </c>
     </row>
-    <row r="28" spans="1:27" hidden="1">
+    <row r="28" spans="1:27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A28" s="9">
         <v>43557</v>
       </c>
@@ -4171,7 +4220,7 @@
         <v>U9-1;</v>
       </c>
     </row>
-    <row r="29" spans="1:27" hidden="1">
+    <row r="29" spans="1:27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A29" s="9">
         <v>43557</v>
       </c>
@@ -4215,7 +4264,7 @@
         <v>U1-4;U2-4;U9-2;</v>
       </c>
     </row>
-    <row r="30" spans="1:27" hidden="1">
+    <row r="30" spans="1:27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A30" s="9">
         <v>43557</v>
       </c>
@@ -4256,7 +4305,7 @@
         <v>U9-3;U10-1;</v>
       </c>
     </row>
-    <row r="31" spans="1:27" hidden="1">
+    <row r="31" spans="1:27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A31" s="9">
         <v>43558</v>
       </c>
@@ -4306,7 +4355,7 @@
         <v>U1-9;U2-11;U8-6;U10-6;</v>
       </c>
     </row>
-    <row r="32" spans="1:27" hidden="1">
+    <row r="32" spans="1:27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A32" s="9">
         <v>43558</v>
       </c>
@@ -4352,7 +4401,7 @@
         <v>U1-1;U3-1;</v>
       </c>
     </row>
-    <row r="33" spans="1:27" hidden="1">
+    <row r="33" spans="1:27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A33" s="9">
         <v>43558</v>
       </c>
@@ -4393,7 +4442,7 @@
         <v>U10-1;</v>
       </c>
     </row>
-    <row r="34" spans="1:27" hidden="1">
+    <row r="34" spans="1:27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A34" s="9">
         <v>43558</v>
       </c>
@@ -4437,7 +4486,7 @@
         <v>U1-1;U3-1;</v>
       </c>
     </row>
-    <row r="35" spans="1:27" hidden="1">
+    <row r="35" spans="1:27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A35" s="9">
         <v>43558</v>
       </c>
@@ -4478,7 +4527,7 @@
         <v>U6-1;</v>
       </c>
     </row>
-    <row r="36" spans="1:27" hidden="1">
+    <row r="36" spans="1:27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A36" s="9">
         <v>43558</v>
       </c>
@@ -4519,7 +4568,7 @@
         <v>U2-1;</v>
       </c>
     </row>
-    <row r="37" spans="1:27" hidden="1">
+    <row r="37" spans="1:27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A37" s="9">
         <v>43558</v>
       </c>
@@ -4566,7 +4615,7 @@
         <v>U1-1;U2-1;U9-1;</v>
       </c>
     </row>
-    <row r="38" spans="1:27" hidden="1">
+    <row r="38" spans="1:27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A38" s="9">
         <v>43558</v>
       </c>
@@ -4607,7 +4656,7 @@
         <v>U10-1;</v>
       </c>
     </row>
-    <row r="39" spans="1:27" hidden="1">
+    <row r="39" spans="1:27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A39" s="9">
         <v>43558</v>
       </c>
@@ -4654,7 +4703,7 @@
         <v>U7-1;U9-3;U10-2;</v>
       </c>
     </row>
-    <row r="40" spans="1:27" hidden="1">
+    <row r="40" spans="1:27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A40" s="9">
         <v>43558</v>
       </c>
@@ -4698,7 +4747,7 @@
         <v>U8-1;U10-5;</v>
       </c>
     </row>
-    <row r="41" spans="1:27" hidden="1">
+    <row r="41" spans="1:27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A41" s="9">
         <v>43558</v>
       </c>
@@ -4739,7 +4788,7 @@
         <v>U2-2;</v>
       </c>
     </row>
-    <row r="42" spans="1:27" hidden="1">
+    <row r="42" spans="1:27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A42" s="9">
         <v>43558</v>
       </c>
@@ -4783,7 +4832,7 @@
         <v>U1-3;U2-2;</v>
       </c>
     </row>
-    <row r="43" spans="1:27" hidden="1">
+    <row r="43" spans="1:27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A43" s="9">
         <v>43558</v>
       </c>
@@ -4827,7 +4876,7 @@
         <v>U1-4;U10-5;</v>
       </c>
     </row>
-    <row r="44" spans="1:27" hidden="1">
+    <row r="44" spans="1:27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A44" s="9">
         <v>43558</v>
       </c>
@@ -4871,7 +4920,7 @@
         <v>U4-1;U7-1;</v>
       </c>
     </row>
-    <row r="45" spans="1:27" hidden="1">
+    <row r="45" spans="1:27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A45" s="9">
         <v>43558</v>
       </c>
@@ -4915,7 +4964,7 @@
         <v>U1-1;U2-1;</v>
       </c>
     </row>
-    <row r="46" spans="1:27" hidden="1">
+    <row r="46" spans="1:27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A46" s="9">
         <v>43558</v>
       </c>
@@ -4959,7 +5008,7 @@
         <v>U2-4;U9-2;</v>
       </c>
     </row>
-    <row r="47" spans="1:27" hidden="1">
+    <row r="47" spans="1:27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A47" s="9">
         <v>43559</v>
       </c>
@@ -5000,7 +5049,7 @@
         <v>U10-1;</v>
       </c>
     </row>
-    <row r="48" spans="1:27" hidden="1">
+    <row r="48" spans="1:27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A48" s="9">
         <v>43559</v>
       </c>
@@ -5041,7 +5090,7 @@
         <v>U2-1;</v>
       </c>
     </row>
-    <row r="49" spans="1:27" hidden="1">
+    <row r="49" spans="1:27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A49" s="9">
         <v>43559</v>
       </c>
@@ -5082,7 +5131,7 @@
         <v>U2-1;</v>
       </c>
     </row>
-    <row r="50" spans="1:27" hidden="1">
+    <row r="50" spans="1:27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A50" s="9">
         <v>43559</v>
       </c>
@@ -5123,7 +5172,7 @@
         <v>U10-5;</v>
       </c>
     </row>
-    <row r="51" spans="1:27" hidden="1">
+    <row r="51" spans="1:27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A51" s="9">
         <v>43559</v>
       </c>
@@ -5164,7 +5213,7 @@
         <v>U10-1;</v>
       </c>
     </row>
-    <row r="52" spans="1:27" hidden="1">
+    <row r="52" spans="1:27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A52" s="9">
         <v>43559</v>
       </c>
@@ -5205,7 +5254,7 @@
         <v>U10-1;</v>
       </c>
     </row>
-    <row r="53" spans="1:27" hidden="1">
+    <row r="53" spans="1:27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A53" s="9">
         <v>43559</v>
       </c>
@@ -5246,7 +5295,7 @@
         <v>U8-1;</v>
       </c>
     </row>
-    <row r="54" spans="1:27" hidden="1">
+    <row r="54" spans="1:27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A54" s="9">
         <v>43559</v>
       </c>
@@ -5302,7 +5351,7 @@
         <v>U1-10;U3-4;U4-4;U8-4;U9-10;U10-4;</v>
       </c>
     </row>
-    <row r="55" spans="1:27" hidden="1">
+    <row r="55" spans="1:27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A55" s="9">
         <v>43559</v>
       </c>
@@ -5343,7 +5392,7 @@
         <v>U2-1;</v>
       </c>
     </row>
-    <row r="56" spans="1:27" hidden="1">
+    <row r="56" spans="1:27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A56" s="9">
         <v>43559</v>
       </c>
@@ -5385,7 +5434,7 @@
         <v>UQ5-1</v>
       </c>
     </row>
-    <row r="57" spans="1:27" hidden="1">
+    <row r="57" spans="1:27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A57" s="9">
         <v>43559</v>
       </c>
@@ -5429,7 +5478,7 @@
         <v>U2-1;U10-1;</v>
       </c>
     </row>
-    <row r="58" spans="1:27" hidden="1">
+    <row r="58" spans="1:27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A58" s="9">
         <v>43559</v>
       </c>
@@ -5470,7 +5519,7 @@
         <v>U2-2;</v>
       </c>
     </row>
-    <row r="59" spans="1:27" hidden="1">
+    <row r="59" spans="1:27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A59" s="9">
         <v>43559</v>
       </c>
@@ -5511,7 +5560,7 @@
         <v>U2-1;</v>
       </c>
     </row>
-    <row r="60" spans="1:27" hidden="1">
+    <row r="60" spans="1:27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A60" s="9">
         <v>43559</v>
       </c>
@@ -5553,7 +5602,7 @@
         <v>UQ10-1;UK7.5-1</v>
       </c>
     </row>
-    <row r="61" spans="1:27" hidden="1">
+    <row r="61" spans="1:27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A61" s="9">
         <v>43559</v>
       </c>
@@ -5606,7 +5655,7 @@
         <v>U1-1;U2-4;U3-1;U6-2;U9-2;</v>
       </c>
     </row>
-    <row r="62" spans="1:27" ht="15.95" hidden="1" customHeight="1">
+    <row r="62" spans="1:27" ht="15.95" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="9">
         <v>43563</v>
       </c>
@@ -5647,7 +5696,7 @@
         <v>U2-2;</v>
       </c>
     </row>
-    <row r="63" spans="1:27" hidden="1">
+    <row r="63" spans="1:27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A63" s="9">
         <v>43563</v>
       </c>
@@ -5688,7 +5737,7 @@
         <v>U3-1;</v>
       </c>
     </row>
-    <row r="64" spans="1:27" hidden="1">
+    <row r="64" spans="1:27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A64" s="9">
         <v>43563</v>
       </c>
@@ -5729,7 +5778,7 @@
         <v>U3-1;</v>
       </c>
     </row>
-    <row r="65" spans="1:27" hidden="1">
+    <row r="65" spans="1:27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A65" s="9">
         <v>43563</v>
       </c>
@@ -5773,7 +5822,7 @@
         <v>U6-2;U9-1;</v>
       </c>
     </row>
-    <row r="66" spans="1:27" hidden="1">
+    <row r="66" spans="1:27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A66" s="9">
         <v>43563</v>
       </c>
@@ -5818,7 +5867,7 @@
         <v>U1-1;U2-8;U9-1;</v>
       </c>
     </row>
-    <row r="67" spans="1:27" hidden="1">
+    <row r="67" spans="1:27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A67" s="9">
         <v>43563</v>
       </c>
@@ -5859,7 +5908,7 @@
         <v>U2-1;</v>
       </c>
     </row>
-    <row r="68" spans="1:27" hidden="1">
+    <row r="68" spans="1:27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A68" s="9">
         <v>43563</v>
       </c>
@@ -5900,7 +5949,7 @@
         <v>U3-1;</v>
       </c>
     </row>
-    <row r="69" spans="1:27" hidden="1">
+    <row r="69" spans="1:27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A69" s="9">
         <v>43563</v>
       </c>
@@ -5944,7 +5993,7 @@
         <v>U1-1;U3-1;</v>
       </c>
     </row>
-    <row r="70" spans="1:27" hidden="1">
+    <row r="70" spans="1:27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A70" s="9">
         <v>43563</v>
       </c>
@@ -5988,7 +6037,7 @@
         <v>U6-1;U9-2;</v>
       </c>
     </row>
-    <row r="71" spans="1:27" hidden="1">
+    <row r="71" spans="1:27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A71" s="9">
         <v>43563</v>
       </c>
@@ -6035,7 +6084,7 @@
         <v>U1-5;U2-3;U4-2;</v>
       </c>
     </row>
-    <row r="72" spans="1:27" hidden="1">
+    <row r="72" spans="1:27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A72" s="9">
         <v>43563</v>
       </c>
@@ -6082,7 +6131,7 @@
         <v>U4-2;U6-1;U10-3;</v>
       </c>
     </row>
-    <row r="73" spans="1:27" hidden="1">
+    <row r="73" spans="1:27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A73" s="9">
         <v>43563</v>
       </c>
@@ -6129,7 +6178,7 @@
         <v>U1-5;U6-5;U7-3;</v>
       </c>
     </row>
-    <row r="74" spans="1:27" ht="12.95" hidden="1" customHeight="1">
+    <row r="74" spans="1:27" ht="12.95" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A74" s="9">
         <v>43563</v>
       </c>
@@ -6173,7 +6222,7 @@
         <v>U2-1;U10-1;</v>
       </c>
     </row>
-    <row r="75" spans="1:27" hidden="1">
+    <row r="75" spans="1:27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A75" s="9">
         <v>43563</v>
       </c>
@@ -6220,7 +6269,7 @@
         <v>U1-4;U2-5;U6-1;</v>
       </c>
     </row>
-    <row r="76" spans="1:27" hidden="1">
+    <row r="76" spans="1:27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A76" s="9">
         <v>43563</v>
       </c>
@@ -6264,7 +6313,7 @@
         <v>U1-1;</v>
       </c>
     </row>
-    <row r="77" spans="1:27" s="1" customFormat="1" hidden="1">
+    <row r="77" spans="1:27" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A77" s="19">
         <v>43563</v>
       </c>
@@ -6316,7 +6365,7 @@
         <v>UK5-1</v>
       </c>
     </row>
-    <row r="78" spans="1:27" ht="42.75" hidden="1">
+    <row r="78" spans="1:27" ht="42.75" hidden="1" x14ac:dyDescent="0.15">
       <c r="A78" s="19">
         <v>43563</v>
       </c>
@@ -6369,7 +6418,7 @@
         <v>U2-20;U3-5;U4-5;U6-5;U9-5;</v>
       </c>
     </row>
-    <row r="79" spans="1:27" hidden="1">
+    <row r="79" spans="1:27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A79" s="19">
         <v>43563</v>
       </c>
@@ -6419,7 +6468,7 @@
         <v>U1-1;U2-3;U9-1;U10-1;</v>
       </c>
     </row>
-    <row r="80" spans="1:27" hidden="1">
+    <row r="80" spans="1:27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A80" s="19">
         <v>43563</v>
       </c>
@@ -6463,7 +6512,7 @@
         <v>U2-4;U9-2;</v>
       </c>
     </row>
-    <row r="81" spans="1:27" hidden="1">
+    <row r="81" spans="1:27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A81" s="19">
         <v>43563</v>
       </c>
@@ -6504,7 +6553,7 @@
         <v>U10-1;</v>
       </c>
     </row>
-    <row r="82" spans="1:27" hidden="1">
+    <row r="82" spans="1:27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A82" s="19">
         <v>43563</v>
       </c>
@@ -6548,7 +6597,7 @@
         <v>UK10-1</v>
       </c>
     </row>
-    <row r="83" spans="1:27" hidden="1">
+    <row r="83" spans="1:27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A83" s="19">
         <v>43563</v>
       </c>
@@ -6589,7 +6638,7 @@
         <v>U10-1;</v>
       </c>
     </row>
-    <row r="84" spans="1:27" hidden="1">
+    <row r="84" spans="1:27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A84" s="19">
         <v>43563</v>
       </c>
@@ -6630,7 +6679,7 @@
         <v>U2-2;</v>
       </c>
     </row>
-    <row r="85" spans="1:27" hidden="1">
+    <row r="85" spans="1:27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A85" s="19">
         <v>43563</v>
       </c>
@@ -6671,7 +6720,7 @@
         <v>U2-2;</v>
       </c>
     </row>
-    <row r="86" spans="1:27" hidden="1">
+    <row r="86" spans="1:27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A86" s="19">
         <v>43563</v>
       </c>
@@ -6709,7 +6758,7 @@
         <v>U8-1;</v>
       </c>
     </row>
-    <row r="87" spans="1:27" ht="57" hidden="1">
+    <row r="87" spans="1:27" ht="57" hidden="1" x14ac:dyDescent="0.15">
       <c r="A87" s="9">
         <v>43564</v>
       </c>
@@ -6759,7 +6808,7 @@
         <v>U1-14;U2-10;U3-10;U4-10;</v>
       </c>
     </row>
-    <row r="88" spans="1:27" hidden="1">
+    <row r="88" spans="1:27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A88" s="9">
         <v>43564</v>
       </c>
@@ -6797,7 +6846,7 @@
         <v>U1-1;</v>
       </c>
     </row>
-    <row r="89" spans="1:27" hidden="1">
+    <row r="89" spans="1:27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A89" s="9">
         <v>43564</v>
       </c>
@@ -6835,7 +6884,7 @@
         <v>U10-1;</v>
       </c>
     </row>
-    <row r="90" spans="1:27" hidden="1">
+    <row r="90" spans="1:27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A90" s="9">
         <v>43564</v>
       </c>
@@ -6873,7 +6922,7 @@
         <v>U1-2;</v>
       </c>
     </row>
-    <row r="91" spans="1:27" hidden="1">
+    <row r="91" spans="1:27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A91" s="9">
         <v>43564</v>
       </c>
@@ -6920,7 +6969,7 @@
         <v>U1-10;U2-5;U3-2;U9-5;</v>
       </c>
     </row>
-    <row r="92" spans="1:27" hidden="1">
+    <row r="92" spans="1:27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A92" s="9">
         <v>43564</v>
       </c>
@@ -6958,7 +7007,7 @@
         <v>U10-2;</v>
       </c>
     </row>
-    <row r="93" spans="1:27" hidden="1">
+    <row r="93" spans="1:27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A93" s="9">
         <v>43565</v>
       </c>
@@ -6996,7 +7045,7 @@
         <v>U7-1;</v>
       </c>
     </row>
-    <row r="94" spans="1:27" hidden="1">
+    <row r="94" spans="1:27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A94" s="9">
         <v>43565</v>
       </c>
@@ -7034,7 +7083,7 @@
         <v>U1-1;</v>
       </c>
     </row>
-    <row r="95" spans="1:27" hidden="1">
+    <row r="95" spans="1:27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A95" s="9">
         <v>43565</v>
       </c>
@@ -7072,7 +7121,7 @@
         <v>U2-2;</v>
       </c>
     </row>
-    <row r="96" spans="1:27" hidden="1">
+    <row r="96" spans="1:27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A96" s="9">
         <v>43565</v>
       </c>
@@ -7111,7 +7160,7 @@
         <v>U2-1;</v>
       </c>
     </row>
-    <row r="97" spans="1:27" hidden="1">
+    <row r="97" spans="1:27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A97" s="9">
         <v>43565</v>
       </c>
@@ -7167,7 +7216,7 @@
         <v>U1-4;U2-4;U3-3;U4-3;U6-2;U7-2;U9-2;</v>
       </c>
     </row>
-    <row r="98" spans="1:27" hidden="1">
+    <row r="98" spans="1:27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A98" s="9">
         <v>43565</v>
       </c>
@@ -7205,7 +7254,7 @@
         <v>U9-2;</v>
       </c>
     </row>
-    <row r="99" spans="1:27" hidden="1">
+    <row r="99" spans="1:27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A99" s="9">
         <v>43565</v>
       </c>
@@ -7246,7 +7295,7 @@
         <v>U2-1;U9-1;</v>
       </c>
     </row>
-    <row r="100" spans="1:27" hidden="1">
+    <row r="100" spans="1:27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A100" s="9">
         <v>43566</v>
       </c>
@@ -7284,7 +7333,7 @@
         <v>U10-1;</v>
       </c>
     </row>
-    <row r="101" spans="1:27" hidden="1">
+    <row r="101" spans="1:27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A101" s="9">
         <v>43566</v>
       </c>
@@ -7322,7 +7371,7 @@
         <v>U8-1;</v>
       </c>
     </row>
-    <row r="102" spans="1:27" hidden="1">
+    <row r="102" spans="1:27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A102" s="9">
         <v>43566</v>
       </c>
@@ -7360,7 +7409,7 @@
         <v>U2-2;</v>
       </c>
     </row>
-    <row r="103" spans="1:27" hidden="1">
+    <row r="103" spans="1:27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A103" s="9">
         <v>43566</v>
       </c>
@@ -7398,7 +7447,7 @@
         <v>U2-1;</v>
       </c>
     </row>
-    <row r="104" spans="1:27" hidden="1">
+    <row r="104" spans="1:27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A104" s="9">
         <v>43566</v>
       </c>
@@ -7442,7 +7491,7 @@
         <v>U1-2;U3-2;U9-2;</v>
       </c>
     </row>
-    <row r="105" spans="1:27" hidden="1">
+    <row r="105" spans="1:27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A105" s="9">
         <v>43566</v>
       </c>
@@ -7480,7 +7529,7 @@
         <v>U10-2;</v>
       </c>
     </row>
-    <row r="106" spans="1:27" hidden="1">
+    <row r="106" spans="1:27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A106" s="9">
         <v>43566</v>
       </c>
@@ -7518,7 +7567,7 @@
         <v>U3-1;</v>
       </c>
     </row>
-    <row r="107" spans="1:27" hidden="1">
+    <row r="107" spans="1:27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A107" s="9">
         <v>43566</v>
       </c>
@@ -7558,7 +7607,7 @@
         <v>2.2m*2m*7.5cm -1</v>
       </c>
     </row>
-    <row r="108" spans="1:27" hidden="1">
+    <row r="108" spans="1:27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A108" s="9">
         <v>43566</v>
       </c>
@@ -7596,7 +7645,7 @@
         <v>U1-1;</v>
       </c>
     </row>
-    <row r="109" spans="1:27" hidden="1">
+    <row r="109" spans="1:27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A109" s="9">
         <v>43566</v>
       </c>
@@ -7634,7 +7683,7 @@
         <v>U9-1;</v>
       </c>
     </row>
-    <row r="110" spans="1:27" hidden="1">
+    <row r="110" spans="1:27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A110" s="9">
         <v>43566</v>
       </c>
@@ -7672,7 +7721,7 @@
         <v>U2-2;</v>
       </c>
     </row>
-    <row r="111" spans="1:27" hidden="1">
+    <row r="111" spans="1:27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A111" s="9">
         <v>43566</v>
       </c>
@@ -7704,7 +7753,7 @@
         <v/>
       </c>
     </row>
-    <row r="112" spans="1:27" hidden="1">
+    <row r="112" spans="1:27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A112" s="9">
         <v>43566</v>
       </c>
@@ -7751,7 +7800,7 @@
         <v>U1-15;U2-15;U8-2;U10-2;</v>
       </c>
     </row>
-    <row r="113" spans="1:27" hidden="1">
+    <row r="113" spans="1:27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A113" s="9">
         <v>43566</v>
       </c>
@@ -7792,7 +7841,7 @@
         <v>U2-1;U3-1;</v>
       </c>
     </row>
-    <row r="114" spans="1:27" hidden="1">
+    <row r="114" spans="1:27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A114" s="9">
         <v>43567</v>
       </c>
@@ -7835,7 +7884,7 @@
         <v>U1-3;U2-3;U9-6;</v>
       </c>
     </row>
-    <row r="115" spans="1:27" hidden="1">
+    <row r="115" spans="1:27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A115" s="9">
         <v>43567</v>
       </c>
@@ -7872,7 +7921,7 @@
         <v>U1-10;</v>
       </c>
     </row>
-    <row r="116" spans="1:27" hidden="1">
+    <row r="116" spans="1:27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A116" s="9">
         <v>43567</v>
       </c>
@@ -7909,7 +7958,7 @@
         <v>UK5-1</v>
       </c>
     </row>
-    <row r="117" spans="1:27" hidden="1">
+    <row r="117" spans="1:27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A117" s="9">
         <v>43567</v>
       </c>
@@ -7949,7 +7998,7 @@
         <v>U1-1;U2-1;</v>
       </c>
     </row>
-    <row r="118" spans="1:27" hidden="1">
+    <row r="118" spans="1:27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A118" s="9">
         <v>43567</v>
       </c>
@@ -7989,7 +8038,7 @@
         <v>U6-1;U9-1;</v>
       </c>
     </row>
-    <row r="119" spans="1:27" hidden="1">
+    <row r="119" spans="1:27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A119" s="9">
         <v>43567</v>
       </c>
@@ -8026,7 +8075,7 @@
         <v>1.9m*0.95m*10cm -1</v>
       </c>
     </row>
-    <row r="120" spans="1:27" hidden="1">
+    <row r="120" spans="1:27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A120" s="9">
         <v>43567</v>
       </c>
@@ -8069,7 +8118,7 @@
         <v>U1-2;U2-2;U9-2;</v>
       </c>
     </row>
-    <row r="121" spans="1:27" hidden="1">
+    <row r="121" spans="1:27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A121" s="9">
         <v>43567</v>
       </c>
@@ -8106,7 +8155,7 @@
         <v>U2-1;</v>
       </c>
     </row>
-    <row r="122" spans="1:27" hidden="1">
+    <row r="122" spans="1:27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A122" s="9">
         <v>43567</v>
       </c>
@@ -8164,7 +8213,7 @@
         <v>U1-2;U2-2;U3-1;U4-1;U7-1;U8-1;U9-1;U10-1;</v>
       </c>
     </row>
-    <row r="123" spans="1:27" hidden="1">
+    <row r="123" spans="1:27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A123" s="9">
         <v>43567</v>
       </c>
@@ -8201,7 +8250,7 @@
         <v>U8-1;</v>
       </c>
     </row>
-    <row r="124" spans="1:27" hidden="1">
+    <row r="124" spans="1:27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A124" s="9">
         <v>43567</v>
       </c>
@@ -8238,7 +8287,7 @@
         <v>us10-1</v>
       </c>
     </row>
-    <row r="125" spans="1:27" hidden="1">
+    <row r="125" spans="1:27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A125" s="9">
         <v>43567</v>
       </c>
@@ -8278,7 +8327,7 @@
         <v>U2-1;U3-1;</v>
       </c>
     </row>
-    <row r="126" spans="1:27" hidden="1">
+    <row r="126" spans="1:27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A126" s="9">
         <v>43567</v>
       </c>
@@ -8315,7 +8364,7 @@
         <v>UK10-1</v>
       </c>
     </row>
-    <row r="127" spans="1:27" hidden="1">
+    <row r="127" spans="1:27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A127" s="9">
         <v>43567</v>
       </c>
@@ -8364,7 +8413,7 @@
         <v>U1-2;U2-2;U8-3;U9-3;U10-1;</v>
       </c>
     </row>
-    <row r="128" spans="1:27" hidden="1">
+    <row r="128" spans="1:27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A128" s="9">
         <v>43567</v>
       </c>
@@ -8401,7 +8450,7 @@
         <v>U2-1;</v>
       </c>
     </row>
-    <row r="129" spans="1:27" hidden="1">
+    <row r="129" spans="1:27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A129" s="9">
         <v>43567</v>
       </c>
@@ -8438,7 +8487,7 @@
         <v>U2-1;</v>
       </c>
     </row>
-    <row r="130" spans="1:27" hidden="1">
+    <row r="130" spans="1:27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A130" s="9">
         <v>43568</v>
       </c>
@@ -8475,7 +8524,7 @@
         <v>U1-1;</v>
       </c>
     </row>
-    <row r="131" spans="1:27" hidden="1">
+    <row r="131" spans="1:27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A131" s="9">
         <v>43568</v>
       </c>
@@ -8518,7 +8567,7 @@
         <v>U1-4;U8-4;U10-2;</v>
       </c>
     </row>
-    <row r="132" spans="1:27" hidden="1">
+    <row r="132" spans="1:27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A132" s="9">
         <v>43568</v>
       </c>
@@ -8564,7 +8613,7 @@
         <v>U1-5;U6-2;U7-1;U9-2;</v>
       </c>
     </row>
-    <row r="133" spans="1:27" hidden="1">
+    <row r="133" spans="1:27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A133" s="9">
         <v>43568</v>
       </c>
@@ -8604,7 +8653,7 @@
         <v>U1-3;U2-7;</v>
       </c>
     </row>
-    <row r="134" spans="1:27" hidden="1">
+    <row r="134" spans="1:27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A134" s="9">
         <v>43568</v>
       </c>
@@ -8644,7 +8693,7 @@
         <v>U1-1;U2-1;</v>
       </c>
     </row>
-    <row r="135" spans="1:27" hidden="1">
+    <row r="135" spans="1:27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A135" s="9">
         <v>43568</v>
       </c>
@@ -8681,7 +8730,7 @@
         <v>U1-1;</v>
       </c>
     </row>
-    <row r="136" spans="1:27" hidden="1">
+    <row r="136" spans="1:27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A136" s="9">
         <v>43570</v>
       </c>
@@ -8718,7 +8767,7 @@
         <v>U6-1;</v>
       </c>
     </row>
-    <row r="137" spans="1:27" hidden="1">
+    <row r="137" spans="1:27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A137" s="9">
         <v>43570</v>
       </c>
@@ -8755,7 +8804,7 @@
         <v>U2-2;</v>
       </c>
     </row>
-    <row r="138" spans="1:27" hidden="1">
+    <row r="138" spans="1:27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A138" s="9">
         <v>43570</v>
       </c>
@@ -8804,7 +8853,7 @@
         <v>U2-2;U3-1;U4-1;U6-2;U9-4;</v>
       </c>
     </row>
-    <row r="139" spans="1:27" hidden="1">
+    <row r="139" spans="1:27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A139" s="9">
         <v>43570</v>
       </c>
@@ -8847,7 +8896,7 @@
         <v>U1-1;U2-5;U3-1;</v>
       </c>
     </row>
-    <row r="140" spans="1:27" hidden="1">
+    <row r="140" spans="1:27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A140" s="9">
         <v>43570</v>
       </c>
@@ -8884,7 +8933,7 @@
         <v>U9-2;</v>
       </c>
     </row>
-    <row r="141" spans="1:27" hidden="1">
+    <row r="141" spans="1:27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A141" s="9">
         <v>43570</v>
       </c>
@@ -8921,7 +8970,7 @@
         <v>U2-1;</v>
       </c>
     </row>
-    <row r="142" spans="1:27" hidden="1">
+    <row r="142" spans="1:27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A142" s="9">
         <v>43570</v>
       </c>
@@ -8958,7 +9007,7 @@
         <v>U2-7;</v>
       </c>
     </row>
-    <row r="143" spans="1:27" hidden="1">
+    <row r="143" spans="1:27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A143" s="9">
         <v>43571</v>
       </c>
@@ -8995,7 +9044,7 @@
         <v>U2-2;</v>
       </c>
     </row>
-    <row r="144" spans="1:27" hidden="1">
+    <row r="144" spans="1:27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A144" s="9">
         <v>43571</v>
       </c>
@@ -9032,7 +9081,7 @@
         <v>U9-1;</v>
       </c>
     </row>
-    <row r="145" spans="1:27" hidden="1">
+    <row r="145" spans="1:27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A145" s="9">
         <v>43571</v>
       </c>
@@ -9072,7 +9121,7 @@
         <v>U2-1;U10-1;</v>
       </c>
     </row>
-    <row r="146" spans="1:27" hidden="1">
+    <row r="146" spans="1:27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A146" s="9">
         <v>43571</v>
       </c>
@@ -9109,7 +9158,7 @@
         <v>U9-3;</v>
       </c>
     </row>
-    <row r="147" spans="1:27" hidden="1">
+    <row r="147" spans="1:27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A147" s="9">
         <v>43571</v>
       </c>
@@ -9146,7 +9195,7 @@
         <v>U1-1;</v>
       </c>
     </row>
-    <row r="148" spans="1:27" hidden="1">
+    <row r="148" spans="1:27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A148" s="9">
         <v>43571</v>
       </c>
@@ -9189,7 +9238,7 @@
         <v>U1-1;U3-2;U9-1;</v>
       </c>
     </row>
-    <row r="149" spans="1:27" hidden="1">
+    <row r="149" spans="1:27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A149" s="9">
         <v>43571</v>
       </c>
@@ -9226,7 +9275,7 @@
         <v>U3-1;</v>
       </c>
     </row>
-    <row r="150" spans="1:27" hidden="1">
+    <row r="150" spans="1:27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A150" s="9">
         <v>43571</v>
       </c>
@@ -9266,7 +9315,7 @@
         <v>U2-2;U8-1;</v>
       </c>
     </row>
-    <row r="151" spans="1:27" hidden="1">
+    <row r="151" spans="1:27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A151" s="9">
         <v>43571</v>
       </c>
@@ -9303,7 +9352,7 @@
         <v>UK10 -1</v>
       </c>
     </row>
-    <row r="152" spans="1:27" hidden="1">
+    <row r="152" spans="1:27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A152" s="9">
         <v>43572</v>
       </c>
@@ -9340,7 +9389,7 @@
         <v>U1-1;</v>
       </c>
     </row>
-    <row r="153" spans="1:27" hidden="1">
+    <row r="153" spans="1:27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A153" s="9">
         <v>43572</v>
       </c>
@@ -9377,7 +9426,7 @@
         <v>UK10 -1</v>
       </c>
     </row>
-    <row r="154" spans="1:27" hidden="1">
+    <row r="154" spans="1:27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A154" s="9">
         <v>43572</v>
       </c>
@@ -9438,7 +9487,7 @@
         <v>U1-10;U2-10;U3-6;U4-6;U6-3;U7-2;U8-2;U9-3;U10-2;</v>
       </c>
     </row>
-    <row r="155" spans="1:27" hidden="1">
+    <row r="155" spans="1:27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A155" s="9">
         <v>43572</v>
       </c>
@@ -9475,7 +9524,7 @@
         <v>U9-1;</v>
       </c>
     </row>
-    <row r="156" spans="1:27" hidden="1">
+    <row r="156" spans="1:27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A156" s="9">
         <v>43572</v>
       </c>
@@ -9512,7 +9561,7 @@
         <v>U2-2;U9-4;</v>
       </c>
     </row>
-    <row r="157" spans="1:27" hidden="1">
+    <row r="157" spans="1:27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A157" s="9">
         <v>43572</v>
       </c>
@@ -9552,7 +9601,7 @@
         <v>U1-5;U2-5;U6-2;</v>
       </c>
     </row>
-    <row r="158" spans="1:27">
+    <row r="158" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A158" s="9">
         <v>43573</v>
       </c>
@@ -9595,7 +9644,7 @@
         <v>U1-5;U2-5;U6-2;</v>
       </c>
     </row>
-    <row r="159" spans="1:27">
+    <row r="159" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A159" s="9">
         <v>43573</v>
       </c>
@@ -9632,7 +9681,7 @@
         <v xml:space="preserve">UK7.5 -1 </v>
       </c>
     </row>
-    <row r="160" spans="1:27">
+    <row r="160" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A160" s="9">
         <v>43573</v>
       </c>
@@ -9669,7 +9718,7 @@
         <v>U1-2;</v>
       </c>
     </row>
-    <row r="161" spans="1:27">
+    <row r="161" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A161" s="9">
         <v>43573</v>
       </c>
@@ -9706,7 +9755,7 @@
         <v>U1-3;</v>
       </c>
     </row>
-    <row r="162" spans="1:27">
+    <row r="162" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A162" s="9">
         <v>43573</v>
       </c>
@@ -9755,7 +9804,7 @@
         <v>U1-6;U2-3;U3-3;U4-3;U7-1;</v>
       </c>
     </row>
-    <row r="163" spans="1:27">
+    <row r="163" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A163" s="9">
         <v>43573</v>
       </c>
@@ -9795,7 +9844,7 @@
         <v>U1-1;U2-1;</v>
       </c>
     </row>
-    <row r="164" spans="1:27">
+    <row r="164" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A164" s="9">
         <v>43573</v>
       </c>
@@ -9832,7 +9881,7 @@
         <v>U2-2;</v>
       </c>
     </row>
-    <row r="165" spans="1:27">
+    <row r="165" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A165" s="9">
         <v>43573</v>
       </c>
@@ -9875,7 +9924,7 @@
         <v>U1-4;U2-5;U10-1;</v>
       </c>
     </row>
-    <row r="166" spans="1:27">
+    <row r="166" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A166" s="9">
         <v>43573</v>
       </c>
@@ -9915,7 +9964,7 @@
         <v>1.7m×1m×5cm -1</v>
       </c>
     </row>
-    <row r="167" spans="1:27">
+    <row r="167" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A167" s="9">
         <v>43573</v>
       </c>
@@ -9955,7 +10004,7 @@
         <v>U1-5;U8-1;</v>
       </c>
     </row>
-    <row r="168" spans="1:27">
+    <row r="168" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A168" s="9">
         <v>43573</v>
       </c>
@@ -9995,7 +10044,7 @@
         <v>90m×1.8m×5cm -1</v>
       </c>
     </row>
-    <row r="169" spans="1:27">
+    <row r="169" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A169" s="9">
         <v>43573</v>
       </c>
@@ -10032,538 +10081,566 @@
         <v>U8-4;</v>
       </c>
     </row>
-    <row r="170" spans="1:27">
+    <row r="170" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A170" s="9">
+        <v>43573</v>
+      </c>
+      <c r="B170" s="3">
+        <v>4969727383</v>
+      </c>
+      <c r="C170" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D170" s="3" t="s">
+        <v>506</v>
+      </c>
+      <c r="E170" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="F170" s="3" t="s">
+        <v>507</v>
+      </c>
+      <c r="G170" s="3">
+        <v>13415227597</v>
+      </c>
+      <c r="H170" s="3"/>
+      <c r="I170" s="3" t="s">
+        <v>508</v>
+      </c>
+      <c r="J170" s="4">
+        <v>1</v>
+      </c>
       <c r="AA170" s="3" t="str">
         <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="171" spans="1:27">
+        <v>U1-1;</v>
+      </c>
+    </row>
+    <row r="171" spans="1:27" x14ac:dyDescent="0.15">
       <c r="AA171" s="3" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="172" spans="1:27">
+    <row r="172" spans="1:27" x14ac:dyDescent="0.15">
       <c r="AA172" s="3" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="173" spans="1:27">
+    <row r="173" spans="1:27" x14ac:dyDescent="0.15">
       <c r="AA173" s="3" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="174" spans="1:27">
+    <row r="174" spans="1:27" x14ac:dyDescent="0.15">
       <c r="AA174" s="3" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="175" spans="1:27">
+    <row r="175" spans="1:27" x14ac:dyDescent="0.15">
       <c r="AA175" s="3" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="176" spans="1:27">
+    <row r="176" spans="1:27" x14ac:dyDescent="0.15">
       <c r="AA176" s="3" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="177" spans="27:27">
+    <row r="177" spans="27:27" x14ac:dyDescent="0.15">
       <c r="AA177" s="3" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="178" spans="27:27">
+    <row r="178" spans="27:27" x14ac:dyDescent="0.15">
       <c r="AA178" s="3" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="179" spans="27:27">
+    <row r="179" spans="27:27" x14ac:dyDescent="0.15">
       <c r="AA179" s="3" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="180" spans="27:27">
+    <row r="180" spans="27:27" x14ac:dyDescent="0.15">
       <c r="AA180" s="3" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="181" spans="27:27">
+    <row r="181" spans="27:27" x14ac:dyDescent="0.15">
       <c r="AA181" s="3" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="182" spans="27:27">
+    <row r="182" spans="27:27" x14ac:dyDescent="0.15">
       <c r="AA182" s="3" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="183" spans="27:27">
+    <row r="183" spans="27:27" x14ac:dyDescent="0.15">
       <c r="AA183" s="3" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="184" spans="27:27">
+    <row r="184" spans="27:27" x14ac:dyDescent="0.15">
       <c r="AA184" s="3" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="185" spans="27:27">
+    <row r="185" spans="27:27" x14ac:dyDescent="0.15">
       <c r="AA185" s="3" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="186" spans="27:27">
+    <row r="186" spans="27:27" x14ac:dyDescent="0.15">
       <c r="AA186" s="3" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="187" spans="27:27">
+    <row r="187" spans="27:27" x14ac:dyDescent="0.15">
       <c r="AA187" s="3" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="188" spans="27:27">
+    <row r="188" spans="27:27" x14ac:dyDescent="0.15">
       <c r="AA188" s="3" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="189" spans="27:27">
+    <row r="189" spans="27:27" x14ac:dyDescent="0.15">
       <c r="AA189" s="3" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="190" spans="27:27">
+    <row r="190" spans="27:27" x14ac:dyDescent="0.15">
       <c r="AA190" s="3" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="191" spans="27:27">
+    <row r="191" spans="27:27" x14ac:dyDescent="0.15">
       <c r="AA191" s="3" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="192" spans="27:27">
+    <row r="192" spans="27:27" x14ac:dyDescent="0.15">
       <c r="AA192" s="3" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="193" spans="27:27">
+    <row r="193" spans="27:27" x14ac:dyDescent="0.15">
       <c r="AA193" s="3" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="194" spans="27:27">
+    <row r="194" spans="27:27" x14ac:dyDescent="0.15">
       <c r="AA194" s="3" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="195" spans="27:27">
+    <row r="195" spans="27:27" x14ac:dyDescent="0.15">
       <c r="AA195" s="3" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="196" spans="27:27">
+    <row r="196" spans="27:27" x14ac:dyDescent="0.15">
       <c r="AA196" s="3" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="197" spans="27:27">
+    <row r="197" spans="27:27" x14ac:dyDescent="0.15">
       <c r="AA197" s="3" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="198" spans="27:27">
+    <row r="198" spans="27:27" x14ac:dyDescent="0.15">
       <c r="AA198" s="3" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="199" spans="27:27">
+    <row r="199" spans="27:27" x14ac:dyDescent="0.15">
       <c r="AA199" s="3" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="200" spans="27:27">
+    <row r="200" spans="27:27" x14ac:dyDescent="0.15">
       <c r="AA200" s="3" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="201" spans="27:27">
+    <row r="201" spans="27:27" x14ac:dyDescent="0.15">
       <c r="AA201" s="3" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="202" spans="27:27">
+    <row r="202" spans="27:27" x14ac:dyDescent="0.15">
       <c r="AA202" s="3" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="203" spans="27:27">
+    <row r="203" spans="27:27" x14ac:dyDescent="0.15">
       <c r="AA203" s="3" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="204" spans="27:27">
+    <row r="204" spans="27:27" x14ac:dyDescent="0.15">
       <c r="AA204" s="3" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="205" spans="27:27">
+    <row r="205" spans="27:27" x14ac:dyDescent="0.15">
       <c r="AA205" s="3" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="206" spans="27:27">
+    <row r="206" spans="27:27" x14ac:dyDescent="0.15">
       <c r="AA206" s="3" t="str">
         <f t="shared" ref="AA206:AA257" si="11">IF(J206&gt;0,"U1-"&amp;J206&amp;";","")&amp;IF(K206&gt;0,"U2-"&amp;K206&amp;";","")&amp;IF(L206&gt;0,"U3-"&amp;L206&amp;";","")&amp;IF(M206&gt;0,"U4-"&amp;M206&amp;";","")&amp;IF(N206&gt;0,"U6-"&amp;N206&amp;";","")&amp;IF(O206&gt;0,"U7-"&amp;O206&amp;";","")&amp;IF(P206&gt;0,"U8-"&amp;P206&amp;";","")&amp;IF(Q206&gt;0,"U9-"&amp;Q206&amp;";","")&amp;IF(R206&gt;0,"U10-"&amp;R206&amp;";","")&amp;U206</f>
         <v/>
       </c>
     </row>
-    <row r="207" spans="27:27">
+    <row r="207" spans="27:27" x14ac:dyDescent="0.15">
       <c r="AA207" s="3" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="208" spans="27:27">
+    <row r="208" spans="27:27" x14ac:dyDescent="0.15">
       <c r="AA208" s="3" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="209" spans="27:27">
+    <row r="209" spans="27:27" x14ac:dyDescent="0.15">
       <c r="AA209" s="3" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="210" spans="27:27">
+    <row r="210" spans="27:27" x14ac:dyDescent="0.15">
       <c r="AA210" s="3" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="211" spans="27:27">
+    <row r="211" spans="27:27" x14ac:dyDescent="0.15">
       <c r="AA211" s="3" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="212" spans="27:27">
+    <row r="212" spans="27:27" x14ac:dyDescent="0.15">
       <c r="AA212" s="3" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="213" spans="27:27">
+    <row r="213" spans="27:27" x14ac:dyDescent="0.15">
       <c r="AA213" s="3" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="214" spans="27:27">
+    <row r="214" spans="27:27" x14ac:dyDescent="0.15">
       <c r="AA214" s="3" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="215" spans="27:27">
+    <row r="215" spans="27:27" x14ac:dyDescent="0.15">
       <c r="AA215" s="3" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="216" spans="27:27">
+    <row r="216" spans="27:27" x14ac:dyDescent="0.15">
       <c r="AA216" s="3" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="217" spans="27:27">
+    <row r="217" spans="27:27" x14ac:dyDescent="0.15">
       <c r="AA217" s="3" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="218" spans="27:27">
+    <row r="218" spans="27:27" x14ac:dyDescent="0.15">
       <c r="AA218" s="3" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="219" spans="27:27">
+    <row r="219" spans="27:27" x14ac:dyDescent="0.15">
       <c r="AA219" s="3" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="220" spans="27:27">
+    <row r="220" spans="27:27" x14ac:dyDescent="0.15">
       <c r="AA220" s="3" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="221" spans="27:27">
+    <row r="221" spans="27:27" x14ac:dyDescent="0.15">
       <c r="AA221" s="3" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="222" spans="27:27">
+    <row r="222" spans="27:27" x14ac:dyDescent="0.15">
       <c r="AA222" s="3" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="223" spans="27:27">
+    <row r="223" spans="27:27" x14ac:dyDescent="0.15">
       <c r="AA223" s="3" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="224" spans="27:27">
+    <row r="224" spans="27:27" x14ac:dyDescent="0.15">
       <c r="AA224" s="3" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="225" spans="27:27">
+    <row r="225" spans="27:27" x14ac:dyDescent="0.15">
       <c r="AA225" s="3" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="226" spans="27:27">
+    <row r="226" spans="27:27" x14ac:dyDescent="0.15">
       <c r="AA226" s="3" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="227" spans="27:27">
+    <row r="227" spans="27:27" x14ac:dyDescent="0.15">
       <c r="AA227" s="3" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="228" spans="27:27">
+    <row r="228" spans="27:27" x14ac:dyDescent="0.15">
       <c r="AA228" s="3" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="229" spans="27:27">
+    <row r="229" spans="27:27" x14ac:dyDescent="0.15">
       <c r="AA229" s="3" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="230" spans="27:27">
+    <row r="230" spans="27:27" x14ac:dyDescent="0.15">
       <c r="AA230" s="3" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="231" spans="27:27">
+    <row r="231" spans="27:27" x14ac:dyDescent="0.15">
       <c r="AA231" s="3" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="232" spans="27:27">
+    <row r="232" spans="27:27" x14ac:dyDescent="0.15">
       <c r="AA232" s="3" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="233" spans="27:27">
+    <row r="233" spans="27:27" x14ac:dyDescent="0.15">
       <c r="AA233" s="3" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="234" spans="27:27">
+    <row r="234" spans="27:27" x14ac:dyDescent="0.15">
       <c r="AA234" s="3" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="235" spans="27:27">
+    <row r="235" spans="27:27" x14ac:dyDescent="0.15">
       <c r="AA235" s="3" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="236" spans="27:27">
+    <row r="236" spans="27:27" x14ac:dyDescent="0.15">
       <c r="AA236" s="3" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="237" spans="27:27">
+    <row r="237" spans="27:27" x14ac:dyDescent="0.15">
       <c r="AA237" s="3" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="238" spans="27:27">
+    <row r="238" spans="27:27" x14ac:dyDescent="0.15">
       <c r="AA238" s="3" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="239" spans="27:27">
+    <row r="239" spans="27:27" x14ac:dyDescent="0.15">
       <c r="AA239" s="3" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="240" spans="27:27">
+    <row r="240" spans="27:27" x14ac:dyDescent="0.15">
       <c r="AA240" s="3" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="241" spans="27:27">
+    <row r="241" spans="27:27" x14ac:dyDescent="0.15">
       <c r="AA241" s="3" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="242" spans="27:27">
+    <row r="242" spans="27:27" x14ac:dyDescent="0.15">
       <c r="AA242" s="3" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="243" spans="27:27">
+    <row r="243" spans="27:27" x14ac:dyDescent="0.15">
       <c r="AA243" s="3" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="244" spans="27:27">
+    <row r="244" spans="27:27" x14ac:dyDescent="0.15">
       <c r="AA244" s="3" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="245" spans="27:27">
+    <row r="245" spans="27:27" x14ac:dyDescent="0.15">
       <c r="AA245" s="3" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="246" spans="27:27">
+    <row r="246" spans="27:27" x14ac:dyDescent="0.15">
       <c r="AA246" s="3" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="247" spans="27:27">
+    <row r="247" spans="27:27" x14ac:dyDescent="0.15">
       <c r="AA247" s="3" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="248" spans="27:27">
+    <row r="248" spans="27:27" x14ac:dyDescent="0.15">
       <c r="AA248" s="3" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="249" spans="27:27">
+    <row r="249" spans="27:27" x14ac:dyDescent="0.15">
       <c r="AA249" s="3" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="250" spans="27:27">
+    <row r="250" spans="27:27" x14ac:dyDescent="0.15">
       <c r="AA250" s="3" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="251" spans="27:27">
+    <row r="251" spans="27:27" x14ac:dyDescent="0.15">
       <c r="AA251" s="3" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="252" spans="27:27">
+    <row r="252" spans="27:27" x14ac:dyDescent="0.15">
       <c r="AA252" s="3" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="253" spans="27:27">
+    <row r="253" spans="27:27" x14ac:dyDescent="0.15">
       <c r="AA253" s="3" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="254" spans="27:27">
+    <row r="254" spans="27:27" x14ac:dyDescent="0.15">
       <c r="AA254" s="3" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="255" spans="27:27">
+    <row r="255" spans="27:27" x14ac:dyDescent="0.15">
       <c r="AA255" s="3" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="256" spans="27:27">
+    <row r="256" spans="27:27" x14ac:dyDescent="0.15">
       <c r="AA256" s="3" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="257" spans="27:27">
+    <row r="257" spans="27:27" x14ac:dyDescent="0.15">
       <c r="AA257" s="3" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="1048576" spans="10:18">
+    <row r="1048576" spans="10:18" x14ac:dyDescent="0.15">
       <c r="J1048576" s="4">
         <f t="shared" ref="J1048576:R1048576" si="12">SUM(J2:J1048575)</f>
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="K1048576" s="4">
         <f t="shared" si="12"/>

--- a/4月/4月份客户发货需求(4.18).xlsx
+++ b/4月/4月份客户发货需求(4.18).xlsx
@@ -15,7 +15,7 @@
     <sheet name="4月份客户发货需求" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'4月份客户发货需求'!$A$1:$W$169</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'4月份客户发货需求'!$A$1:$W$170</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
@@ -685,12 +685,37 @@
         </r>
       </text>
     </comment>
+    <comment ref="F171" authorId="4" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>一个灰色一个蓝色</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="962" uniqueCount="509">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="967" uniqueCount="511">
   <si>
     <t>下单日期</t>
   </si>
@@ -2285,131 +2310,140 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
+    <t>山东省烟台市芝罘区前进路1号网点26号宝贝计划</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>高洁</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>广东省湛江市赤坎区文章村九巷60号</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>杨晓涛</t>
+  </si>
+  <si>
+    <t>罗哈</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>上海市长宁区新泾镇仙霞西路700弄华松小区73号603室</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">UK7.5 -1 </t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>一星总裁</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>朱慧</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>二星总裁</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">婷婷 </t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>广东省广州市番禺区迎新路8号星力动漫G35金汇科技</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘娟</t>
+  </si>
+  <si>
+    <t>河南省郑州市二七区庆丰街17号院鑫苑现代城4号楼</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>李阳明</t>
+  </si>
+  <si>
+    <t>广东省清远市清新区星光大道领秀瑞城西门</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄珊</t>
+  </si>
+  <si>
+    <t>上海市上海市浦东新区祖冲之路899号82号楼喜马拉雅</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Walt</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">香港特别行政区香港岛其它区 "D’Vieng Santitham 66/2 Hussadhisawee Rd. Changpuak Mueng Chiangmai .Chiangmai" </t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>许佳一</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>熊静萍</t>
+  </si>
+  <si>
+    <t xml:space="preserve">江苏省徐州市铜山区国基城邦小区29号楼2单元1201 </t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.7m×1m×5cm -1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>江西省南昌市青山湖区北京东路1198号天泽园12-3-1101室</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>谷梦溪</t>
+  </si>
+  <si>
+    <t>河南省郑州市管城回族区郑州市管城区经北二路远大理想城66号楼一单元205号</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>冯博</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>90m×1.8m×5cm -1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>河南省郑州市二七区庆丰街17号院鑫苑现代城4号楼</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>吴芳</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>唐芳</t>
+  </si>
+  <si>
+    <t>广东省清远市清新区107国道城西苑</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
     <t>苏腾腾</t>
-  </si>
-  <si>
-    <t>山东省烟台市芝罘区前进路1号网点26号宝贝计划</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>高洁</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>广东省湛江市赤坎区文章村九巷60号</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>杨晓涛</t>
-  </si>
-  <si>
-    <t>罗哈</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>上海市长宁区新泾镇仙霞西路700弄华松小区73号603室</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">UK7.5 -1 </t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>一星总裁</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>朱慧</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>二星总裁</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">婷婷 </t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>广东省广州市番禺区迎新路8号星力动漫G35金汇科技</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>刘娟</t>
-  </si>
-  <si>
-    <t>河南省郑州市二七区庆丰街17号院鑫苑现代城4号楼</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>李阳明</t>
-  </si>
-  <si>
-    <t>广东省清远市清新区星光大道领秀瑞城西门</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>黄珊</t>
-  </si>
-  <si>
-    <t>上海市上海市浦东新区祖冲之路899号82号楼喜马拉雅</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>Walt</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">香港特别行政区香港岛其它区 "D’Vieng Santitham 66/2 Hussadhisawee Rd. Changpuak Mueng Chiangmai .Chiangmai" </t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>许佳一</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>熊静萍</t>
-  </si>
-  <si>
-    <t xml:space="preserve">江苏省徐州市铜山区国基城邦小区29号楼2单元1201 </t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.7m×1m×5cm -1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>江西省南昌市青山湖区北京东路1198号天泽园12-3-1101室</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>谷梦溪</t>
-  </si>
-  <si>
-    <t>河南省郑州市管城回族区郑州市管城区经北二路远大理想城66号楼一单元205号</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>冯博</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>90m×1.8m×5cm -1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>河南省郑州市二七区庆丰街17号院鑫苑现代城4号楼</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>吴芳</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>唐芳</t>
-  </si>
-  <si>
-    <t>广东省清远市清新区107国道城西苑</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>宁财</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>广西壮族自治区钦州市浦北县第四中学教师周转房项目部</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -2958,9 +2992,9 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:AA1048576"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A158" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I175" sqref="I175"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H180" sqref="H180"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -9007,7 +9041,7 @@
         <v>U2-7;</v>
       </c>
     </row>
-    <row r="143" spans="1:27" hidden="1" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:27" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A143" s="9">
         <v>43571</v>
       </c>
@@ -9572,19 +9606,19 @@
         <v>60</v>
       </c>
       <c r="D157" s="3" t="s">
-        <v>475</v>
+        <v>508</v>
       </c>
       <c r="E157" s="3" t="s">
         <v>263</v>
       </c>
       <c r="F157" s="3" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="G157" s="3">
         <v>13605356612</v>
       </c>
       <c r="I157" s="3" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="K157" s="4">
         <v>2</v>
@@ -9624,7 +9658,7 @@
         <v>15816135065</v>
       </c>
       <c r="I158" s="3" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="J158" s="4">
         <v>5</v>
@@ -9655,22 +9689,22 @@
         <v>60</v>
       </c>
       <c r="D159" s="3" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="E159" s="3" t="s">
         <v>263</v>
       </c>
       <c r="F159" s="3" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="G159" s="3">
         <v>15618268200</v>
       </c>
       <c r="I159" s="3" t="s">
+        <v>480</v>
+      </c>
+      <c r="U159" s="3" t="s">
         <v>481</v>
-      </c>
-      <c r="U159" s="3" t="s">
-        <v>482</v>
       </c>
       <c r="Z159" s="3">
         <f t="shared" si="8"/>
@@ -9698,13 +9732,13 @@
         <v>263</v>
       </c>
       <c r="F160" s="3" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="G160" s="3">
         <v>13632369030</v>
       </c>
       <c r="I160" s="3" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="J160" s="4">
         <v>2</v>
@@ -9735,13 +9769,13 @@
         <v>263</v>
       </c>
       <c r="F161" s="3" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="G161" s="3">
         <v>13632369030</v>
       </c>
       <c r="I161" s="3" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="J161" s="4">
         <v>3</v>
@@ -9763,22 +9797,22 @@
         <v>4409430556</v>
       </c>
       <c r="C162" s="3" t="s">
+        <v>482</v>
+      </c>
+      <c r="D162" s="3" t="s">
         <v>483</v>
-      </c>
-      <c r="D162" s="3" t="s">
-        <v>484</v>
       </c>
       <c r="E162" s="3" t="s">
         <v>263</v>
       </c>
       <c r="F162" s="3" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="G162" s="3">
         <v>13613828031</v>
       </c>
       <c r="I162" s="3" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="J162" s="4">
         <v>6</v>
@@ -9812,7 +9846,7 @@
         <v>2968734430</v>
       </c>
       <c r="C163" s="3" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="D163" s="3" t="s">
         <v>51</v>
@@ -9821,13 +9855,13 @@
         <v>263</v>
       </c>
       <c r="F163" s="3" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="G163" s="3">
         <v>13826465284</v>
       </c>
       <c r="I163" s="3" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="J163" s="4">
         <v>1</v>
@@ -9852,7 +9886,7 @@
         <v>9130258908</v>
       </c>
       <c r="C164" s="3" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="D164" s="3" t="s">
         <v>51</v>
@@ -9861,13 +9895,13 @@
         <v>263</v>
       </c>
       <c r="F164" s="3" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="G164" s="3">
         <v>18521300984</v>
       </c>
       <c r="I164" s="3" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="K164" s="4">
         <v>2</v>
@@ -9898,13 +9932,13 @@
         <v>403</v>
       </c>
       <c r="F165" s="3" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="G165" s="3">
         <v>18033407517</v>
       </c>
       <c r="I165" s="3" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="J165" s="4">
         <v>4</v>
@@ -9935,13 +9969,13 @@
         <v>21</v>
       </c>
       <c r="D166" s="3" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="E166" s="3" t="s">
         <v>403</v>
       </c>
       <c r="F166" s="3" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="G166" s="3">
         <v>13382451910</v>
@@ -9950,10 +9984,10 @@
         <v>2.1040219520407002E+17</v>
       </c>
       <c r="I166" s="3" t="s">
+        <v>497</v>
+      </c>
+      <c r="U166" s="3" t="s">
         <v>498</v>
-      </c>
-      <c r="U166" s="3" t="s">
-        <v>499</v>
       </c>
       <c r="Z166" s="3">
         <f t="shared" si="8"/>
@@ -9987,7 +10021,7 @@
         <v>13177777058</v>
       </c>
       <c r="I167" s="3" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="J167" s="4">
         <v>5</v>
@@ -10015,13 +10049,13 @@
         <v>320</v>
       </c>
       <c r="D168" s="3" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="E168" s="3" t="s">
         <v>403</v>
       </c>
       <c r="F168" s="3" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="G168" s="3">
         <v>13781905678</v>
@@ -10030,10 +10064,10 @@
         <v>4.1072719861206701E+17</v>
       </c>
       <c r="I168" s="3" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="U168" s="3" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="Z168" s="3">
         <f t="shared" si="8"/>
@@ -10061,13 +10095,13 @@
         <v>263</v>
       </c>
       <c r="F169" s="3" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="G169" s="3">
         <v>13613828031</v>
       </c>
       <c r="I169" s="3" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="P169" s="4">
         <v>4</v>
@@ -10092,20 +10126,20 @@
         <v>21</v>
       </c>
       <c r="D170" s="3" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="E170" s="3" t="s">
         <v>263</v>
       </c>
       <c r="F170" s="3" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="G170" s="3">
         <v>13415227597</v>
       </c>
       <c r="H170" s="3"/>
       <c r="I170" s="3" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="J170" s="4">
         <v>1</v>
@@ -10116,9 +10150,37 @@
       </c>
     </row>
     <row r="171" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A171" s="9">
+        <v>43573</v>
+      </c>
+      <c r="B171" s="3">
+        <v>7699607355</v>
+      </c>
+      <c r="C171" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D171" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E171" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="F171" s="3" t="s">
+        <v>509</v>
+      </c>
+      <c r="G171" s="3">
+        <v>18778731941</v>
+      </c>
+      <c r="H171" s="3"/>
+      <c r="I171" s="3" t="s">
+        <v>510</v>
+      </c>
+      <c r="P171" s="4">
+        <v>2</v>
+      </c>
       <c r="AA171" s="3" t="str">
         <f t="shared" si="9"/>
-        <v/>
+        <v>U8-2;</v>
       </c>
     </row>
     <row r="172" spans="1:27" x14ac:dyDescent="0.15">
@@ -10664,7 +10726,7 @@
       </c>
       <c r="P1048576" s="4">
         <f t="shared" si="12"/>
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="Q1048576" s="4">
         <f t="shared" si="12"/>
@@ -10676,7 +10738,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:W169">
+  <autoFilter ref="A1:W170">
     <filterColumn colId="0">
       <filters>
         <dateGroupItem year="2019" month="4" day="18" dateTimeGrouping="day"/>

--- a/4月/4月份客户发货需求(4.18).xlsx
+++ b/4月/4月份客户发货需求(4.18).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21000" windowHeight="9765"/>
+    <workbookView windowWidth="21270" windowHeight="9675"/>
   </bookViews>
   <sheets>
     <sheet name="4月份客户发货需求" sheetId="1" r:id="rId1"/>
@@ -1940,10 +1940,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="7">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
     <numFmt numFmtId="177" formatCode="0_ "/>
     <numFmt numFmtId="178" formatCode="000000"/>
@@ -2002,15 +2002,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -2018,7 +2010,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2040,6 +2032,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -2049,7 +2056,38 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2065,53 +2103,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2119,6 +2111,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2192,12 +2192,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -2210,37 +2204,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2258,7 +2228,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2270,13 +2342,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2294,85 +2360,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2397,21 +2397,6 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2441,21 +2426,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -2472,20 +2442,39 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2498,6 +2487,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2506,10 +2506,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2518,133 +2518,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -3039,9 +3039,9 @@
   <dimension ref="A1:AA1048576"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A134" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F18" sqref="F18"/>
+      <selection pane="bottomLeft" activeCell="G152" sqref="G152"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -3158,7 +3158,6 @@
       <c r="G2" s="1">
         <v>15541661918</v>
       </c>
-      <c r="H2" s="1"/>
       <c r="I2" s="1" t="s">
         <v>27</v>
       </c>
@@ -3209,7 +3208,6 @@
       <c r="G3" s="1">
         <v>13529880946</v>
       </c>
-      <c r="H3" s="1"/>
       <c r="I3" s="1" t="s">
         <v>31</v>
       </c>
@@ -3262,7 +3260,6 @@
       <c r="G4" s="1">
         <v>15188060330</v>
       </c>
-      <c r="H4" s="1"/>
       <c r="I4" s="1" t="s">
         <v>33</v>
       </c>
@@ -3313,7 +3310,6 @@
       <c r="G5" s="1">
         <v>13529880946</v>
       </c>
-      <c r="H5" s="1"/>
       <c r="I5" s="1" t="s">
         <v>31</v>
       </c>
@@ -3365,7 +3361,6 @@
       <c r="G6" s="1">
         <v>13529880946</v>
       </c>
-      <c r="H6" s="1"/>
       <c r="I6" s="1" t="s">
         <v>31</v>
       </c>
@@ -3416,7 +3411,6 @@
       <c r="G7" s="1">
         <v>15188060330</v>
       </c>
-      <c r="H7" s="1"/>
       <c r="I7" s="1" t="s">
         <v>33</v>
       </c>
@@ -3468,7 +3462,6 @@
       <c r="G8" s="1">
         <v>18621809870</v>
       </c>
-      <c r="H8" s="1"/>
       <c r="I8" s="1" t="s">
         <v>44</v>
       </c>
@@ -3519,7 +3512,6 @@
       <c r="G9" s="1">
         <v>15952956431</v>
       </c>
-      <c r="H9" s="1"/>
       <c r="I9" s="1" t="s">
         <v>47</v>
       </c>
@@ -3682,7 +3674,6 @@
       <c r="G12" s="1">
         <v>18632655996</v>
       </c>
-      <c r="H12" s="1"/>
       <c r="I12" s="1" t="s">
         <v>58</v>
       </c>
@@ -3735,7 +3726,6 @@
       <c r="G13" s="1">
         <v>13600705788</v>
       </c>
-      <c r="H13" s="1"/>
       <c r="I13" s="1" t="s">
         <v>61</v>
       </c>
@@ -3788,7 +3778,6 @@
       <c r="G14" s="1">
         <v>15807873218</v>
       </c>
-      <c r="H14" s="1"/>
       <c r="I14" s="1" t="s">
         <v>65</v>
       </c>
@@ -3839,7 +3828,6 @@
       <c r="G15" s="1">
         <v>13878747196</v>
       </c>
-      <c r="H15" s="1"/>
       <c r="I15" s="1" t="s">
         <v>66</v>
       </c>
@@ -3890,7 +3878,6 @@
       <c r="G16" s="1">
         <v>15810794842</v>
       </c>
-      <c r="H16" s="1"/>
       <c r="I16" s="1" t="s">
         <v>68</v>
       </c>
@@ -3941,7 +3928,6 @@
       <c r="G17" s="1">
         <v>13873285987</v>
       </c>
-      <c r="H17" s="1"/>
       <c r="I17" s="1" t="s">
         <v>71</v>
       </c>
@@ -3991,7 +3977,6 @@
       <c r="G18" s="1">
         <v>13823684603</v>
       </c>
-      <c r="H18" s="1"/>
       <c r="I18" s="1" t="s">
         <v>74</v>
       </c>
@@ -4043,7 +4028,6 @@
       <c r="G19" s="1">
         <v>18777512110</v>
       </c>
-      <c r="H19" s="1"/>
       <c r="I19" s="1" t="s">
         <v>78</v>
       </c>
@@ -4093,7 +4077,6 @@
       <c r="G20" s="1">
         <v>15303437137</v>
       </c>
-      <c r="H20" s="1"/>
       <c r="I20" s="15" t="s">
         <v>81</v>
       </c>
@@ -4205,7 +4188,6 @@
       <c r="G22" s="1">
         <v>13833511795</v>
       </c>
-      <c r="H22" s="1"/>
       <c r="I22" s="1" t="s">
         <v>90</v>
       </c>
@@ -4255,7 +4237,6 @@
       <c r="G23" s="1">
         <v>13838610060</v>
       </c>
-      <c r="H23" s="1"/>
       <c r="I23" s="1" t="s">
         <v>94</v>
       </c>
@@ -4305,7 +4286,6 @@
       <c r="G24" s="1">
         <v>13393860728</v>
       </c>
-      <c r="H24" s="1"/>
       <c r="I24" s="1" t="s">
         <v>96</v>
       </c>
@@ -4355,7 +4335,6 @@
       <c r="G25" s="1">
         <v>13703906190</v>
       </c>
-      <c r="H25" s="1"/>
       <c r="I25" s="1" t="s">
         <v>99</v>
       </c>
@@ -4405,7 +4384,6 @@
       <c r="G26" s="1">
         <v>13978694522</v>
       </c>
-      <c r="H26" s="1"/>
       <c r="I26" s="1" t="s">
         <v>102</v>
       </c>
@@ -4455,7 +4433,6 @@
       <c r="G27" s="1">
         <v>13978694522</v>
       </c>
-      <c r="H27" s="1"/>
       <c r="I27" s="1" t="s">
         <v>102</v>
       </c>
@@ -4557,7 +4534,6 @@
       <c r="G29" s="1">
         <v>13720826093</v>
       </c>
-      <c r="H29" s="1"/>
       <c r="I29" s="1" t="s">
         <v>112</v>
       </c>
@@ -4608,7 +4584,6 @@
       <c r="G30" s="1">
         <v>15958580422</v>
       </c>
-      <c r="H30" s="1"/>
       <c r="I30" s="1" t="s">
         <v>114</v>
       </c>
@@ -4657,7 +4632,6 @@
       <c r="G31" s="1">
         <v>18952299872</v>
       </c>
-      <c r="H31" s="1"/>
       <c r="I31" s="1" t="s">
         <v>117</v>
       </c>
@@ -4767,7 +4741,6 @@
       <c r="G33" s="1">
         <v>13580870138</v>
       </c>
-      <c r="H33" s="1"/>
       <c r="I33" s="1" t="s">
         <v>125</v>
       </c>
@@ -4817,7 +4790,6 @@
       <c r="G34" s="1">
         <v>15043062624</v>
       </c>
-      <c r="H34" s="1"/>
       <c r="I34" s="1" t="s">
         <v>128</v>
       </c>
@@ -4869,7 +4841,6 @@
       <c r="G35" s="1">
         <v>13959199793</v>
       </c>
-      <c r="H35" s="1"/>
       <c r="I35" s="1" t="s">
         <v>132</v>
       </c>
@@ -4919,7 +4890,6 @@
       <c r="G36" s="1">
         <v>13590276969</v>
       </c>
-      <c r="H36" s="1"/>
       <c r="I36" s="15" t="s">
         <v>135</v>
       </c>
@@ -4969,7 +4939,6 @@
       <c r="G37" s="1">
         <v>15610265228</v>
       </c>
-      <c r="H37" s="1"/>
       <c r="I37" s="1" t="s">
         <v>138</v>
       </c>
@@ -5023,7 +4992,6 @@
       <c r="G38" s="1">
         <v>18507099282</v>
       </c>
-      <c r="H38" s="1"/>
       <c r="I38" s="1" t="s">
         <v>142</v>
       </c>
@@ -5073,7 +5041,6 @@
       <c r="G39" s="1">
         <v>13177777058</v>
       </c>
-      <c r="H39" s="1"/>
       <c r="I39" s="1" t="s">
         <v>146</v>
       </c>
@@ -5127,7 +5094,6 @@
       <c r="G40" s="1">
         <v>18231557792</v>
       </c>
-      <c r="H40" s="1"/>
       <c r="I40" s="1" t="s">
         <v>149</v>
       </c>
@@ -5179,7 +5145,6 @@
       <c r="G41" s="1">
         <v>13873823487</v>
       </c>
-      <c r="H41" s="1"/>
       <c r="I41" s="1" t="s">
         <v>152</v>
       </c>
@@ -5229,7 +5194,6 @@
       <c r="G42" s="1">
         <v>13613016376</v>
       </c>
-      <c r="H42" s="1"/>
       <c r="I42" s="15" t="s">
         <v>156</v>
       </c>
@@ -5281,7 +5245,6 @@
       <c r="G43" s="1">
         <v>13862508527</v>
       </c>
-      <c r="H43" s="1"/>
       <c r="I43" s="1" t="s">
         <v>159</v>
       </c>
@@ -5333,7 +5296,6 @@
       <c r="G44" s="1">
         <v>18076558205</v>
       </c>
-      <c r="H44" s="1"/>
       <c r="I44" s="1" t="s">
         <v>162</v>
       </c>
@@ -5385,7 +5347,6 @@
       <c r="G45" s="1">
         <v>13599991255</v>
       </c>
-      <c r="H45" s="1"/>
       <c r="I45" s="1" t="s">
         <v>164</v>
       </c>
@@ -5437,7 +5398,6 @@
       <c r="G46" s="1">
         <v>13973706089</v>
       </c>
-      <c r="H46" s="1"/>
       <c r="I46" s="1" t="s">
         <v>167</v>
       </c>
@@ -5489,7 +5449,6 @@
       <c r="G47" s="1">
         <v>13368591500</v>
       </c>
-      <c r="H47" s="1"/>
       <c r="I47" s="1" t="s">
         <v>170</v>
       </c>
@@ -5539,7 +5498,6 @@
       <c r="G48" s="1">
         <v>13536432304</v>
       </c>
-      <c r="H48" s="1"/>
       <c r="I48" s="1" t="s">
         <v>173</v>
       </c>
@@ -5589,7 +5547,6 @@
       <c r="G49" s="1">
         <v>15976076909</v>
       </c>
-      <c r="H49" s="1"/>
       <c r="I49" s="1" t="s">
         <v>176</v>
       </c>
@@ -5639,7 +5596,6 @@
       <c r="G50" s="1">
         <v>13922021124</v>
       </c>
-      <c r="H50" s="1"/>
       <c r="I50" s="1" t="s">
         <v>179</v>
       </c>
@@ -5689,7 +5645,6 @@
       <c r="G51" s="1">
         <v>13851387566</v>
       </c>
-      <c r="H51" s="1"/>
       <c r="I51" s="1" t="s">
         <v>183</v>
       </c>
@@ -5739,7 +5694,6 @@
       <c r="G52" s="1">
         <v>15705171013</v>
       </c>
-      <c r="H52" s="1"/>
       <c r="I52" s="1" t="s">
         <v>186</v>
       </c>
@@ -5789,7 +5743,6 @@
       <c r="G53" s="1">
         <v>18511805689</v>
       </c>
-      <c r="H53" s="1"/>
       <c r="I53" s="1" t="s">
         <v>189</v>
       </c>
@@ -5839,7 +5792,6 @@
       <c r="G54" s="1">
         <v>13680968118</v>
       </c>
-      <c r="H54" s="1"/>
       <c r="I54" s="1" t="s">
         <v>192</v>
       </c>
@@ -5899,7 +5851,6 @@
       <c r="G55" s="1">
         <v>13204210284</v>
       </c>
-      <c r="H55" s="1"/>
       <c r="I55" s="1" t="s">
         <v>195</v>
       </c>
@@ -5949,7 +5900,6 @@
       <c r="G56" s="1">
         <v>15071537575</v>
       </c>
-      <c r="H56" s="1"/>
       <c r="I56" s="1" t="s">
         <v>199</v>
       </c>
@@ -6001,7 +5951,6 @@
       <c r="G57" s="1">
         <v>15989866517</v>
       </c>
-      <c r="H57" s="1"/>
       <c r="I57" s="1" t="s">
         <v>203</v>
       </c>
@@ -6053,7 +6002,6 @@
       <c r="G58" s="1">
         <v>13599991255</v>
       </c>
-      <c r="H58" s="1"/>
       <c r="I58" s="1" t="s">
         <v>164</v>
       </c>
@@ -6103,7 +6051,6 @@
       <c r="G59" s="1">
         <v>15942125342</v>
       </c>
-      <c r="H59" s="1"/>
       <c r="I59" s="1" t="s">
         <v>207</v>
       </c>
@@ -6153,7 +6100,6 @@
       <c r="G60" s="1">
         <v>13393860728</v>
       </c>
-      <c r="H60" s="1"/>
       <c r="I60" s="1" t="s">
         <v>96</v>
       </c>
@@ -6205,7 +6151,6 @@
       <c r="G61" s="1">
         <v>15296959900</v>
       </c>
-      <c r="H61" s="1"/>
       <c r="I61" s="1" t="s">
         <v>214</v>
       </c>
@@ -6263,7 +6208,6 @@
       <c r="G62" s="1">
         <v>18992301566</v>
       </c>
-      <c r="H62" s="1"/>
       <c r="I62" s="1" t="s">
         <v>217</v>
       </c>
@@ -6313,7 +6257,6 @@
       <c r="G63" s="1">
         <v>18601239906</v>
       </c>
-      <c r="H63" s="1"/>
       <c r="I63" s="1" t="s">
         <v>219</v>
       </c>
@@ -6363,7 +6306,6 @@
       <c r="G64" s="1">
         <v>15207704642</v>
       </c>
-      <c r="H64" s="1"/>
       <c r="I64" s="1" t="s">
         <v>222</v>
       </c>
@@ -6413,7 +6355,6 @@
       <c r="G65" s="1">
         <v>15347107729</v>
       </c>
-      <c r="H65" s="1"/>
       <c r="I65" s="1" t="s">
         <v>225</v>
       </c>
@@ -7364,7 +7305,6 @@
       <c r="G83" s="1">
         <v>15705171013</v>
       </c>
-      <c r="H83" s="1"/>
       <c r="I83" s="1" t="s">
         <v>186</v>
       </c>
@@ -7414,7 +7354,6 @@
       <c r="G84" s="1">
         <v>13781518882</v>
       </c>
-      <c r="H84" s="1"/>
       <c r="I84" s="1" t="s">
         <v>283</v>
       </c>
@@ -7464,7 +7403,6 @@
       <c r="G85" s="1">
         <v>13873823487</v>
       </c>
-      <c r="H85" s="1"/>
       <c r="I85" s="1" t="s">
         <v>285</v>
       </c>
@@ -7496,7 +7434,6 @@
       <c r="A86" s="23">
         <v>43563</v>
       </c>
-      <c r="B86" s="1"/>
       <c r="C86" s="1" t="s">
         <v>23</v>
       </c>
@@ -7512,7 +7449,6 @@
       <c r="G86" s="1">
         <v>13996115237</v>
       </c>
-      <c r="H86" s="1"/>
       <c r="I86" s="1" t="s">
         <v>288</v>
       </c>
@@ -7562,7 +7498,6 @@
       <c r="G87" s="1">
         <v>13680968118</v>
       </c>
-      <c r="H87" s="1"/>
       <c r="I87" s="1" t="s">
         <v>192</v>
       </c>
@@ -7618,7 +7553,6 @@
       <c r="G88" s="1">
         <v>13719197650</v>
       </c>
-      <c r="H88" s="1"/>
       <c r="I88" s="1" t="s">
         <v>292</v>
       </c>
@@ -7665,7 +7599,6 @@
       <c r="G89" s="1">
         <v>13580870138</v>
       </c>
-      <c r="H89" s="1"/>
       <c r="I89" s="1" t="s">
         <v>125</v>
       </c>
@@ -7712,7 +7645,6 @@
       <c r="G90" s="1">
         <v>13605839643</v>
       </c>
-      <c r="H90" s="1"/>
       <c r="I90" s="1" t="s">
         <v>294</v>
       </c>
@@ -7759,7 +7691,6 @@
       <c r="G91" s="1">
         <v>15959079077</v>
       </c>
-      <c r="H91" s="1"/>
       <c r="I91" s="1" t="s">
         <v>297</v>
       </c>
@@ -7812,7 +7743,6 @@
       <c r="G92" s="1">
         <v>13781518882</v>
       </c>
-      <c r="H92" s="1"/>
       <c r="I92" s="1" t="s">
         <v>283</v>
       </c>
@@ -8586,7 +8516,6 @@
       <c r="G108" s="1">
         <v>13726619990</v>
       </c>
-      <c r="H108" s="1"/>
       <c r="I108" s="1" t="s">
         <v>322</v>
       </c>
@@ -8633,7 +8562,6 @@
       <c r="G109" s="1">
         <v>18504231761</v>
       </c>
-      <c r="H109" s="1"/>
       <c r="I109" s="1" t="s">
         <v>324</v>
       </c>
@@ -8680,7 +8608,6 @@
       <c r="G110" s="1">
         <v>13970767310</v>
       </c>
-      <c r="H110" s="1"/>
       <c r="I110" s="1" t="s">
         <v>326</v>
       </c>
@@ -8709,7 +8636,6 @@
       <c r="A111" s="12">
         <v>43566</v>
       </c>
-      <c r="B111" s="1"/>
       <c r="C111" s="1" t="s">
         <v>41</v>
       </c>
@@ -8770,7 +8696,6 @@
       <c r="G112" s="1">
         <v>13863925900</v>
       </c>
-      <c r="H112" s="1"/>
       <c r="I112" s="1" t="s">
         <v>329</v>
       </c>
@@ -8823,7 +8748,6 @@
       <c r="G113" s="1">
         <v>13845075439</v>
       </c>
-      <c r="H113" s="1"/>
       <c r="I113" s="1" t="s">
         <v>332</v>
       </c>
@@ -10279,7 +10203,7 @@
         <v>U2-7;</v>
       </c>
     </row>
-    <row r="143" s="1" customFormat="1" ht="21" customHeight="1" spans="1:27">
+    <row r="143" ht="21" customHeight="1" spans="1:27">
       <c r="A143" s="12">
         <v>43571</v>
       </c>
@@ -10301,22 +10225,12 @@
       <c r="G143" s="1">
         <v>13801005328</v>
       </c>
-      <c r="H143" s="4"/>
       <c r="I143" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="J143" s="5"/>
       <c r="K143" s="5">
         <v>2</v>
       </c>
-      <c r="L143" s="5"/>
-      <c r="M143" s="5"/>
-      <c r="N143" s="5"/>
-      <c r="O143" s="5"/>
-      <c r="P143" s="5"/>
-      <c r="Q143" s="5"/>
-      <c r="R143" s="5"/>
-      <c r="S143" s="5"/>
       <c r="Z143" s="1">
         <f t="shared" si="8"/>
         <v>2</v>
@@ -10326,7 +10240,7 @@
         <v>U2-2;</v>
       </c>
     </row>
-    <row r="144" s="1" customFormat="1" spans="1:27">
+    <row r="144" spans="1:27">
       <c r="A144" s="12">
         <v>43571</v>
       </c>
@@ -10348,22 +10262,12 @@
       <c r="G144" s="1">
         <v>15394995062</v>
       </c>
-      <c r="H144" s="4"/>
       <c r="I144" s="1" t="s">
         <v>385</v>
       </c>
-      <c r="J144" s="5"/>
-      <c r="K144" s="5"/>
-      <c r="L144" s="5"/>
-      <c r="M144" s="5"/>
-      <c r="N144" s="5"/>
-      <c r="O144" s="5"/>
-      <c r="P144" s="5"/>
       <c r="Q144" s="5">
         <v>1</v>
       </c>
-      <c r="R144" s="5"/>
-      <c r="S144" s="5"/>
       <c r="Z144" s="1">
         <f t="shared" si="8"/>
         <v>1</v>
@@ -10373,7 +10277,7 @@
         <v>U9-1;</v>
       </c>
     </row>
-    <row r="145" s="1" customFormat="1" spans="1:27">
+    <row r="145" spans="1:27">
       <c r="A145" s="12">
         <v>43571</v>
       </c>
@@ -10395,24 +10299,15 @@
       <c r="G145" s="1">
         <v>13804089031</v>
       </c>
-      <c r="H145" s="4"/>
       <c r="I145" s="1" t="s">
         <v>387</v>
       </c>
-      <c r="J145" s="5"/>
       <c r="K145" s="5">
         <v>1</v>
       </c>
-      <c r="L145" s="5"/>
-      <c r="M145" s="5"/>
-      <c r="N145" s="5"/>
-      <c r="O145" s="5"/>
-      <c r="P145" s="5"/>
-      <c r="Q145" s="5"/>
       <c r="R145" s="5">
         <v>1</v>
       </c>
-      <c r="S145" s="5"/>
       <c r="Z145" s="1">
         <f t="shared" si="8"/>
         <v>2</v>
@@ -10422,7 +10317,7 @@
         <v>U2-1;U10-1;</v>
       </c>
     </row>
-    <row r="146" s="1" customFormat="1" spans="1:27">
+    <row r="146" spans="1:27">
       <c r="A146" s="12">
         <v>43571</v>
       </c>
@@ -10444,22 +10339,12 @@
       <c r="G146" s="1">
         <v>13952359816</v>
       </c>
-      <c r="H146" s="4"/>
       <c r="I146" s="1" t="s">
         <v>381</v>
       </c>
-      <c r="J146" s="5"/>
-      <c r="K146" s="5"/>
-      <c r="L146" s="5"/>
-      <c r="M146" s="5"/>
-      <c r="N146" s="5"/>
-      <c r="O146" s="5"/>
-      <c r="P146" s="5"/>
       <c r="Q146" s="5">
         <v>3</v>
       </c>
-      <c r="R146" s="5"/>
-      <c r="S146" s="5"/>
       <c r="Z146" s="1">
         <f t="shared" si="8"/>
         <v>3</v>
@@ -10469,7 +10354,7 @@
         <v>U9-3;</v>
       </c>
     </row>
-    <row r="147" s="1" customFormat="1" spans="1:27">
+    <row r="147" spans="1:27">
       <c r="A147" s="12">
         <v>43571</v>
       </c>
@@ -10491,22 +10376,12 @@
       <c r="G147" s="1">
         <v>15947209615</v>
       </c>
-      <c r="H147" s="4"/>
       <c r="I147" s="1" t="s">
         <v>389</v>
       </c>
       <c r="J147" s="5">
         <v>1</v>
       </c>
-      <c r="K147" s="5"/>
-      <c r="L147" s="5"/>
-      <c r="M147" s="5"/>
-      <c r="N147" s="5"/>
-      <c r="O147" s="5"/>
-      <c r="P147" s="5"/>
-      <c r="Q147" s="5"/>
-      <c r="R147" s="5"/>
-      <c r="S147" s="5"/>
       <c r="Z147" s="1">
         <f t="shared" si="8"/>
         <v>1</v>
@@ -10516,7 +10391,7 @@
         <v>U1-1;</v>
       </c>
     </row>
-    <row r="148" s="1" customFormat="1" spans="1:27">
+    <row r="148" spans="1:27">
       <c r="A148" s="12">
         <v>43571</v>
       </c>
@@ -10538,26 +10413,18 @@
       <c r="G148" s="1">
         <v>13543660929</v>
       </c>
-      <c r="H148" s="4"/>
       <c r="I148" s="1" t="s">
         <v>391</v>
       </c>
       <c r="J148" s="5">
         <v>1</v>
       </c>
-      <c r="K148" s="5"/>
       <c r="L148" s="5">
         <v>2</v>
       </c>
-      <c r="M148" s="5"/>
-      <c r="N148" s="5"/>
-      <c r="O148" s="5"/>
-      <c r="P148" s="5"/>
       <c r="Q148" s="5">
         <v>1</v>
       </c>
-      <c r="R148" s="5"/>
-      <c r="S148" s="5"/>
       <c r="Z148" s="1">
         <f t="shared" si="8"/>
         <v>4</v>
@@ -10567,14 +10434,14 @@
         <v>U1-1;U3-2;U9-1;</v>
       </c>
     </row>
-    <row r="149" s="1" customFormat="1" spans="1:27">
+    <row r="149" spans="1:27">
       <c r="A149" s="12">
         <v>43571</v>
       </c>
       <c r="B149" s="1">
         <v>5738025845</v>
       </c>
-      <c r="C149" s="1" t="s">
+      <c r="C149" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D149" s="1" t="s">
@@ -10589,22 +10456,12 @@
       <c r="G149" s="1">
         <v>13977228265</v>
       </c>
-      <c r="H149" s="4"/>
       <c r="I149" s="1" t="s">
         <v>393</v>
       </c>
-      <c r="J149" s="5"/>
-      <c r="K149" s="5"/>
       <c r="L149" s="5">
         <v>1</v>
       </c>
-      <c r="M149" s="5"/>
-      <c r="N149" s="5"/>
-      <c r="O149" s="5"/>
-      <c r="P149" s="5"/>
-      <c r="Q149" s="5"/>
-      <c r="R149" s="5"/>
-      <c r="S149" s="5"/>
       <c r="Z149" s="1">
         <f t="shared" si="8"/>
         <v>1</v>
@@ -10614,7 +10471,7 @@
         <v>U3-1;</v>
       </c>
     </row>
-    <row r="150" s="1" customFormat="1" spans="1:27">
+    <row r="150" spans="1:27">
       <c r="A150" s="12">
         <v>43571</v>
       </c>
@@ -10636,24 +10493,15 @@
       <c r="G150" s="1">
         <v>18903533066</v>
       </c>
-      <c r="H150" s="4"/>
       <c r="I150" s="1" t="s">
         <v>395</v>
       </c>
-      <c r="J150" s="5"/>
       <c r="K150" s="5">
         <v>2</v>
       </c>
-      <c r="L150" s="5"/>
-      <c r="M150" s="5"/>
-      <c r="N150" s="5"/>
-      <c r="O150" s="5"/>
       <c r="P150" s="5">
         <v>1</v>
       </c>
-      <c r="Q150" s="5"/>
-      <c r="R150" s="5"/>
-      <c r="S150" s="5"/>
       <c r="Z150" s="1">
         <f t="shared" si="8"/>
         <v>3</v>
@@ -10663,7 +10511,7 @@
         <v>U2-2;U8-1;</v>
       </c>
     </row>
-    <row r="151" s="1" customFormat="1" spans="1:27">
+    <row r="151" spans="1:27">
       <c r="A151" s="12">
         <v>43571</v>
       </c>
@@ -10685,20 +10533,9 @@
       <c r="G151" s="1">
         <v>18903533066</v>
       </c>
-      <c r="H151" s="4"/>
       <c r="I151" s="1" t="s">
         <v>395</v>
       </c>
-      <c r="J151" s="5"/>
-      <c r="K151" s="5"/>
-      <c r="L151" s="5"/>
-      <c r="M151" s="5"/>
-      <c r="N151" s="5"/>
-      <c r="O151" s="5"/>
-      <c r="P151" s="5"/>
-      <c r="Q151" s="5"/>
-      <c r="R151" s="5"/>
-      <c r="S151" s="5"/>
       <c r="U151" s="1" t="s">
         <v>396</v>
       </c>
@@ -10711,7 +10548,7 @@
         <v>UK10 -1</v>
       </c>
     </row>
-    <row r="152" s="1" customFormat="1" spans="1:27">
+    <row r="152" spans="1:27">
       <c r="A152" s="12">
         <v>43572</v>
       </c>
@@ -10733,22 +10570,12 @@
       <c r="G152" s="1">
         <v>19939480255</v>
       </c>
-      <c r="H152" s="4"/>
       <c r="I152" s="1" t="s">
         <v>398</v>
       </c>
       <c r="J152" s="5">
         <v>1</v>
       </c>
-      <c r="K152" s="5"/>
-      <c r="L152" s="5"/>
-      <c r="M152" s="5"/>
-      <c r="N152" s="5"/>
-      <c r="O152" s="5"/>
-      <c r="P152" s="5"/>
-      <c r="Q152" s="5"/>
-      <c r="R152" s="5"/>
-      <c r="S152" s="5"/>
       <c r="Z152" s="1">
         <f t="shared" si="8"/>
         <v>1</v>
@@ -10758,7 +10585,7 @@
         <v>U1-1;</v>
       </c>
     </row>
-    <row r="153" s="1" customFormat="1" spans="1:27">
+    <row r="153" spans="1:27">
       <c r="A153" s="12">
         <v>43572</v>
       </c>
@@ -10772,7 +10599,7 @@
         <v>333</v>
       </c>
       <c r="E153" s="1" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="F153" s="1" t="s">
         <v>399</v>
@@ -10780,20 +10607,9 @@
       <c r="G153" s="1">
         <v>13794400047</v>
       </c>
-      <c r="H153" s="4"/>
       <c r="I153" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="J153" s="5"/>
-      <c r="K153" s="5"/>
-      <c r="L153" s="5"/>
-      <c r="M153" s="5"/>
-      <c r="N153" s="5"/>
-      <c r="O153" s="5"/>
-      <c r="P153" s="5"/>
-      <c r="Q153" s="5"/>
-      <c r="R153" s="5"/>
-      <c r="S153" s="5"/>
       <c r="U153" s="1" t="s">
         <v>396</v>
       </c>
@@ -10806,7 +10622,7 @@
         <v>UK10 -1</v>
       </c>
     </row>
-    <row r="154" s="1" customFormat="1" spans="1:27">
+    <row r="154" spans="1:27">
       <c r="A154" s="12">
         <v>43572</v>
       </c>
@@ -10828,7 +10644,6 @@
       <c r="G154" s="1">
         <v>13697960257</v>
       </c>
-      <c r="H154" s="4"/>
       <c r="I154" s="1" t="s">
         <v>402</v>
       </c>
@@ -10859,7 +10674,6 @@
       <c r="R154" s="5">
         <v>2</v>
       </c>
-      <c r="S154" s="5"/>
       <c r="Z154" s="1">
         <f t="shared" si="8"/>
         <v>44</v>
@@ -10869,7 +10683,7 @@
         <v>U1-10;U2-10;U3-6;U4-6;U6-3;U7-2;U8-2;U9-3;U10-2;</v>
       </c>
     </row>
-    <row r="155" s="1" customFormat="1" spans="1:27">
+    <row r="155" spans="1:27">
       <c r="A155" s="12">
         <v>43572</v>
       </c>
@@ -10891,22 +10705,12 @@
       <c r="G155" s="1">
         <v>13106256825</v>
       </c>
-      <c r="H155" s="4"/>
       <c r="I155" s="1" t="s">
         <v>404</v>
       </c>
-      <c r="J155" s="5"/>
-      <c r="K155" s="5"/>
-      <c r="L155" s="5"/>
-      <c r="M155" s="5"/>
-      <c r="N155" s="5"/>
-      <c r="O155" s="5"/>
       <c r="P155" s="5">
         <v>2</v>
       </c>
-      <c r="Q155" s="5"/>
-      <c r="R155" s="5"/>
-      <c r="S155" s="5"/>
       <c r="Z155" s="1">
         <f t="shared" si="8"/>
         <v>2</v>
@@ -10916,7 +10720,7 @@
         <v>U9-1;</v>
       </c>
     </row>
-    <row r="156" s="1" customFormat="1" spans="1:27">
+    <row r="156" spans="1:27">
       <c r="A156" s="12">
         <v>43572</v>
       </c>
@@ -10938,22 +10742,12 @@
       <c r="G156" s="1">
         <v>13417655008</v>
       </c>
-      <c r="H156" s="4"/>
       <c r="I156" s="1" t="s">
         <v>406</v>
       </c>
-      <c r="J156" s="5"/>
-      <c r="K156" s="5"/>
-      <c r="L156" s="5"/>
-      <c r="M156" s="5"/>
-      <c r="N156" s="5"/>
-      <c r="O156" s="5"/>
-      <c r="P156" s="5"/>
       <c r="Q156" s="5">
         <v>1</v>
       </c>
-      <c r="R156" s="5"/>
-      <c r="S156" s="5"/>
       <c r="Z156" s="1">
         <f t="shared" si="8"/>
         <v>1</v>
@@ -10963,7 +10757,7 @@
         <v>U2-2;U9-4;</v>
       </c>
     </row>
-    <row r="157" s="1" customFormat="1" spans="1:27">
+    <row r="157" spans="1:27">
       <c r="A157" s="12">
         <v>43572</v>
       </c>
@@ -10985,24 +10779,15 @@
       <c r="G157" s="1">
         <v>13605356612</v>
       </c>
-      <c r="H157" s="4"/>
       <c r="I157" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="J157" s="5"/>
       <c r="K157" s="5">
         <v>2</v>
       </c>
-      <c r="L157" s="5"/>
-      <c r="M157" s="5"/>
-      <c r="N157" s="5"/>
-      <c r="O157" s="5"/>
-      <c r="P157" s="5"/>
       <c r="Q157" s="5">
         <v>4</v>
       </c>
-      <c r="R157" s="5"/>
-      <c r="S157" s="5"/>
       <c r="Z157" s="1">
         <f t="shared" si="8"/>
         <v>6</v>

--- a/4月/4月份客户发货需求(4.18).xlsx
+++ b/4月/4月份客户发货需求(4.18).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21270" windowHeight="9675"/>
+    <workbookView windowWidth="28800" windowHeight="12480"/>
   </bookViews>
   <sheets>
     <sheet name="4月份客户发货需求" sheetId="1" r:id="rId1"/>
@@ -1940,9 +1940,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="7">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
     <numFmt numFmtId="177" formatCode="0_ "/>
@@ -1988,24 +1988,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2016,9 +2001,29 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2029,13 +2034,6 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2056,17 +2054,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2085,11 +2083,27 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2109,32 +2123,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <name val="Tahoma"/>
-      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -2156,6 +2150,12 @@
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="Tahoma"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -2192,7 +2192,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2204,61 +2330,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2270,37 +2348,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2312,67 +2360,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2401,11 +2401,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2425,17 +2431,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2443,8 +2443,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2464,6 +2464,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -2475,15 +2484,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2506,10 +2506,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2518,16 +2518,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2539,13 +2539,13 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2554,97 +2554,97 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -3035,13 +3035,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:AA1048576"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A134" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A131" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G152" sqref="G152"/>
+      <selection pane="bottomLeft" activeCell="G188" sqref="G188"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -3136,7 +3136,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" spans="1:27">
+    <row r="2" s="1" customFormat="1" hidden="1" spans="1:27">
       <c r="A2" s="12">
         <v>43556</v>
       </c>
@@ -3186,7 +3186,7 @@
         <v>U2-2;</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" spans="1:27">
+    <row r="3" s="1" customFormat="1" hidden="1" spans="1:27">
       <c r="A3" s="12">
         <v>43556</v>
       </c>
@@ -3238,7 +3238,7 @@
         <v>U1-14;U3-3;</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" spans="1:27">
+    <row r="4" s="1" customFormat="1" hidden="1" spans="1:27">
       <c r="A4" s="12">
         <v>43556</v>
       </c>
@@ -3288,7 +3288,7 @@
         <v>U8-2;</v>
       </c>
     </row>
-    <row r="5" s="1" customFormat="1" spans="1:27">
+    <row r="5" s="1" customFormat="1" hidden="1" spans="1:27">
       <c r="A5" s="12">
         <v>43556</v>
       </c>
@@ -3339,7 +3339,7 @@
         <v>UQ7.5-4;UK7.5-3</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1" spans="1:27">
+    <row r="6" s="1" customFormat="1" hidden="1" spans="1:27">
       <c r="A6" s="12">
         <v>43556</v>
       </c>
@@ -3389,7 +3389,7 @@
         <v>US7.5-4</v>
       </c>
     </row>
-    <row r="7" s="1" customFormat="1" spans="1:27">
+    <row r="7" s="1" customFormat="1" hidden="1" spans="1:27">
       <c r="A7" s="12">
         <v>43556</v>
       </c>
@@ -3440,7 +3440,7 @@
         <v>UQ7.5-1</v>
       </c>
     </row>
-    <row r="8" s="1" customFormat="1" spans="1:27">
+    <row r="8" s="1" customFormat="1" hidden="1" spans="1:27">
       <c r="A8" s="12">
         <v>43556</v>
       </c>
@@ -3490,7 +3490,7 @@
         <v>U2-1;</v>
       </c>
     </row>
-    <row r="9" s="1" customFormat="1" spans="1:27">
+    <row r="9" s="1" customFormat="1" hidden="1" spans="1:27">
       <c r="A9" s="12">
         <v>43556</v>
       </c>
@@ -3542,7 +3542,7 @@
         <v>U1-3;U2-3;</v>
       </c>
     </row>
-    <row r="10" s="1" customFormat="1" spans="1:27">
+    <row r="10" s="1" customFormat="1" hidden="1" spans="1:27">
       <c r="A10" s="12">
         <v>43556</v>
       </c>
@@ -3597,7 +3597,7 @@
         <v>U1-1;U2-1;7700116778119</v>
       </c>
     </row>
-    <row r="11" s="1" customFormat="1" spans="1:27">
+    <row r="11" s="1" customFormat="1" hidden="1" spans="1:27">
       <c r="A11" s="12">
         <v>43556</v>
       </c>
@@ -3652,7 +3652,7 @@
         <v>U1-1;U2-1;7700116778118</v>
       </c>
     </row>
-    <row r="12" s="1" customFormat="1" spans="1:27">
+    <row r="12" s="1" customFormat="1" hidden="1" spans="1:27">
       <c r="A12" s="12">
         <v>43556</v>
       </c>
@@ -3704,7 +3704,7 @@
         <v>U1-2;U2-2;7700116778114</v>
       </c>
     </row>
-    <row r="13" s="1" customFormat="1" spans="1:27">
+    <row r="13" s="1" customFormat="1" hidden="1" spans="1:27">
       <c r="A13" s="12">
         <v>43556</v>
       </c>
@@ -3756,7 +3756,7 @@
         <v>U1-1;U2-1;7700116778112</v>
       </c>
     </row>
-    <row r="14" s="1" customFormat="1" spans="1:27">
+    <row r="14" s="1" customFormat="1" hidden="1" spans="1:27">
       <c r="A14" s="12">
         <v>43556</v>
       </c>
@@ -3806,7 +3806,7 @@
         <v>U4-1;7700116778111</v>
       </c>
     </row>
-    <row r="15" s="1" customFormat="1" spans="1:27">
+    <row r="15" s="1" customFormat="1" hidden="1" spans="1:27">
       <c r="A15" s="12">
         <v>43556</v>
       </c>
@@ -3856,7 +3856,7 @@
         <v>U2-1;7700116778109</v>
       </c>
     </row>
-    <row r="16" s="1" customFormat="1" spans="1:27">
+    <row r="16" s="1" customFormat="1" hidden="1" spans="1:27">
       <c r="A16" s="12">
         <v>43556</v>
       </c>
@@ -3906,7 +3906,7 @@
         <v>U3-1;7700116778108</v>
       </c>
     </row>
-    <row r="17" s="1" customFormat="1" spans="1:27">
+    <row r="17" s="1" customFormat="1" hidden="1" spans="1:27">
       <c r="A17" s="12">
         <v>43557</v>
       </c>
@@ -3955,7 +3955,7 @@
         <v>U2-2;</v>
       </c>
     </row>
-    <row r="18" s="1" customFormat="1" spans="1:27">
+    <row r="18" s="1" customFormat="1" hidden="1" spans="1:27">
       <c r="A18" s="12">
         <v>43557</v>
       </c>
@@ -4006,7 +4006,7 @@
         <v>U1-1;U2-1;</v>
       </c>
     </row>
-    <row r="19" s="1" customFormat="1" spans="1:27">
+    <row r="19" s="1" customFormat="1" hidden="1" spans="1:27">
       <c r="A19" s="12">
         <v>43557</v>
       </c>
@@ -4055,7 +4055,7 @@
         <v>U4-1;</v>
       </c>
     </row>
-    <row r="20" s="1" customFormat="1" spans="1:27">
+    <row r="20" s="1" customFormat="1" hidden="1" spans="1:27">
       <c r="A20" s="12">
         <v>43557</v>
       </c>
@@ -4106,7 +4106,7 @@
         <v>U2-2;U8-1;</v>
       </c>
     </row>
-    <row r="21" s="1" customFormat="1" ht="28.5" spans="1:27">
+    <row r="21" s="1" customFormat="1" ht="28.5" hidden="1" spans="1:27">
       <c r="A21" s="12">
         <v>43557</v>
       </c>
@@ -4166,7 +4166,7 @@
         <v>U1-1;U2-1;U3-1;U4-1;U9-1;</v>
       </c>
     </row>
-    <row r="22" s="1" customFormat="1" spans="1:27">
+    <row r="22" s="1" customFormat="1" hidden="1" spans="1:27">
       <c r="A22" s="12">
         <v>43557</v>
       </c>
@@ -4215,7 +4215,7 @@
         <v>U1-1;</v>
       </c>
     </row>
-    <row r="23" s="1" customFormat="1" spans="1:27">
+    <row r="23" s="1" customFormat="1" hidden="1" spans="1:27">
       <c r="A23" s="12">
         <v>43557</v>
       </c>
@@ -4264,7 +4264,7 @@
         <v>U2-1;</v>
       </c>
     </row>
-    <row r="24" s="1" customFormat="1" spans="1:27">
+    <row r="24" s="1" customFormat="1" hidden="1" spans="1:27">
       <c r="A24" s="12">
         <v>43557</v>
       </c>
@@ -4313,7 +4313,7 @@
         <v>U9-2;</v>
       </c>
     </row>
-    <row r="25" s="1" customFormat="1" spans="1:27">
+    <row r="25" s="1" customFormat="1" hidden="1" spans="1:27">
       <c r="A25" s="12">
         <v>43557</v>
       </c>
@@ -4362,7 +4362,7 @@
         <v>U2-1;</v>
       </c>
     </row>
-    <row r="26" s="1" customFormat="1" spans="1:27">
+    <row r="26" s="1" customFormat="1" hidden="1" spans="1:27">
       <c r="A26" s="12">
         <v>43557</v>
       </c>
@@ -4411,7 +4411,7 @@
         <v>U9-1;</v>
       </c>
     </row>
-    <row r="27" s="1" customFormat="1" spans="1:27">
+    <row r="27" s="1" customFormat="1" hidden="1" spans="1:27">
       <c r="A27" s="12">
         <v>43557</v>
       </c>
@@ -4460,7 +4460,7 @@
         <v>U2-1;</v>
       </c>
     </row>
-    <row r="28" s="1" customFormat="1" spans="1:27">
+    <row r="28" s="1" customFormat="1" hidden="1" spans="1:27">
       <c r="A28" s="12">
         <v>43557</v>
       </c>
@@ -4512,7 +4512,7 @@
         <v>U9-1;</v>
       </c>
     </row>
-    <row r="29" s="1" customFormat="1" spans="1:27">
+    <row r="29" s="1" customFormat="1" hidden="1" spans="1:27">
       <c r="A29" s="12">
         <v>43557</v>
       </c>
@@ -4562,7 +4562,7 @@
         <v>U1-4;U2-4;U9-2;</v>
       </c>
     </row>
-    <row r="30" s="1" customFormat="1" spans="1:27">
+    <row r="30" s="1" customFormat="1" hidden="1" spans="1:27">
       <c r="A30" s="12">
         <v>43557</v>
       </c>
@@ -4610,7 +4610,7 @@
         <v>U9-3;U10-1;</v>
       </c>
     </row>
-    <row r="31" s="1" customFormat="1" spans="1:27">
+    <row r="31" s="1" customFormat="1" hidden="1" spans="1:27">
       <c r="A31" s="12">
         <v>43558</v>
       </c>
@@ -4665,7 +4665,7 @@
         <v>U1-9;U2-11;U8-6;U10-6;</v>
       </c>
     </row>
-    <row r="32" s="1" customFormat="1" spans="1:27">
+    <row r="32" s="1" customFormat="1" hidden="1" spans="1:27">
       <c r="A32" s="12">
         <v>43558</v>
       </c>
@@ -4719,7 +4719,7 @@
         <v>U1-1;U3-1;</v>
       </c>
     </row>
-    <row r="33" s="1" customFormat="1" spans="1:27">
+    <row r="33" s="1" customFormat="1" hidden="1" spans="1:27">
       <c r="A33" s="12">
         <v>43558</v>
       </c>
@@ -4768,7 +4768,7 @@
         <v>U10-1;</v>
       </c>
     </row>
-    <row r="34" s="1" customFormat="1" spans="1:27">
+    <row r="34" s="1" customFormat="1" hidden="1" spans="1:27">
       <c r="A34" s="12">
         <v>43558</v>
       </c>
@@ -4819,7 +4819,7 @@
         <v>U1-1;U3-1;</v>
       </c>
     </row>
-    <row r="35" s="1" customFormat="1" spans="1:27">
+    <row r="35" s="1" customFormat="1" hidden="1" spans="1:27">
       <c r="A35" s="12">
         <v>43558</v>
       </c>
@@ -4868,7 +4868,7 @@
         <v>U6-1;</v>
       </c>
     </row>
-    <row r="36" s="1" customFormat="1" spans="1:27">
+    <row r="36" s="1" customFormat="1" hidden="1" spans="1:27">
       <c r="A36" s="12">
         <v>43558</v>
       </c>
@@ -4917,7 +4917,7 @@
         <v>U2-1;</v>
       </c>
     </row>
-    <row r="37" s="1" customFormat="1" spans="1:27">
+    <row r="37" s="1" customFormat="1" hidden="1" spans="1:27">
       <c r="A37" s="12">
         <v>43558</v>
       </c>
@@ -4970,7 +4970,7 @@
         <v>U1-1;U2-1;U9-1;</v>
       </c>
     </row>
-    <row r="38" s="1" customFormat="1" spans="1:27">
+    <row r="38" s="1" customFormat="1" hidden="1" spans="1:27">
       <c r="A38" s="12">
         <v>43558</v>
       </c>
@@ -5019,7 +5019,7 @@
         <v>U10-1;</v>
       </c>
     </row>
-    <row r="39" s="1" customFormat="1" spans="1:27">
+    <row r="39" s="1" customFormat="1" hidden="1" spans="1:27">
       <c r="A39" s="12">
         <v>43558</v>
       </c>
@@ -5072,7 +5072,7 @@
         <v>U7-1;U9-3;U10-2;</v>
       </c>
     </row>
-    <row r="40" s="1" customFormat="1" spans="1:27">
+    <row r="40" s="1" customFormat="1" hidden="1" spans="1:27">
       <c r="A40" s="12">
         <v>43558</v>
       </c>
@@ -5123,7 +5123,7 @@
         <v>U8-1;U10-5;</v>
       </c>
     </row>
-    <row r="41" s="1" customFormat="1" spans="1:27">
+    <row r="41" s="1" customFormat="1" hidden="1" spans="1:27">
       <c r="A41" s="12">
         <v>43558</v>
       </c>
@@ -5172,7 +5172,7 @@
         <v>U2-2;</v>
       </c>
     </row>
-    <row r="42" s="1" customFormat="1" spans="1:27">
+    <row r="42" s="1" customFormat="1" hidden="1" spans="1:27">
       <c r="A42" s="12">
         <v>43558</v>
       </c>
@@ -5223,7 +5223,7 @@
         <v>U1-3;U2-2;</v>
       </c>
     </row>
-    <row r="43" s="1" customFormat="1" spans="1:27">
+    <row r="43" s="1" customFormat="1" hidden="1" spans="1:27">
       <c r="A43" s="12">
         <v>43558</v>
       </c>
@@ -5274,7 +5274,7 @@
         <v>U1-4;U10-5;</v>
       </c>
     </row>
-    <row r="44" s="1" customFormat="1" spans="1:27">
+    <row r="44" s="1" customFormat="1" hidden="1" spans="1:27">
       <c r="A44" s="12">
         <v>43558</v>
       </c>
@@ -5325,7 +5325,7 @@
         <v>U4-1;U7-1;</v>
       </c>
     </row>
-    <row r="45" s="1" customFormat="1" spans="1:27">
+    <row r="45" s="1" customFormat="1" hidden="1" spans="1:27">
       <c r="A45" s="12">
         <v>43558</v>
       </c>
@@ -5376,7 +5376,7 @@
         <v>U1-1;U2-1;</v>
       </c>
     </row>
-    <row r="46" s="1" customFormat="1" spans="1:27">
+    <row r="46" s="1" customFormat="1" hidden="1" spans="1:27">
       <c r="A46" s="12">
         <v>43558</v>
       </c>
@@ -5427,7 +5427,7 @@
         <v>U2-4;U9-2;</v>
       </c>
     </row>
-    <row r="47" s="1" customFormat="1" spans="1:27">
+    <row r="47" s="1" customFormat="1" hidden="1" spans="1:27">
       <c r="A47" s="12">
         <v>43559</v>
       </c>
@@ -5476,7 +5476,7 @@
         <v>U10-1;</v>
       </c>
     </row>
-    <row r="48" s="1" customFormat="1" spans="1:27">
+    <row r="48" s="1" customFormat="1" hidden="1" spans="1:27">
       <c r="A48" s="12">
         <v>43559</v>
       </c>
@@ -5525,7 +5525,7 @@
         <v>U2-1;</v>
       </c>
     </row>
-    <row r="49" s="1" customFormat="1" spans="1:27">
+    <row r="49" s="1" customFormat="1" hidden="1" spans="1:27">
       <c r="A49" s="12">
         <v>43559</v>
       </c>
@@ -5574,7 +5574,7 @@
         <v>U2-1;</v>
       </c>
     </row>
-    <row r="50" s="1" customFormat="1" spans="1:27">
+    <row r="50" s="1" customFormat="1" hidden="1" spans="1:27">
       <c r="A50" s="12">
         <v>43559</v>
       </c>
@@ -5623,7 +5623,7 @@
         <v>U10-5;</v>
       </c>
     </row>
-    <row r="51" s="1" customFormat="1" spans="1:27">
+    <row r="51" s="1" customFormat="1" hidden="1" spans="1:27">
       <c r="A51" s="12">
         <v>43559</v>
       </c>
@@ -5672,7 +5672,7 @@
         <v>U10-1;</v>
       </c>
     </row>
-    <row r="52" s="1" customFormat="1" spans="1:27">
+    <row r="52" s="1" customFormat="1" hidden="1" spans="1:27">
       <c r="A52" s="12">
         <v>43559</v>
       </c>
@@ -5721,7 +5721,7 @@
         <v>U10-1;</v>
       </c>
     </row>
-    <row r="53" s="1" customFormat="1" spans="1:27">
+    <row r="53" s="1" customFormat="1" hidden="1" spans="1:27">
       <c r="A53" s="12">
         <v>43559</v>
       </c>
@@ -5770,7 +5770,7 @@
         <v>U8-1;</v>
       </c>
     </row>
-    <row r="54" s="1" customFormat="1" spans="1:27">
+    <row r="54" s="1" customFormat="1" hidden="1" spans="1:27">
       <c r="A54" s="12">
         <v>43559</v>
       </c>
@@ -5829,7 +5829,7 @@
         <v>U1-10;U3-4;U4-4;U8-4;U9-10;U10-4;</v>
       </c>
     </row>
-    <row r="55" s="1" customFormat="1" spans="1:27">
+    <row r="55" s="1" customFormat="1" hidden="1" spans="1:27">
       <c r="A55" s="12">
         <v>43559</v>
       </c>
@@ -5878,7 +5878,7 @@
         <v>U2-1;</v>
       </c>
     </row>
-    <row r="56" s="1" customFormat="1" spans="1:27">
+    <row r="56" s="1" customFormat="1" hidden="1" spans="1:27">
       <c r="A56" s="12">
         <v>43559</v>
       </c>
@@ -5929,7 +5929,7 @@
         <v>UQ5-1</v>
       </c>
     </row>
-    <row r="57" s="1" customFormat="1" spans="1:27">
+    <row r="57" s="1" customFormat="1" hidden="1" spans="1:27">
       <c r="A57" s="12">
         <v>43559</v>
       </c>
@@ -5980,7 +5980,7 @@
         <v>U2-1;U10-1;</v>
       </c>
     </row>
-    <row r="58" s="1" customFormat="1" spans="1:27">
+    <row r="58" s="1" customFormat="1" hidden="1" spans="1:27">
       <c r="A58" s="12">
         <v>43559</v>
       </c>
@@ -6029,7 +6029,7 @@
         <v>U2-2;</v>
       </c>
     </row>
-    <row r="59" s="1" customFormat="1" spans="1:27">
+    <row r="59" s="1" customFormat="1" hidden="1" spans="1:27">
       <c r="A59" s="12">
         <v>43559</v>
       </c>
@@ -6078,7 +6078,7 @@
         <v>U2-1;</v>
       </c>
     </row>
-    <row r="60" s="1" customFormat="1" spans="1:27">
+    <row r="60" s="1" customFormat="1" hidden="1" spans="1:27">
       <c r="A60" s="12">
         <v>43559</v>
       </c>
@@ -6129,7 +6129,7 @@
         <v>UQ10-1;UK7.5-1</v>
       </c>
     </row>
-    <row r="61" s="1" customFormat="1" spans="1:27">
+    <row r="61" s="1" customFormat="1" hidden="1" spans="1:27">
       <c r="A61" s="12">
         <v>43559</v>
       </c>
@@ -6186,7 +6186,7 @@
         <v>U1-1;U2-4;U3-1;U6-2;U9-2;</v>
       </c>
     </row>
-    <row r="62" s="1" customFormat="1" ht="15.95" customHeight="1" spans="1:27">
+    <row r="62" s="1" customFormat="1" ht="15.95" hidden="1" customHeight="1" spans="1:27">
       <c r="A62" s="12">
         <v>43563</v>
       </c>
@@ -6235,7 +6235,7 @@
         <v>U2-2;</v>
       </c>
     </row>
-    <row r="63" s="1" customFormat="1" spans="1:27">
+    <row r="63" s="1" customFormat="1" hidden="1" spans="1:27">
       <c r="A63" s="12">
         <v>43563</v>
       </c>
@@ -6284,7 +6284,7 @@
         <v>U3-1;</v>
       </c>
     </row>
-    <row r="64" s="1" customFormat="1" spans="1:27">
+    <row r="64" s="1" customFormat="1" hidden="1" spans="1:27">
       <c r="A64" s="12">
         <v>43563</v>
       </c>
@@ -6333,7 +6333,7 @@
         <v>U3-1;</v>
       </c>
     </row>
-    <row r="65" s="1" customFormat="1" spans="1:27">
+    <row r="65" s="1" customFormat="1" hidden="1" spans="1:27">
       <c r="A65" s="12">
         <v>43563</v>
       </c>
@@ -6384,7 +6384,7 @@
         <v>U6-2;U9-1;</v>
       </c>
     </row>
-    <row r="66" s="1" customFormat="1" spans="1:27">
+    <row r="66" s="1" customFormat="1" hidden="1" spans="1:27">
       <c r="A66" s="12">
         <v>43563</v>
       </c>
@@ -6436,7 +6436,7 @@
         <v>U1-1;U2-8;U9-1;</v>
       </c>
     </row>
-    <row r="67" s="1" customFormat="1" spans="1:27">
+    <row r="67" s="1" customFormat="1" hidden="1" spans="1:27">
       <c r="A67" s="12">
         <v>43563</v>
       </c>
@@ -6486,7 +6486,7 @@
         <v>U2-1;</v>
       </c>
     </row>
-    <row r="68" s="1" customFormat="1" spans="1:27">
+    <row r="68" s="1" customFormat="1" hidden="1" spans="1:27">
       <c r="A68" s="12">
         <v>43563</v>
       </c>
@@ -6536,7 +6536,7 @@
         <v>U3-1;</v>
       </c>
     </row>
-    <row r="69" s="1" customFormat="1" spans="1:27">
+    <row r="69" s="1" customFormat="1" hidden="1" spans="1:27">
       <c r="A69" s="12">
         <v>43563</v>
       </c>
@@ -6588,7 +6588,7 @@
         <v>U1-1;U3-1;</v>
       </c>
     </row>
-    <row r="70" s="1" customFormat="1" spans="1:27">
+    <row r="70" s="1" customFormat="1" hidden="1" spans="1:27">
       <c r="A70" s="12">
         <v>43563</v>
       </c>
@@ -6640,7 +6640,7 @@
         <v>U6-1;U9-2;</v>
       </c>
     </row>
-    <row r="71" s="1" customFormat="1" spans="1:27">
+    <row r="71" s="1" customFormat="1" hidden="1" spans="1:27">
       <c r="A71" s="12">
         <v>43563</v>
       </c>
@@ -6694,7 +6694,7 @@
         <v>U1-5;U2-3;U4-2;</v>
       </c>
     </row>
-    <row r="72" s="1" customFormat="1" spans="1:27">
+    <row r="72" s="1" customFormat="1" hidden="1" spans="1:27">
       <c r="A72" s="12">
         <v>43563</v>
       </c>
@@ -6748,7 +6748,7 @@
         <v>U4-2;U6-1;U10-3;</v>
       </c>
     </row>
-    <row r="73" s="1" customFormat="1" spans="1:27">
+    <row r="73" s="1" customFormat="1" hidden="1" spans="1:27">
       <c r="A73" s="12">
         <v>43563</v>
       </c>
@@ -6802,7 +6802,7 @@
         <v>U1-5;U6-5;U7-3;</v>
       </c>
     </row>
-    <row r="74" s="1" customFormat="1" ht="12.95" customHeight="1" spans="1:27">
+    <row r="74" s="1" customFormat="1" ht="12.95" hidden="1" customHeight="1" spans="1:27">
       <c r="A74" s="12">
         <v>43563</v>
       </c>
@@ -6854,7 +6854,7 @@
         <v>U2-1;U10-1;</v>
       </c>
     </row>
-    <row r="75" s="1" customFormat="1" spans="1:27">
+    <row r="75" s="1" customFormat="1" hidden="1" spans="1:27">
       <c r="A75" s="12">
         <v>43563</v>
       </c>
@@ -6908,7 +6908,7 @@
         <v>U1-4;U2-5;U6-1;</v>
       </c>
     </row>
-    <row r="76" s="1" customFormat="1" spans="1:27">
+    <row r="76" s="1" customFormat="1" hidden="1" spans="1:27">
       <c r="A76" s="12">
         <v>43563</v>
       </c>
@@ -6961,7 +6961,7 @@
         <v>U1-1;</v>
       </c>
     </row>
-    <row r="77" s="2" customFormat="1" spans="1:27">
+    <row r="77" s="2" customFormat="1" hidden="1" spans="1:27">
       <c r="A77" s="23">
         <v>43563</v>
       </c>
@@ -7013,7 +7013,7 @@
         <v>UK5-1</v>
       </c>
     </row>
-    <row r="78" s="1" customFormat="1" ht="42.75" spans="1:27">
+    <row r="78" s="1" customFormat="1" ht="42.75" hidden="1" spans="1:27">
       <c r="A78" s="23">
         <v>43563</v>
       </c>
@@ -7071,7 +7071,7 @@
         <v>U2-20;U3-5;U4-5;U6-5;U9-5;</v>
       </c>
     </row>
-    <row r="79" s="1" customFormat="1" spans="1:27">
+    <row r="79" s="1" customFormat="1" hidden="1" spans="1:27">
       <c r="A79" s="23">
         <v>43563</v>
       </c>
@@ -7127,7 +7127,7 @@
         <v>U1-1;U2-3;U9-1;U10-1;</v>
       </c>
     </row>
-    <row r="80" s="1" customFormat="1" spans="1:27">
+    <row r="80" s="1" customFormat="1" hidden="1" spans="1:27">
       <c r="A80" s="23">
         <v>43563</v>
       </c>
@@ -7179,7 +7179,7 @@
         <v>U2-4;U9-2;</v>
       </c>
     </row>
-    <row r="81" s="1" customFormat="1" spans="1:27">
+    <row r="81" s="1" customFormat="1" hidden="1" spans="1:27">
       <c r="A81" s="23">
         <v>43563</v>
       </c>
@@ -7229,7 +7229,7 @@
         <v>U10-1;</v>
       </c>
     </row>
-    <row r="82" s="1" customFormat="1" spans="1:27">
+    <row r="82" s="1" customFormat="1" hidden="1" spans="1:27">
       <c r="A82" s="23">
         <v>43563</v>
       </c>
@@ -7283,7 +7283,7 @@
         <v>UK10-1</v>
       </c>
     </row>
-    <row r="83" s="1" customFormat="1" spans="1:27">
+    <row r="83" s="1" customFormat="1" hidden="1" spans="1:27">
       <c r="A83" s="23">
         <v>43563</v>
       </c>
@@ -7332,7 +7332,7 @@
         <v>U10-1;</v>
       </c>
     </row>
-    <row r="84" s="1" customFormat="1" spans="1:27">
+    <row r="84" s="1" customFormat="1" hidden="1" spans="1:27">
       <c r="A84" s="23">
         <v>43563</v>
       </c>
@@ -7381,7 +7381,7 @@
         <v>U2-2;</v>
       </c>
     </row>
-    <row r="85" s="1" customFormat="1" spans="1:27">
+    <row r="85" s="1" customFormat="1" hidden="1" spans="1:27">
       <c r="A85" s="23">
         <v>43563</v>
       </c>
@@ -7430,7 +7430,7 @@
         <v>U2-2;</v>
       </c>
     </row>
-    <row r="86" s="1" customFormat="1" spans="1:27">
+    <row r="86" s="1" customFormat="1" hidden="1" spans="1:27">
       <c r="A86" s="23">
         <v>43563</v>
       </c>
@@ -7476,7 +7476,7 @@
         <v>U8-1;</v>
       </c>
     </row>
-    <row r="87" s="1" customFormat="1" ht="57" spans="1:27">
+    <row r="87" s="1" customFormat="1" ht="57" hidden="1" spans="1:27">
       <c r="A87" s="12">
         <v>43564</v>
       </c>
@@ -7531,7 +7531,7 @@
         <v>U1-14;U2-10;U3-10;U4-10;</v>
       </c>
     </row>
-    <row r="88" s="1" customFormat="1" spans="1:27">
+    <row r="88" s="1" customFormat="1" hidden="1" spans="1:27">
       <c r="A88" s="12">
         <v>43564</v>
       </c>
@@ -7577,7 +7577,7 @@
         <v>U1-1;</v>
       </c>
     </row>
-    <row r="89" s="1" customFormat="1" spans="1:27">
+    <row r="89" s="1" customFormat="1" hidden="1" spans="1:27">
       <c r="A89" s="12">
         <v>43564</v>
       </c>
@@ -7623,7 +7623,7 @@
         <v>U10-1;</v>
       </c>
     </row>
-    <row r="90" s="1" customFormat="1" spans="1:27">
+    <row r="90" s="1" customFormat="1" hidden="1" spans="1:27">
       <c r="A90" s="12">
         <v>43564</v>
       </c>
@@ -7669,7 +7669,7 @@
         <v>U1-2;</v>
       </c>
     </row>
-    <row r="91" s="1" customFormat="1" spans="1:27">
+    <row r="91" s="1" customFormat="1" hidden="1" spans="1:27">
       <c r="A91" s="12">
         <v>43564</v>
       </c>
@@ -7721,7 +7721,7 @@
         <v>U1-10;U2-5;U3-2;U9-5;</v>
       </c>
     </row>
-    <row r="92" s="1" customFormat="1" spans="1:27">
+    <row r="92" s="1" customFormat="1" hidden="1" spans="1:27">
       <c r="A92" s="12">
         <v>43564</v>
       </c>
@@ -7767,7 +7767,7 @@
         <v>U10-2;</v>
       </c>
     </row>
-    <row r="93" s="1" customFormat="1" spans="1:27">
+    <row r="93" s="1" customFormat="1" hidden="1" spans="1:27">
       <c r="A93" s="12">
         <v>43565</v>
       </c>
@@ -7814,7 +7814,7 @@
         <v>U7-1;</v>
       </c>
     </row>
-    <row r="94" s="1" customFormat="1" spans="1:27">
+    <row r="94" s="1" customFormat="1" hidden="1" spans="1:27">
       <c r="A94" s="12">
         <v>43565</v>
       </c>
@@ -7861,7 +7861,7 @@
         <v>U1-1;</v>
       </c>
     </row>
-    <row r="95" s="1" customFormat="1" spans="1:27">
+    <row r="95" s="1" customFormat="1" hidden="1" spans="1:27">
       <c r="A95" s="12">
         <v>43565</v>
       </c>
@@ -7908,7 +7908,7 @@
         <v>U2-2;</v>
       </c>
     </row>
-    <row r="96" s="1" customFormat="1" spans="1:27">
+    <row r="96" s="1" customFormat="1" hidden="1" spans="1:27">
       <c r="A96" s="12">
         <v>43565</v>
       </c>
@@ -7956,7 +7956,7 @@
         <v>U2-1;</v>
       </c>
     </row>
-    <row r="97" s="1" customFormat="1" spans="1:27">
+    <row r="97" s="1" customFormat="1" hidden="1" spans="1:27">
       <c r="A97" s="12">
         <v>43565</v>
       </c>
@@ -8015,7 +8015,7 @@
         <v>U1-4;U2-4;U3-3;U4-3;U6-2;U7-2;U9-2;</v>
       </c>
     </row>
-    <row r="98" s="1" customFormat="1" spans="1:27">
+    <row r="98" s="1" customFormat="1" hidden="1" spans="1:27">
       <c r="A98" s="12">
         <v>43565</v>
       </c>
@@ -8062,7 +8062,7 @@
         <v>U9-2;</v>
       </c>
     </row>
-    <row r="99" s="1" customFormat="1" spans="1:27">
+    <row r="99" s="1" customFormat="1" hidden="1" spans="1:27">
       <c r="A99" s="12">
         <v>43565</v>
       </c>
@@ -8111,7 +8111,7 @@
         <v>U2-1;U9-1;</v>
       </c>
     </row>
-    <row r="100" s="1" customFormat="1" spans="1:27">
+    <row r="100" s="1" customFormat="1" hidden="1" spans="1:27">
       <c r="A100" s="12">
         <v>43566</v>
       </c>
@@ -8158,7 +8158,7 @@
         <v>U10-1;</v>
       </c>
     </row>
-    <row r="101" s="1" customFormat="1" spans="1:27">
+    <row r="101" s="1" customFormat="1" hidden="1" spans="1:27">
       <c r="A101" s="12">
         <v>43566</v>
       </c>
@@ -8205,7 +8205,7 @@
         <v>U8-1;</v>
       </c>
     </row>
-    <row r="102" s="1" customFormat="1" spans="1:27">
+    <row r="102" s="1" customFormat="1" hidden="1" spans="1:27">
       <c r="A102" s="12">
         <v>43566</v>
       </c>
@@ -8252,7 +8252,7 @@
         <v>U2-2;</v>
       </c>
     </row>
-    <row r="103" s="1" customFormat="1" spans="1:27">
+    <row r="103" s="1" customFormat="1" hidden="1" spans="1:27">
       <c r="A103" s="12">
         <v>43566</v>
       </c>
@@ -8299,7 +8299,7 @@
         <v>U2-1;</v>
       </c>
     </row>
-    <row r="104" s="1" customFormat="1" spans="1:27">
+    <row r="104" s="1" customFormat="1" hidden="1" spans="1:27">
       <c r="A104" s="12">
         <v>43566</v>
       </c>
@@ -8350,7 +8350,7 @@
         <v>U1-2;U3-2;U9-2;</v>
       </c>
     </row>
-    <row r="105" s="1" customFormat="1" spans="1:27">
+    <row r="105" s="1" customFormat="1" hidden="1" spans="1:27">
       <c r="A105" s="12">
         <v>43566</v>
       </c>
@@ -8397,7 +8397,7 @@
         <v>U10-2;</v>
       </c>
     </row>
-    <row r="106" s="1" customFormat="1" spans="1:27">
+    <row r="106" s="1" customFormat="1" hidden="1" spans="1:27">
       <c r="A106" s="12">
         <v>43566</v>
       </c>
@@ -8444,7 +8444,7 @@
         <v>U3-1;</v>
       </c>
     </row>
-    <row r="107" s="1" customFormat="1" spans="1:27">
+    <row r="107" s="1" customFormat="1" hidden="1" spans="1:27">
       <c r="A107" s="12">
         <v>43566</v>
       </c>
@@ -8494,7 +8494,7 @@
         <v>2.2m*2m*7.5cm -1</v>
       </c>
     </row>
-    <row r="108" s="1" customFormat="1" spans="1:27">
+    <row r="108" s="1" customFormat="1" hidden="1" spans="1:27">
       <c r="A108" s="12">
         <v>43566</v>
       </c>
@@ -8540,7 +8540,7 @@
         <v>U1-1;</v>
       </c>
     </row>
-    <row r="109" s="1" customFormat="1" spans="1:27">
+    <row r="109" s="1" customFormat="1" hidden="1" spans="1:27">
       <c r="A109" s="12">
         <v>43566</v>
       </c>
@@ -8586,7 +8586,7 @@
         <v>U9-1;</v>
       </c>
     </row>
-    <row r="110" s="1" customFormat="1" spans="1:27">
+    <row r="110" s="1" customFormat="1" hidden="1" spans="1:27">
       <c r="A110" s="12">
         <v>43566</v>
       </c>
@@ -8632,7 +8632,7 @@
         <v>U2-2;</v>
       </c>
     </row>
-    <row r="111" s="1" customFormat="1" spans="1:27">
+    <row r="111" s="1" customFormat="1" hidden="1" spans="1:27">
       <c r="A111" s="12">
         <v>43566</v>
       </c>
@@ -8674,7 +8674,7 @@
         <v/>
       </c>
     </row>
-    <row r="112" s="1" customFormat="1" spans="1:27">
+    <row r="112" s="1" customFormat="1" hidden="1" spans="1:27">
       <c r="A112" s="12">
         <v>43566</v>
       </c>
@@ -8726,7 +8726,7 @@
         <v>U1-15;U2-15;U8-2;U10-2;</v>
       </c>
     </row>
-    <row r="113" s="1" customFormat="1" spans="1:27">
+    <row r="113" s="1" customFormat="1" hidden="1" spans="1:27">
       <c r="A113" s="12">
         <v>43566</v>
       </c>
@@ -8774,7 +8774,7 @@
         <v>U2-1;U3-1;</v>
       </c>
     </row>
-    <row r="114" s="1" customFormat="1" spans="1:27">
+    <row r="114" s="1" customFormat="1" hidden="1" spans="1:27">
       <c r="A114" s="12">
         <v>43567</v>
       </c>
@@ -8825,7 +8825,7 @@
         <v>U1-3;U2-3;U9-6;</v>
       </c>
     </row>
-    <row r="115" s="1" customFormat="1" spans="1:27">
+    <row r="115" s="1" customFormat="1" hidden="1" spans="1:27">
       <c r="A115" s="12">
         <v>43567</v>
       </c>
@@ -8872,7 +8872,7 @@
         <v>U1-10;</v>
       </c>
     </row>
-    <row r="116" s="1" customFormat="1" spans="1:27">
+    <row r="116" s="1" customFormat="1" hidden="1" spans="1:27">
       <c r="A116" s="12">
         <v>43567</v>
       </c>
@@ -8920,7 +8920,7 @@
         <v>UK5-1</v>
       </c>
     </row>
-    <row r="117" s="1" customFormat="1" spans="1:27">
+    <row r="117" s="1" customFormat="1" hidden="1" spans="1:27">
       <c r="A117" s="12">
         <v>43567</v>
       </c>
@@ -8969,7 +8969,7 @@
         <v>U1-1;U2-1;</v>
       </c>
     </row>
-    <row r="118" s="1" customFormat="1" spans="1:27">
+    <row r="118" s="1" customFormat="1" hidden="1" spans="1:27">
       <c r="A118" s="12">
         <v>43567</v>
       </c>
@@ -9018,7 +9018,7 @@
         <v>U6-1;U9-1;</v>
       </c>
     </row>
-    <row r="119" s="1" customFormat="1" spans="1:27">
+    <row r="119" s="1" customFormat="1" hidden="1" spans="1:27">
       <c r="A119" s="12">
         <v>43567</v>
       </c>
@@ -9066,7 +9066,7 @@
         <v>1.9m*0.95m*10cm -1</v>
       </c>
     </row>
-    <row r="120" s="1" customFormat="1" spans="1:27">
+    <row r="120" s="1" customFormat="1" hidden="1" spans="1:27">
       <c r="A120" s="12">
         <v>43567</v>
       </c>
@@ -9117,7 +9117,7 @@
         <v>U1-2;U2-2;U9-2;</v>
       </c>
     </row>
-    <row r="121" s="1" customFormat="1" spans="1:27">
+    <row r="121" s="1" customFormat="1" hidden="1" spans="1:27">
       <c r="A121" s="12">
         <v>43567</v>
       </c>
@@ -9164,7 +9164,7 @@
         <v>U2-1;</v>
       </c>
     </row>
-    <row r="122" s="1" customFormat="1" spans="1:27">
+    <row r="122" s="1" customFormat="1" hidden="1" spans="1:27">
       <c r="A122" s="12">
         <v>43567</v>
       </c>
@@ -9225,7 +9225,7 @@
         <v>U1-2;U2-2;U3-1;U4-1;U7-1;U8-1;U9-1;U10-1;</v>
       </c>
     </row>
-    <row r="123" s="1" customFormat="1" spans="1:27">
+    <row r="123" s="1" customFormat="1" hidden="1" spans="1:27">
       <c r="A123" s="12">
         <v>43567</v>
       </c>
@@ -9272,7 +9272,7 @@
         <v>U8-1;</v>
       </c>
     </row>
-    <row r="124" s="1" customFormat="1" spans="1:27">
+    <row r="124" s="1" customFormat="1" hidden="1" spans="1:27">
       <c r="A124" s="12">
         <v>43567</v>
       </c>
@@ -9320,7 +9320,7 @@
         <v>us10-1</v>
       </c>
     </row>
-    <row r="125" s="1" customFormat="1" spans="1:27">
+    <row r="125" s="1" customFormat="1" hidden="1" spans="1:27">
       <c r="A125" s="12">
         <v>43567</v>
       </c>
@@ -9369,7 +9369,7 @@
         <v>U2-1;U3-1;</v>
       </c>
     </row>
-    <row r="126" s="1" customFormat="1" spans="1:27">
+    <row r="126" s="1" customFormat="1" hidden="1" spans="1:27">
       <c r="A126" s="12">
         <v>43567</v>
       </c>
@@ -9417,7 +9417,7 @@
         <v>UK10-1</v>
       </c>
     </row>
-    <row r="127" s="1" customFormat="1" spans="1:27">
+    <row r="127" s="1" customFormat="1" hidden="1" spans="1:27">
       <c r="A127" s="12">
         <v>43567</v>
       </c>
@@ -9472,7 +9472,7 @@
         <v>U1-2;U2-2;U8-3;U9-3;U10-1;</v>
       </c>
     </row>
-    <row r="128" s="1" customFormat="1" spans="1:27">
+    <row r="128" s="1" customFormat="1" hidden="1" spans="1:27">
       <c r="A128" s="12">
         <v>43567</v>
       </c>
@@ -9519,7 +9519,7 @@
         <v>U2-1;</v>
       </c>
     </row>
-    <row r="129" s="1" customFormat="1" spans="1:27">
+    <row r="129" s="1" customFormat="1" hidden="1" spans="1:27">
       <c r="A129" s="12">
         <v>43567</v>
       </c>
@@ -9566,7 +9566,7 @@
         <v>U2-1;</v>
       </c>
     </row>
-    <row r="130" s="1" customFormat="1" spans="1:27">
+    <row r="130" s="1" customFormat="1" hidden="1" spans="1:27">
       <c r="A130" s="12">
         <v>43568</v>
       </c>
@@ -9613,7 +9613,7 @@
         <v>U1-1;</v>
       </c>
     </row>
-    <row r="131" s="1" customFormat="1" spans="1:27">
+    <row r="131" s="1" customFormat="1" hidden="1" spans="1:27">
       <c r="A131" s="12">
         <v>43568</v>
       </c>
@@ -9664,7 +9664,7 @@
         <v>U1-4;U8-4;U10-2;</v>
       </c>
     </row>
-    <row r="132" s="1" customFormat="1" spans="1:27">
+    <row r="132" s="1" customFormat="1" hidden="1" spans="1:27">
       <c r="A132" s="12">
         <v>43568</v>
       </c>
@@ -9717,7 +9717,7 @@
         <v>U1-5;U6-2;U7-1;U9-2;</v>
       </c>
     </row>
-    <row r="133" s="1" customFormat="1" spans="1:27">
+    <row r="133" s="1" customFormat="1" hidden="1" spans="1:27">
       <c r="A133" s="12">
         <v>43568</v>
       </c>
@@ -9766,7 +9766,7 @@
         <v>U1-3;U2-7;</v>
       </c>
     </row>
-    <row r="134" s="1" customFormat="1" spans="1:27">
+    <row r="134" s="1" customFormat="1" hidden="1" spans="1:27">
       <c r="A134" s="12">
         <v>43568</v>
       </c>
@@ -9815,7 +9815,7 @@
         <v>U1-1;U2-1;</v>
       </c>
     </row>
-    <row r="135" s="1" customFormat="1" spans="1:27">
+    <row r="135" s="1" customFormat="1" hidden="1" spans="1:27">
       <c r="A135" s="12">
         <v>43568</v>
       </c>
@@ -9862,7 +9862,7 @@
         <v>U1-1;</v>
       </c>
     </row>
-    <row r="136" s="1" customFormat="1" spans="1:27">
+    <row r="136" s="1" customFormat="1" hidden="1" spans="1:27">
       <c r="A136" s="12">
         <v>43570</v>
       </c>
@@ -9909,7 +9909,7 @@
         <v>U6-1;</v>
       </c>
     </row>
-    <row r="137" s="1" customFormat="1" spans="1:27">
+    <row r="137" s="1" customFormat="1" hidden="1" spans="1:27">
       <c r="A137" s="12">
         <v>43570</v>
       </c>
@@ -9956,7 +9956,7 @@
         <v>U2-2;</v>
       </c>
     </row>
-    <row r="138" s="1" customFormat="1" spans="1:27">
+    <row r="138" s="1" customFormat="1" hidden="1" spans="1:27">
       <c r="A138" s="12">
         <v>43570</v>
       </c>
@@ -10011,7 +10011,7 @@
         <v>U2-2;U3-1;U4-1;U6-2;U9-4;</v>
       </c>
     </row>
-    <row r="139" s="1" customFormat="1" spans="1:27">
+    <row r="139" s="1" customFormat="1" hidden="1" spans="1:27">
       <c r="A139" s="12">
         <v>43570</v>
       </c>
@@ -10062,7 +10062,7 @@
         <v>U1-1;U2-5;U3-1;</v>
       </c>
     </row>
-    <row r="140" s="1" customFormat="1" spans="1:27">
+    <row r="140" s="1" customFormat="1" hidden="1" spans="1:27">
       <c r="A140" s="12">
         <v>43570</v>
       </c>
@@ -10109,7 +10109,7 @@
         <v>U9-2;</v>
       </c>
     </row>
-    <row r="141" s="1" customFormat="1" spans="1:27">
+    <row r="141" s="1" customFormat="1" hidden="1" spans="1:27">
       <c r="A141" s="12">
         <v>43570</v>
       </c>
@@ -10156,7 +10156,7 @@
         <v>U2-1;</v>
       </c>
     </row>
-    <row r="142" s="1" customFormat="1" spans="1:27">
+    <row r="142" s="1" customFormat="1" hidden="1" spans="1:27">
       <c r="A142" s="12">
         <v>43570</v>
       </c>
@@ -10203,7 +10203,7 @@
         <v>U2-7;</v>
       </c>
     </row>
-    <row r="143" ht="21" customHeight="1" spans="1:27">
+    <row r="143" ht="21" hidden="1" customHeight="1" spans="1:27">
       <c r="A143" s="12">
         <v>43571</v>
       </c>
@@ -10240,7 +10240,7 @@
         <v>U2-2;</v>
       </c>
     </row>
-    <row r="144" spans="1:27">
+    <row r="144" hidden="1" spans="1:27">
       <c r="A144" s="12">
         <v>43571</v>
       </c>
@@ -10277,7 +10277,7 @@
         <v>U9-1;</v>
       </c>
     </row>
-    <row r="145" spans="1:27">
+    <row r="145" hidden="1" spans="1:27">
       <c r="A145" s="12">
         <v>43571</v>
       </c>
@@ -10317,7 +10317,7 @@
         <v>U2-1;U10-1;</v>
       </c>
     </row>
-    <row r="146" spans="1:27">
+    <row r="146" hidden="1" spans="1:27">
       <c r="A146" s="12">
         <v>43571</v>
       </c>
@@ -10354,7 +10354,7 @@
         <v>U9-3;</v>
       </c>
     </row>
-    <row r="147" spans="1:27">
+    <row r="147" hidden="1" spans="1:27">
       <c r="A147" s="12">
         <v>43571</v>
       </c>
@@ -10391,7 +10391,7 @@
         <v>U1-1;</v>
       </c>
     </row>
-    <row r="148" spans="1:27">
+    <row r="148" hidden="1" spans="1:27">
       <c r="A148" s="12">
         <v>43571</v>
       </c>
@@ -10434,7 +10434,7 @@
         <v>U1-1;U3-2;U9-1;</v>
       </c>
     </row>
-    <row r="149" spans="1:27">
+    <row r="149" hidden="1" spans="1:27">
       <c r="A149" s="12">
         <v>43571</v>
       </c>
@@ -10471,7 +10471,7 @@
         <v>U3-1;</v>
       </c>
     </row>
-    <row r="150" spans="1:27">
+    <row r="150" hidden="1" spans="1:27">
       <c r="A150" s="12">
         <v>43571</v>
       </c>
@@ -10511,7 +10511,7 @@
         <v>U2-2;U8-1;</v>
       </c>
     </row>
-    <row r="151" spans="1:27">
+    <row r="151" hidden="1" spans="1:27">
       <c r="A151" s="12">
         <v>43571</v>
       </c>
@@ -10548,7 +10548,7 @@
         <v>UK10 -1</v>
       </c>
     </row>
-    <row r="152" spans="1:27">
+    <row r="152" hidden="1" spans="1:27">
       <c r="A152" s="12">
         <v>43572</v>
       </c>
@@ -10585,7 +10585,7 @@
         <v>U1-1;</v>
       </c>
     </row>
-    <row r="153" spans="1:27">
+    <row r="153" hidden="1" spans="1:27">
       <c r="A153" s="12">
         <v>43572</v>
       </c>
@@ -10622,7 +10622,7 @@
         <v>UK10 -1</v>
       </c>
     </row>
-    <row r="154" spans="1:27">
+    <row r="154" hidden="1" spans="1:27">
       <c r="A154" s="12">
         <v>43572</v>
       </c>
@@ -10683,7 +10683,7 @@
         <v>U1-10;U2-10;U3-6;U4-6;U6-3;U7-2;U8-2;U9-3;U10-2;</v>
       </c>
     </row>
-    <row r="155" spans="1:27">
+    <row r="155" hidden="1" spans="1:27">
       <c r="A155" s="12">
         <v>43572</v>
       </c>
@@ -10720,7 +10720,7 @@
         <v>U9-1;</v>
       </c>
     </row>
-    <row r="156" spans="1:27">
+    <row r="156" hidden="1" spans="1:27">
       <c r="A156" s="12">
         <v>43572</v>
       </c>
@@ -10757,7 +10757,7 @@
         <v>U2-2;U9-4;</v>
       </c>
     </row>
-    <row r="157" spans="1:27">
+    <row r="157" hidden="1" spans="1:27">
       <c r="A157" s="12">
         <v>43572</v>
       </c>
@@ -11901,6 +11901,11 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:W171">
+    <filterColumn colId="0">
+      <filters>
+        <dateGroupItem year="2019" month="4" day="18" dateTimeGrouping="day"/>
+      </filters>
+    </filterColumn>
     <extLst/>
   </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
